--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,115 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2327000</v>
+        <v>2144100</v>
       </c>
       <c r="E8" s="3">
-        <v>2305300</v>
+        <v>2274800</v>
       </c>
       <c r="F8" s="3">
-        <v>2237500</v>
+        <v>2253600</v>
       </c>
       <c r="G8" s="3">
-        <v>2192700</v>
+        <v>2187300</v>
       </c>
       <c r="H8" s="3">
-        <v>2107500</v>
+        <v>2143500</v>
       </c>
       <c r="I8" s="3">
-        <v>1969000</v>
+        <v>2060300</v>
       </c>
       <c r="J8" s="3">
+        <v>1924800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1771200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1759700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1710700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1641300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1581600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1543500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +863,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +976,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,8 +1023,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1070,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1214000</v>
+        <v>1093100</v>
       </c>
       <c r="E17" s="3">
-        <v>1149000</v>
+        <v>1186800</v>
       </c>
       <c r="F17" s="3">
-        <v>1159100</v>
+        <v>1123300</v>
       </c>
       <c r="G17" s="3">
-        <v>1124300</v>
+        <v>1133100</v>
       </c>
       <c r="H17" s="3">
-        <v>1022000</v>
+        <v>1099000</v>
       </c>
       <c r="I17" s="3">
-        <v>921000</v>
+        <v>999100</v>
       </c>
       <c r="J17" s="3">
+        <v>900300</v>
+      </c>
+      <c r="K17" s="3">
         <v>768000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>786000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>835400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>774200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>757300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>705000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1113000</v>
+        <v>1051000</v>
       </c>
       <c r="E18" s="3">
-        <v>1156300</v>
+        <v>1088000</v>
       </c>
       <c r="F18" s="3">
-        <v>1078300</v>
+        <v>1130300</v>
       </c>
       <c r="G18" s="3">
-        <v>1068400</v>
+        <v>1054100</v>
       </c>
       <c r="H18" s="3">
-        <v>1085500</v>
+        <v>1044500</v>
       </c>
       <c r="I18" s="3">
-        <v>1048000</v>
+        <v>1061200</v>
       </c>
       <c r="J18" s="3">
+        <v>1024500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1003200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>973700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>875200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>867100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>824400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>838500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1201,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-157300</v>
+        <v>-211200</v>
       </c>
       <c r="E20" s="3">
-        <v>-143600</v>
+        <v>-153800</v>
       </c>
       <c r="F20" s="3">
-        <v>-171100</v>
+        <v>-140400</v>
       </c>
       <c r="G20" s="3">
-        <v>-271500</v>
+        <v>-167200</v>
       </c>
       <c r="H20" s="3">
-        <v>-186200</v>
+        <v>-265400</v>
       </c>
       <c r="I20" s="3">
-        <v>-122700</v>
+        <v>-182000</v>
       </c>
       <c r="J20" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-142200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-172400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-84100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-105400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-75900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-164800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1029200</v>
+        <v>916500</v>
       </c>
       <c r="E21" s="3">
-        <v>1082600</v>
+        <v>1006100</v>
       </c>
       <c r="F21" s="3">
-        <v>972900</v>
+        <v>1058400</v>
       </c>
       <c r="G21" s="3">
-        <v>849600</v>
+        <v>951100</v>
       </c>
       <c r="H21" s="3">
-        <v>949100</v>
+        <v>830500</v>
       </c>
       <c r="I21" s="3">
-        <v>973700</v>
+        <v>927800</v>
       </c>
       <c r="J21" s="3">
+        <v>951800</v>
+      </c>
+      <c r="K21" s="3">
         <v>907300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>853100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>837600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>805200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>797100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>716700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1340,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>955600</v>
+        <v>839800</v>
       </c>
       <c r="E23" s="3">
-        <v>1012600</v>
+        <v>934200</v>
       </c>
       <c r="F23" s="3">
-        <v>907300</v>
+        <v>989900</v>
       </c>
       <c r="G23" s="3">
-        <v>797000</v>
+        <v>886900</v>
       </c>
       <c r="H23" s="3">
-        <v>899300</v>
+        <v>779100</v>
       </c>
       <c r="I23" s="3">
-        <v>925300</v>
+        <v>879100</v>
       </c>
       <c r="J23" s="3">
+        <v>904500</v>
+      </c>
+      <c r="K23" s="3">
         <v>861100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>801300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>791200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>761700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>748400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>673700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>145800</v>
+        <v>126000</v>
       </c>
       <c r="E24" s="3">
+        <v>142500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>163000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>141100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>130800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>145300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="L24" s="3">
         <v>166700</v>
       </c>
-      <c r="F24" s="3">
-        <v>144400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>133800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>148700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>145800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>153000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>166700</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>137900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>135700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>149700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>129600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>809800</v>
+        <v>713800</v>
       </c>
       <c r="E26" s="3">
-        <v>845900</v>
+        <v>791600</v>
       </c>
       <c r="F26" s="3">
-        <v>762900</v>
+        <v>826900</v>
       </c>
       <c r="G26" s="3">
-        <v>663200</v>
+        <v>745800</v>
       </c>
       <c r="H26" s="3">
-        <v>750600</v>
+        <v>648300</v>
       </c>
       <c r="I26" s="3">
-        <v>779500</v>
+        <v>733800</v>
       </c>
       <c r="J26" s="3">
+        <v>762000</v>
+      </c>
+      <c r="K26" s="3">
         <v>708000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>634600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>653300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>626000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>598700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>544100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>806900</v>
+        <v>640600</v>
       </c>
       <c r="E27" s="3">
-        <v>843000</v>
+        <v>788800</v>
       </c>
       <c r="F27" s="3">
-        <v>759300</v>
+        <v>824100</v>
       </c>
       <c r="G27" s="3">
-        <v>581000</v>
+        <v>742300</v>
       </c>
       <c r="H27" s="3">
-        <v>748500</v>
+        <v>567900</v>
       </c>
       <c r="I27" s="3">
-        <v>777300</v>
+        <v>731700</v>
       </c>
       <c r="J27" s="3">
+        <v>759900</v>
+      </c>
+      <c r="K27" s="3">
         <v>705900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>555200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>651100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>623100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>595800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>473700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1622,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1669,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>157300</v>
+        <v>211200</v>
       </c>
       <c r="E32" s="3">
-        <v>143600</v>
+        <v>153800</v>
       </c>
       <c r="F32" s="3">
-        <v>171100</v>
+        <v>140400</v>
       </c>
       <c r="G32" s="3">
-        <v>271500</v>
+        <v>167200</v>
       </c>
       <c r="H32" s="3">
-        <v>186200</v>
+        <v>265400</v>
       </c>
       <c r="I32" s="3">
-        <v>122700</v>
+        <v>182000</v>
       </c>
       <c r="J32" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K32" s="3">
         <v>142200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>172400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>84100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>105400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>75900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>164800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>806900</v>
+        <v>640600</v>
       </c>
       <c r="E33" s="3">
-        <v>843000</v>
+        <v>788800</v>
       </c>
       <c r="F33" s="3">
-        <v>759300</v>
+        <v>824100</v>
       </c>
       <c r="G33" s="3">
-        <v>581000</v>
+        <v>742300</v>
       </c>
       <c r="H33" s="3">
-        <v>748500</v>
+        <v>567900</v>
       </c>
       <c r="I33" s="3">
-        <v>777300</v>
+        <v>731700</v>
       </c>
       <c r="J33" s="3">
+        <v>759900</v>
+      </c>
+      <c r="K33" s="3">
         <v>705900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>555200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>651100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>623100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>595800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>473700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>806900</v>
+        <v>640600</v>
       </c>
       <c r="E35" s="3">
-        <v>843000</v>
+        <v>788800</v>
       </c>
       <c r="F35" s="3">
-        <v>759300</v>
+        <v>824100</v>
       </c>
       <c r="G35" s="3">
-        <v>581000</v>
+        <v>742300</v>
       </c>
       <c r="H35" s="3">
-        <v>748500</v>
+        <v>567900</v>
       </c>
       <c r="I35" s="3">
-        <v>777300</v>
+        <v>731700</v>
       </c>
       <c r="J35" s="3">
+        <v>759900</v>
+      </c>
+      <c r="K35" s="3">
         <v>705900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>555200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>651100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>623100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>595800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>473700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2043,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53491800</v>
+        <v>55531400</v>
       </c>
       <c r="E41" s="3">
-        <v>57628900</v>
+        <v>52291900</v>
       </c>
       <c r="F41" s="3">
-        <v>56983700</v>
+        <v>56336200</v>
       </c>
       <c r="G41" s="3">
-        <v>54891300</v>
+        <v>55705500</v>
       </c>
       <c r="H41" s="3">
-        <v>57256500</v>
+        <v>53660000</v>
       </c>
       <c r="I41" s="3">
-        <v>63066700</v>
+        <v>55972200</v>
       </c>
       <c r="J41" s="3">
+        <v>61652000</v>
+      </c>
+      <c r="K41" s="3">
         <v>55633300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58107600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57352600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55610200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50503300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47133000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12922400</v>
+        <v>12871500</v>
       </c>
       <c r="E42" s="3">
-        <v>12208600</v>
+        <v>12632500</v>
       </c>
       <c r="F42" s="3">
-        <v>12396200</v>
+        <v>11934700</v>
       </c>
       <c r="G42" s="3">
-        <v>11174000</v>
+        <v>12118200</v>
       </c>
       <c r="H42" s="3">
-        <v>10495800</v>
+        <v>10923400</v>
       </c>
       <c r="I42" s="3">
-        <v>10074300</v>
+        <v>10260400</v>
       </c>
       <c r="J42" s="3">
+        <v>9848300</v>
+      </c>
+      <c r="K42" s="3">
         <v>9675900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9614300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10128200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9724900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10082500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10815200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2182,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2229,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2276,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2323,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>853800</v>
+        <v>834300</v>
       </c>
       <c r="E47" s="3">
-        <v>850200</v>
+        <v>834700</v>
       </c>
       <c r="F47" s="3">
-        <v>853800</v>
+        <v>831200</v>
       </c>
       <c r="G47" s="3">
-        <v>844200</v>
+        <v>834700</v>
       </c>
       <c r="H47" s="3">
-        <v>912300</v>
+        <v>825200</v>
       </c>
       <c r="I47" s="3">
-        <v>903600</v>
+        <v>891800</v>
       </c>
       <c r="J47" s="3">
+        <v>883400</v>
+      </c>
+      <c r="K47" s="3">
         <v>874800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>880400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>867900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>850900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>844300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>812200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2626500</v>
+        <v>2607400</v>
       </c>
       <c r="E48" s="3">
-        <v>2581700</v>
+        <v>2567600</v>
       </c>
       <c r="F48" s="3">
-        <v>2544900</v>
+        <v>2523800</v>
       </c>
       <c r="G48" s="3">
-        <v>2365900</v>
+        <v>2487800</v>
       </c>
       <c r="H48" s="3">
-        <v>2308900</v>
+        <v>2312800</v>
       </c>
       <c r="I48" s="3">
-        <v>2280800</v>
+        <v>2257100</v>
       </c>
       <c r="J48" s="3">
+        <v>2229600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2231000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2255600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2236400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2221600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2201000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2189700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2993900</v>
+        <v>2926600</v>
       </c>
       <c r="E49" s="3">
-        <v>2990300</v>
+        <v>2926700</v>
       </c>
       <c r="F49" s="3">
+        <v>2923200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2921100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2919900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2918200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2919600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2988100</v>
       </c>
-      <c r="G49" s="3">
-        <v>2986900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2985200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2986600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2988100</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3054100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3055600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3057800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3058500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3040200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,22 +2558,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>208600</v>
+        <v>211300</v>
       </c>
       <c r="E52" s="3">
-        <v>187700</v>
+        <v>203900</v>
       </c>
       <c r="F52" s="3">
-        <v>194900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+        <v>183400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>190500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2468,26 +2587,29 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>142500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>183900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>294754500</v>
+        <v>285338600</v>
       </c>
       <c r="E54" s="3">
-        <v>293310300</v>
+        <v>288142800</v>
       </c>
       <c r="F54" s="3">
-        <v>289041100</v>
+        <v>286730900</v>
       </c>
       <c r="G54" s="3">
-        <v>280109500</v>
+        <v>282557500</v>
       </c>
       <c r="H54" s="3">
-        <v>276172800</v>
+        <v>273826300</v>
       </c>
       <c r="I54" s="3">
-        <v>277345700</v>
+        <v>269977900</v>
       </c>
       <c r="J54" s="3">
+        <v>271124400</v>
+      </c>
+      <c r="K54" s="3">
         <v>263049000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264407800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>261127300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>253953700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>252596900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>249032800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2739,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2784,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,22 +2831,25 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336300</v>
+        <v>345000</v>
       </c>
       <c r="E59" s="3">
-        <v>391200</v>
+        <v>328800</v>
       </c>
       <c r="F59" s="3">
-        <v>459800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+        <v>382400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>449400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
@@ -2724,26 +2860,29 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>405900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>305700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,66 +2925,72 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19938600</v>
+        <v>17787000</v>
       </c>
       <c r="E61" s="3">
-        <v>22618500</v>
+        <v>19491400</v>
       </c>
       <c r="F61" s="3">
-        <v>16211500</v>
+        <v>22111200</v>
       </c>
       <c r="G61" s="3">
-        <v>22089900</v>
+        <v>15847800</v>
       </c>
       <c r="H61" s="3">
-        <v>17254400</v>
+        <v>21594400</v>
       </c>
       <c r="I61" s="3">
-        <v>20033200</v>
+        <v>16867400</v>
       </c>
       <c r="J61" s="3">
+        <v>19583800</v>
+      </c>
+      <c r="K61" s="3">
         <v>17617400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18565000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18916700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19631900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19255900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19146800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>223000</v>
+        <v>211100</v>
       </c>
       <c r="E62" s="3">
-        <v>194900</v>
+        <v>218000</v>
       </c>
       <c r="F62" s="3">
         <v>190500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>186300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -2856,26 +3001,29 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>131200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>169800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>266257300</v>
+        <v>257372200</v>
       </c>
       <c r="E66" s="3">
-        <v>265137800</v>
+        <v>260284800</v>
       </c>
       <c r="F66" s="3">
-        <v>260900400</v>
+        <v>259190400</v>
       </c>
       <c r="G66" s="3">
-        <v>252954700</v>
+        <v>255048000</v>
       </c>
       <c r="H66" s="3">
-        <v>249634400</v>
+        <v>247280600</v>
       </c>
       <c r="I66" s="3">
-        <v>250164200</v>
+        <v>244034800</v>
       </c>
       <c r="J66" s="3">
+        <v>244552700</v>
+      </c>
+      <c r="K66" s="3">
         <v>235710900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>237236500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>235211700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>228403000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>227719500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>224956800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22852400</v>
+        <v>22797800</v>
       </c>
       <c r="E72" s="3">
-        <v>23068200</v>
+        <v>22339800</v>
       </c>
       <c r="F72" s="3">
-        <v>23078300</v>
+        <v>22550700</v>
       </c>
       <c r="G72" s="3">
-        <v>22092400</v>
+        <v>22560600</v>
       </c>
       <c r="H72" s="3">
-        <v>21444200</v>
+        <v>21596800</v>
       </c>
       <c r="I72" s="3">
-        <v>21430500</v>
+        <v>20963200</v>
       </c>
       <c r="J72" s="3">
+        <v>20949800</v>
+      </c>
+      <c r="K72" s="3">
         <v>21760300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21445100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20844100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20533000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20193100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19424600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28497300</v>
+        <v>27966300</v>
       </c>
       <c r="E76" s="3">
-        <v>28172500</v>
+        <v>27858000</v>
       </c>
       <c r="F76" s="3">
-        <v>28140700</v>
+        <v>27540500</v>
       </c>
       <c r="G76" s="3">
-        <v>27154800</v>
+        <v>27509500</v>
       </c>
       <c r="H76" s="3">
-        <v>26538400</v>
+        <v>26545700</v>
       </c>
       <c r="I76" s="3">
-        <v>27181500</v>
+        <v>25943100</v>
       </c>
       <c r="J76" s="3">
+        <v>26571800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27338100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27171300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25915600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25550700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24877500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24076000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>806900</v>
+        <v>640600</v>
       </c>
       <c r="E81" s="3">
-        <v>843000</v>
+        <v>788800</v>
       </c>
       <c r="F81" s="3">
-        <v>759300</v>
+        <v>824100</v>
       </c>
       <c r="G81" s="3">
-        <v>581000</v>
+        <v>742300</v>
       </c>
       <c r="H81" s="3">
-        <v>748500</v>
+        <v>567900</v>
       </c>
       <c r="I81" s="3">
-        <v>777300</v>
+        <v>731700</v>
       </c>
       <c r="J81" s="3">
+        <v>759900</v>
+      </c>
+      <c r="K81" s="3">
         <v>705900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>555200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>651100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>623100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>595800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>473700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>73600</v>
+        <v>76700</v>
       </c>
       <c r="E83" s="3">
-        <v>70000</v>
+        <v>72000</v>
       </c>
       <c r="F83" s="3">
-        <v>65700</v>
+        <v>68400</v>
       </c>
       <c r="G83" s="3">
-        <v>52600</v>
+        <v>64200</v>
       </c>
       <c r="H83" s="3">
-        <v>49800</v>
+        <v>51400</v>
       </c>
       <c r="I83" s="3">
-        <v>48400</v>
+        <v>48700</v>
       </c>
       <c r="J83" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K83" s="3">
         <v>46200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-477800</v>
+        <v>4906300</v>
       </c>
       <c r="E89" s="3">
-        <v>-7875100</v>
+        <v>-467100</v>
       </c>
       <c r="F89" s="3">
-        <v>9348200</v>
+        <v>-7698500</v>
       </c>
       <c r="G89" s="3">
-        <v>-4236800</v>
+        <v>9138500</v>
       </c>
       <c r="H89" s="3">
-        <v>477100</v>
+        <v>-4141800</v>
       </c>
       <c r="I89" s="3">
-        <v>-140700</v>
+        <v>466400</v>
       </c>
       <c r="J89" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1240700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3652800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>889200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1353000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4164,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99600</v>
+        <v>-116400</v>
       </c>
       <c r="E91" s="3">
-        <v>-101000</v>
+        <v>-97400</v>
       </c>
       <c r="F91" s="3">
-        <v>-93800</v>
+        <v>-98800</v>
       </c>
       <c r="G91" s="3">
-        <v>-114400</v>
+        <v>-91700</v>
       </c>
       <c r="H91" s="3">
-        <v>-89500</v>
+        <v>-111800</v>
       </c>
       <c r="I91" s="3">
-        <v>-109000</v>
+        <v>-87500</v>
       </c>
       <c r="J91" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-59900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-63400</v>
       </c>
       <c r="M91" s="3">
         <v>-63400</v>
       </c>
       <c r="N91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-59700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-92900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86600</v>
+        <v>-99600</v>
       </c>
       <c r="E94" s="3">
-        <v>-86600</v>
+        <v>-84700</v>
       </c>
       <c r="F94" s="3">
-        <v>-85900</v>
+        <v>-84700</v>
       </c>
       <c r="G94" s="3">
-        <v>-31800</v>
+        <v>-84000</v>
       </c>
       <c r="H94" s="3">
-        <v>-81600</v>
+        <v>-31000</v>
       </c>
       <c r="I94" s="3">
-        <v>-88100</v>
+        <v>-79700</v>
       </c>
       <c r="J94" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-59900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,28 +4371,29 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-662600</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-647700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-602700</v>
+        <v>300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-589200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4169,22 +4402,25 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-390800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-99500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2911600</v>
+        <v>-1973600</v>
       </c>
       <c r="E100" s="3">
-        <v>5431200</v>
+        <v>-2846300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5985600</v>
+        <v>5309400</v>
       </c>
       <c r="G100" s="3">
-        <v>4782100</v>
+        <v>-5851300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4041900</v>
+        <v>4674800</v>
       </c>
       <c r="I100" s="3">
-        <v>1571300</v>
+        <v>-3951200</v>
       </c>
       <c r="J100" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-393400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>410600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>243300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>148900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4704400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>203500</v>
+        <v>-99900</v>
       </c>
       <c r="E101" s="3">
-        <v>128500</v>
+        <v>199000</v>
       </c>
       <c r="F101" s="3">
-        <v>13700</v>
+        <v>125600</v>
       </c>
       <c r="G101" s="3">
-        <v>8900</v>
+        <v>13400</v>
       </c>
       <c r="H101" s="3">
-        <v>33900</v>
+        <v>8700</v>
       </c>
       <c r="I101" s="3">
-        <v>261300</v>
+        <v>33200</v>
       </c>
       <c r="J101" s="3">
+        <v>255400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-281500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-160300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-65600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-264000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>266600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3272500</v>
+        <v>2733200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2402000</v>
+        <v>-3199100</v>
       </c>
       <c r="F102" s="3">
-        <v>3290500</v>
+        <v>-2348100</v>
       </c>
       <c r="G102" s="3">
-        <v>522400</v>
+        <v>3216700</v>
       </c>
       <c r="H102" s="3">
-        <v>-3612400</v>
+        <v>510700</v>
       </c>
       <c r="I102" s="3">
-        <v>1603800</v>
+        <v>-3531400</v>
       </c>
       <c r="J102" s="3">
+        <v>1567800</v>
+      </c>
+      <c r="K102" s="3">
         <v>506000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2459800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1095000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1179800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,127 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2144100</v>
+        <v>1814700</v>
       </c>
       <c r="E8" s="3">
-        <v>2274800</v>
+        <v>2115000</v>
       </c>
       <c r="F8" s="3">
-        <v>2253600</v>
+        <v>2225400</v>
       </c>
       <c r="G8" s="3">
-        <v>2187300</v>
+        <v>2361000</v>
       </c>
       <c r="H8" s="3">
-        <v>2143500</v>
+        <v>2339100</v>
       </c>
       <c r="I8" s="3">
+        <v>2270200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2224800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2060300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1924800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1771200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1759700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1710700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1641300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1581600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1543500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +831,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +884,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,8 +909,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +958,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,8 +1011,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1064,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1117,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1139,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1093100</v>
+        <v>1038400</v>
       </c>
       <c r="E17" s="3">
-        <v>1186800</v>
+        <v>1157100</v>
       </c>
       <c r="F17" s="3">
-        <v>1123300</v>
+        <v>1134500</v>
       </c>
       <c r="G17" s="3">
-        <v>1133100</v>
+        <v>1231800</v>
       </c>
       <c r="H17" s="3">
-        <v>1099000</v>
+        <v>1165900</v>
       </c>
       <c r="I17" s="3">
+        <v>1176100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1140700</v>
+      </c>
+      <c r="K17" s="3">
         <v>999100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>768000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>786000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>835400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>774200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>757300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>705000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1051000</v>
+        <v>776300</v>
       </c>
       <c r="E18" s="3">
-        <v>1088000</v>
+        <v>957900</v>
       </c>
       <c r="F18" s="3">
-        <v>1130300</v>
+        <v>1090900</v>
       </c>
       <c r="G18" s="3">
-        <v>1054100</v>
+        <v>1129300</v>
       </c>
       <c r="H18" s="3">
-        <v>1044500</v>
+        <v>1173200</v>
       </c>
       <c r="I18" s="3">
+        <v>1094100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1084100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1061200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1024500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1003200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>973700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>875200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>867100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>824400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>838500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,102 +1266,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-211200</v>
+        <v>-156700</v>
       </c>
       <c r="E20" s="3">
-        <v>-153800</v>
+        <v>-186700</v>
       </c>
       <c r="F20" s="3">
-        <v>-140400</v>
+        <v>-219200</v>
       </c>
       <c r="G20" s="3">
-        <v>-167200</v>
+        <v>-159600</v>
       </c>
       <c r="H20" s="3">
-        <v>-265400</v>
+        <v>-145700</v>
       </c>
       <c r="I20" s="3">
+        <v>-173600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-275400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-182000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-119900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-142200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-172400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-84100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-105400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-75900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-164800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>916500</v>
+        <v>703000</v>
       </c>
       <c r="E21" s="3">
-        <v>1006100</v>
+        <v>851000</v>
       </c>
       <c r="F21" s="3">
-        <v>1058400</v>
+        <v>951200</v>
       </c>
       <c r="G21" s="3">
-        <v>951100</v>
+        <v>1044300</v>
       </c>
       <c r="H21" s="3">
-        <v>830500</v>
+        <v>1098500</v>
       </c>
       <c r="I21" s="3">
+        <v>987200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>862000</v>
+      </c>
+      <c r="K21" s="3">
         <v>927800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>951800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>907300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>853100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>837600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>805200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>797100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>716700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1343,102 +1421,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>839800</v>
+        <v>619600</v>
       </c>
       <c r="E23" s="3">
-        <v>934200</v>
+        <v>771100</v>
       </c>
       <c r="F23" s="3">
-        <v>989900</v>
+        <v>871600</v>
       </c>
       <c r="G23" s="3">
-        <v>886900</v>
+        <v>969600</v>
       </c>
       <c r="H23" s="3">
-        <v>779100</v>
+        <v>1027500</v>
       </c>
       <c r="I23" s="3">
+        <v>920500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>808700</v>
+      </c>
+      <c r="K23" s="3">
         <v>879100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>904500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>861100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>801300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>791200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>761700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>748400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>673700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>126000</v>
+        <v>103300</v>
       </c>
       <c r="E24" s="3">
+        <v>142800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>130700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>147900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>169200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>146500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>145300</v>
+      </c>
+      <c r="L24" s="3">
         <v>142500</v>
       </c>
-      <c r="F24" s="3">
-        <v>163000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>141100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>130800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>145300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>142500</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>153000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>166700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>137900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>135700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>149700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>129600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1580,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>713800</v>
+        <v>516300</v>
       </c>
       <c r="E26" s="3">
-        <v>791600</v>
+        <v>628300</v>
       </c>
       <c r="F26" s="3">
-        <v>826900</v>
+        <v>740900</v>
       </c>
       <c r="G26" s="3">
-        <v>745800</v>
+        <v>821700</v>
       </c>
       <c r="H26" s="3">
-        <v>648300</v>
+        <v>858300</v>
       </c>
       <c r="I26" s="3">
+        <v>774100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>672900</v>
+      </c>
+      <c r="K26" s="3">
         <v>733800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>762000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>708000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>634600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>653300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>626000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>598700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>544100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>640600</v>
+        <v>514800</v>
       </c>
       <c r="E27" s="3">
-        <v>788800</v>
+        <v>626900</v>
       </c>
       <c r="F27" s="3">
-        <v>824100</v>
+        <v>664900</v>
       </c>
       <c r="G27" s="3">
-        <v>742300</v>
+        <v>818700</v>
       </c>
       <c r="H27" s="3">
-        <v>567900</v>
+        <v>855400</v>
       </c>
       <c r="I27" s="3">
+        <v>770400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>589500</v>
+      </c>
+      <c r="K27" s="3">
         <v>731700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>759900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>705900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>555200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>651100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>623100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>595800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>473700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1739,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,8 +1792,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1845,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1898,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>211200</v>
+        <v>156700</v>
       </c>
       <c r="E32" s="3">
-        <v>153800</v>
+        <v>186700</v>
       </c>
       <c r="F32" s="3">
-        <v>140400</v>
+        <v>219200</v>
       </c>
       <c r="G32" s="3">
-        <v>167200</v>
+        <v>159600</v>
       </c>
       <c r="H32" s="3">
-        <v>265400</v>
+        <v>145700</v>
       </c>
       <c r="I32" s="3">
+        <v>173600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K32" s="3">
         <v>182000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>119900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>142200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>172400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>84100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>105400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>75900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>164800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>640600</v>
+        <v>514800</v>
       </c>
       <c r="E33" s="3">
-        <v>788800</v>
+        <v>626900</v>
       </c>
       <c r="F33" s="3">
-        <v>824100</v>
+        <v>664900</v>
       </c>
       <c r="G33" s="3">
-        <v>742300</v>
+        <v>818700</v>
       </c>
       <c r="H33" s="3">
-        <v>567900</v>
+        <v>855400</v>
       </c>
       <c r="I33" s="3">
+        <v>770400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>589500</v>
+      </c>
+      <c r="K33" s="3">
         <v>731700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>759900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>705900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>555200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>651100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>623100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>595800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>473700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +2057,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>640600</v>
+        <v>514800</v>
       </c>
       <c r="E35" s="3">
-        <v>788800</v>
+        <v>626900</v>
       </c>
       <c r="F35" s="3">
-        <v>824100</v>
+        <v>664900</v>
       </c>
       <c r="G35" s="3">
-        <v>742300</v>
+        <v>818700</v>
       </c>
       <c r="H35" s="3">
-        <v>567900</v>
+        <v>855400</v>
       </c>
       <c r="I35" s="3">
+        <v>770400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>589500</v>
+      </c>
+      <c r="K35" s="3">
         <v>731700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>759900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>705900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>555200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>651100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>623100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>595800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>473700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2193,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,102 +2214,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55531400</v>
+        <v>55650500</v>
       </c>
       <c r="E41" s="3">
-        <v>52291900</v>
+        <v>61589700</v>
       </c>
       <c r="F41" s="3">
-        <v>56336200</v>
+        <v>57637600</v>
       </c>
       <c r="G41" s="3">
-        <v>55705500</v>
+        <v>54275200</v>
       </c>
       <c r="H41" s="3">
-        <v>53660000</v>
+        <v>58472900</v>
       </c>
       <c r="I41" s="3">
+        <v>57818200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>55695200</v>
+      </c>
+      <c r="K41" s="3">
         <v>55972200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61652000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>55633300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58107600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>57352600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>55610200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>50503300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>47133000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12871500</v>
+        <v>17361300</v>
       </c>
       <c r="E42" s="3">
-        <v>12632500</v>
+        <v>14263600</v>
       </c>
       <c r="F42" s="3">
-        <v>11934700</v>
+        <v>13359700</v>
       </c>
       <c r="G42" s="3">
-        <v>12118200</v>
+        <v>13111600</v>
       </c>
       <c r="H42" s="3">
-        <v>10923400</v>
+        <v>12387400</v>
       </c>
       <c r="I42" s="3">
+        <v>12577800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11337700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10260400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9848300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9675900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>9614300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>10128200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>9724900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10082500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10815200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2185,8 +2369,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2232,8 +2422,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2279,8 +2475,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2326,149 +2528,173 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>834300</v>
+        <v>876600</v>
       </c>
       <c r="E47" s="3">
-        <v>834700</v>
+        <v>891200</v>
       </c>
       <c r="F47" s="3">
-        <v>831200</v>
+        <v>866000</v>
       </c>
       <c r="G47" s="3">
-        <v>834700</v>
+        <v>866300</v>
       </c>
       <c r="H47" s="3">
-        <v>825200</v>
+        <v>862700</v>
       </c>
       <c r="I47" s="3">
+        <v>866300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>856500</v>
+      </c>
+      <c r="K47" s="3">
         <v>891800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>883400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>874800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>880400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>867900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>850900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>844300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>812200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2607400</v>
+        <v>2767500</v>
       </c>
       <c r="E48" s="3">
-        <v>2567600</v>
+        <v>2750600</v>
       </c>
       <c r="F48" s="3">
-        <v>2523800</v>
+        <v>2706300</v>
       </c>
       <c r="G48" s="3">
-        <v>2487800</v>
+        <v>2664900</v>
       </c>
       <c r="H48" s="3">
-        <v>2312800</v>
+        <v>2619500</v>
       </c>
       <c r="I48" s="3">
+        <v>2582200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2400500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2257100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2229600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2231000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2255600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2236400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2221600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2201000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2189700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2926600</v>
+        <v>3037000</v>
       </c>
       <c r="E49" s="3">
-        <v>2926700</v>
+        <v>3027500</v>
       </c>
       <c r="F49" s="3">
-        <v>2923200</v>
+        <v>3037600</v>
       </c>
       <c r="G49" s="3">
-        <v>2921100</v>
+        <v>3037700</v>
       </c>
       <c r="H49" s="3">
-        <v>2919900</v>
+        <v>3034000</v>
       </c>
       <c r="I49" s="3">
+        <v>3031800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3030700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2918200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2919600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2988100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3054100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3055600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3057800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3058500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3040200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2740,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,28 +2793,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>211300</v>
+        <v>312000</v>
       </c>
       <c r="E52" s="3">
-        <v>203900</v>
+        <v>262900</v>
       </c>
       <c r="F52" s="3">
-        <v>183400</v>
+        <v>219400</v>
       </c>
       <c r="G52" s="3">
-        <v>190500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>211600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>190400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>197700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2590,26 +2828,32 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>142500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>183900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2899,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>285338600</v>
+        <v>314619200</v>
       </c>
       <c r="E54" s="3">
-        <v>288142800</v>
+        <v>313900800</v>
       </c>
       <c r="F54" s="3">
-        <v>286730900</v>
+        <v>296160500</v>
       </c>
       <c r="G54" s="3">
-        <v>282557500</v>
+        <v>299071100</v>
       </c>
       <c r="H54" s="3">
-        <v>273826300</v>
+        <v>297605700</v>
       </c>
       <c r="I54" s="3">
+        <v>293274000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>284211700</v>
+      </c>
+      <c r="K54" s="3">
         <v>269977900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>271124400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>263049000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>264407800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>261127300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>253953700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>252596900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>249032800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2977,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,8 +2998,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2787,8 +3047,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2834,28 +3100,34 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>345000</v>
+        <v>476000</v>
       </c>
       <c r="E59" s="3">
-        <v>328800</v>
+        <v>418200</v>
       </c>
       <c r="F59" s="3">
-        <v>382400</v>
+        <v>358100</v>
       </c>
       <c r="G59" s="3">
-        <v>449400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>341300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>396900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>466500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2863,26 +3135,32 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>405900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>305700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2928,75 +3206,87 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17787000</v>
+        <v>17562000</v>
       </c>
       <c r="E61" s="3">
-        <v>19491400</v>
+        <v>14474500</v>
       </c>
       <c r="F61" s="3">
-        <v>22111200</v>
+        <v>18461600</v>
       </c>
       <c r="G61" s="3">
-        <v>15847800</v>
+        <v>20230600</v>
       </c>
       <c r="H61" s="3">
-        <v>21594400</v>
+        <v>22949800</v>
       </c>
       <c r="I61" s="3">
+        <v>16448900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>22413400</v>
+      </c>
+      <c r="K61" s="3">
         <v>16867400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>19583800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17617400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18565000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>18916700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>19631900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>19255900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>19146800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211100</v>
+        <v>327400</v>
       </c>
       <c r="E62" s="3">
-        <v>218000</v>
+        <v>290000</v>
       </c>
       <c r="F62" s="3">
-        <v>190500</v>
+        <v>219100</v>
       </c>
       <c r="G62" s="3">
-        <v>186300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>226300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>197700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>193300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3004,26 +3294,32 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>131200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>169800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3365,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3418,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3471,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>257372200</v>
+        <v>285266700</v>
       </c>
       <c r="E66" s="3">
-        <v>260284800</v>
+        <v>284403300</v>
       </c>
       <c r="F66" s="3">
-        <v>259190400</v>
+        <v>267133500</v>
       </c>
       <c r="G66" s="3">
-        <v>255048000</v>
+        <v>270156500</v>
       </c>
       <c r="H66" s="3">
-        <v>247280600</v>
+        <v>269020700</v>
       </c>
       <c r="I66" s="3">
+        <v>264721200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>256659200</v>
+      </c>
+      <c r="K66" s="3">
         <v>244034800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>244552700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>235710900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>237236500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>235211700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>228403000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>227719500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>224956800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3549,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3598,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3651,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3704,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3757,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22797800</v>
+        <v>23967700</v>
       </c>
       <c r="E72" s="3">
-        <v>22339800</v>
+        <v>24147100</v>
       </c>
       <c r="F72" s="3">
-        <v>22550700</v>
+        <v>23662500</v>
       </c>
       <c r="G72" s="3">
-        <v>22560600</v>
+        <v>23187000</v>
       </c>
       <c r="H72" s="3">
-        <v>21596800</v>
+        <v>23406000</v>
       </c>
       <c r="I72" s="3">
+        <v>23416300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>22415900</v>
+      </c>
+      <c r="K72" s="3">
         <v>20963200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>20949800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>21760300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>21445100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>20844100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>20533000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>20193100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>19424600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3863,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3916,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3969,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27966300</v>
+        <v>29352500</v>
       </c>
       <c r="E76" s="3">
-        <v>27858000</v>
+        <v>29497500</v>
       </c>
       <c r="F76" s="3">
-        <v>27540500</v>
+        <v>29027000</v>
       </c>
       <c r="G76" s="3">
-        <v>27509500</v>
+        <v>28914600</v>
       </c>
       <c r="H76" s="3">
-        <v>26545700</v>
+        <v>28585000</v>
       </c>
       <c r="I76" s="3">
+        <v>28552800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>27552500</v>
+      </c>
+      <c r="K76" s="3">
         <v>25943100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26571800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27338100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>27171300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25915600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>25550700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>24877500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24076000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +4075,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>640600</v>
+        <v>514800</v>
       </c>
       <c r="E81" s="3">
-        <v>788800</v>
+        <v>626900</v>
       </c>
       <c r="F81" s="3">
-        <v>824100</v>
+        <v>664900</v>
       </c>
       <c r="G81" s="3">
-        <v>742300</v>
+        <v>818700</v>
       </c>
       <c r="H81" s="3">
-        <v>567900</v>
+        <v>855400</v>
       </c>
       <c r="I81" s="3">
+        <v>770400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>589500</v>
+      </c>
+      <c r="K81" s="3">
         <v>731700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>759900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>705900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>555200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>651100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>623100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>595800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>473700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4211,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>76700</v>
+        <v>83500</v>
       </c>
       <c r="E83" s="3">
-        <v>72000</v>
+        <v>79800</v>
       </c>
       <c r="F83" s="3">
-        <v>68400</v>
+        <v>79600</v>
       </c>
       <c r="G83" s="3">
-        <v>64200</v>
+        <v>74700</v>
       </c>
       <c r="H83" s="3">
-        <v>51400</v>
+        <v>71000</v>
       </c>
       <c r="I83" s="3">
+        <v>66600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K83" s="3">
         <v>48700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>47300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>46200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>51800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>46500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>43500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>48700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>43000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4313,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4366,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4419,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4472,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4525,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4906300</v>
+        <v>-979900</v>
       </c>
       <c r="E89" s="3">
-        <v>-467100</v>
+        <v>7080900</v>
       </c>
       <c r="F89" s="3">
-        <v>-7698500</v>
+        <v>5092400</v>
       </c>
       <c r="G89" s="3">
-        <v>9138500</v>
+        <v>-484800</v>
       </c>
       <c r="H89" s="3">
-        <v>-4141800</v>
+        <v>-7990500</v>
       </c>
       <c r="I89" s="3">
+        <v>9485100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4298900</v>
+      </c>
+      <c r="K89" s="3">
         <v>466400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-137600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1240700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3652800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>889200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1353000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4603,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-116400</v>
+        <v>-86400</v>
       </c>
       <c r="E91" s="3">
-        <v>-97400</v>
+        <v>-104700</v>
       </c>
       <c r="F91" s="3">
-        <v>-98800</v>
+        <v>-120800</v>
       </c>
       <c r="G91" s="3">
-        <v>-91700</v>
+        <v>-101100</v>
       </c>
       <c r="H91" s="3">
-        <v>-111800</v>
+        <v>-102500</v>
       </c>
       <c r="I91" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-87500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-106500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-59900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-71100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-63400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-63400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-59700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4705,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4758,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99600</v>
+        <v>-62200</v>
       </c>
       <c r="E94" s="3">
-        <v>-84700</v>
+        <v>-98900</v>
       </c>
       <c r="F94" s="3">
-        <v>-84700</v>
+        <v>-103300</v>
       </c>
       <c r="G94" s="3">
-        <v>-84000</v>
+        <v>-87900</v>
       </c>
       <c r="H94" s="3">
-        <v>-31000</v>
+        <v>-87900</v>
       </c>
       <c r="I94" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-79700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-86100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-59900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-73700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-64900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-54600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-58300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4836,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>100</v>
+        <v>-916900</v>
       </c>
       <c r="E96" s="3">
-        <v>-647700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-672300</v>
       </c>
       <c r="H96" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-589200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-390800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-99500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4938,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4991,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +5044,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1973600</v>
+        <v>2071800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2846300</v>
+        <v>-4334700</v>
       </c>
       <c r="F100" s="3">
-        <v>5309400</v>
+        <v>-2048500</v>
       </c>
       <c r="G100" s="3">
-        <v>-5851300</v>
+        <v>-2954200</v>
       </c>
       <c r="H100" s="3">
-        <v>4674800</v>
+        <v>5510800</v>
       </c>
       <c r="I100" s="3">
+        <v>-6073200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4852100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1536000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-393400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>410600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>243300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>148900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4704400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-99900</v>
+        <v>-51300</v>
       </c>
       <c r="E101" s="3">
-        <v>199000</v>
+        <v>595400</v>
       </c>
       <c r="F101" s="3">
-        <v>125600</v>
+        <v>-103700</v>
       </c>
       <c r="G101" s="3">
-        <v>13400</v>
+        <v>206500</v>
       </c>
       <c r="H101" s="3">
-        <v>8700</v>
+        <v>130400</v>
       </c>
       <c r="I101" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K101" s="3">
         <v>33200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>255400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-281500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-160300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-65600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-264000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>266600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2733200</v>
+        <v>978400</v>
       </c>
       <c r="E102" s="3">
-        <v>-3199100</v>
+        <v>3242800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2348100</v>
+        <v>2836900</v>
       </c>
       <c r="G102" s="3">
-        <v>3216700</v>
+        <v>-3320400</v>
       </c>
       <c r="H102" s="3">
-        <v>510700</v>
+        <v>-2437200</v>
       </c>
       <c r="I102" s="3">
+        <v>3338700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1567800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>506000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2459800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1095000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1179800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1814700</v>
+        <v>1851500</v>
       </c>
       <c r="E8" s="3">
-        <v>2115000</v>
+        <v>2157800</v>
       </c>
       <c r="F8" s="3">
-        <v>2225400</v>
+        <v>2270500</v>
       </c>
       <c r="G8" s="3">
-        <v>2361000</v>
+        <v>2408800</v>
       </c>
       <c r="H8" s="3">
-        <v>2339100</v>
+        <v>2386400</v>
       </c>
       <c r="I8" s="3">
-        <v>2270200</v>
+        <v>2316200</v>
       </c>
       <c r="J8" s="3">
-        <v>2224800</v>
+        <v>2269900</v>
       </c>
       <c r="K8" s="3">
         <v>2060300</v>
@@ -1147,25 +1147,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1038400</v>
+        <v>1059500</v>
       </c>
       <c r="E17" s="3">
-        <v>1157100</v>
+        <v>1180500</v>
       </c>
       <c r="F17" s="3">
-        <v>1134500</v>
+        <v>1157500</v>
       </c>
       <c r="G17" s="3">
-        <v>1231800</v>
+        <v>1256700</v>
       </c>
       <c r="H17" s="3">
-        <v>1165900</v>
+        <v>1189500</v>
       </c>
       <c r="I17" s="3">
-        <v>1176100</v>
+        <v>1199900</v>
       </c>
       <c r="J17" s="3">
-        <v>1140700</v>
+        <v>1163800</v>
       </c>
       <c r="K17" s="3">
         <v>999100</v>
@@ -1200,25 +1200,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>776300</v>
+        <v>792000</v>
       </c>
       <c r="E18" s="3">
-        <v>957900</v>
+        <v>977300</v>
       </c>
       <c r="F18" s="3">
-        <v>1090900</v>
+        <v>1113000</v>
       </c>
       <c r="G18" s="3">
-        <v>1129300</v>
+        <v>1152100</v>
       </c>
       <c r="H18" s="3">
-        <v>1173200</v>
+        <v>1197000</v>
       </c>
       <c r="I18" s="3">
-        <v>1094100</v>
+        <v>1116300</v>
       </c>
       <c r="J18" s="3">
-        <v>1084100</v>
+        <v>1106000</v>
       </c>
       <c r="K18" s="3">
         <v>1061200</v>
@@ -1274,25 +1274,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-156700</v>
+        <v>-159900</v>
       </c>
       <c r="E20" s="3">
-        <v>-186700</v>
+        <v>-190500</v>
       </c>
       <c r="F20" s="3">
-        <v>-219200</v>
+        <v>-223700</v>
       </c>
       <c r="G20" s="3">
-        <v>-159600</v>
+        <v>-162900</v>
       </c>
       <c r="H20" s="3">
-        <v>-145700</v>
+        <v>-148700</v>
       </c>
       <c r="I20" s="3">
-        <v>-173600</v>
+        <v>-177100</v>
       </c>
       <c r="J20" s="3">
-        <v>-275400</v>
+        <v>-281000</v>
       </c>
       <c r="K20" s="3">
         <v>-182000</v>
@@ -1327,25 +1327,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>703000</v>
+        <v>717300</v>
       </c>
       <c r="E21" s="3">
-        <v>851000</v>
+        <v>868200</v>
       </c>
       <c r="F21" s="3">
-        <v>951200</v>
+        <v>970500</v>
       </c>
       <c r="G21" s="3">
-        <v>1044300</v>
+        <v>1065500</v>
       </c>
       <c r="H21" s="3">
-        <v>1098500</v>
+        <v>1120700</v>
       </c>
       <c r="I21" s="3">
-        <v>987200</v>
+        <v>1007200</v>
       </c>
       <c r="J21" s="3">
-        <v>862000</v>
+        <v>879500</v>
       </c>
       <c r="K21" s="3">
         <v>927800</v>
@@ -1433,25 +1433,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>619600</v>
+        <v>632100</v>
       </c>
       <c r="E23" s="3">
-        <v>771100</v>
+        <v>786800</v>
       </c>
       <c r="F23" s="3">
-        <v>871600</v>
+        <v>889300</v>
       </c>
       <c r="G23" s="3">
-        <v>969600</v>
+        <v>989200</v>
       </c>
       <c r="H23" s="3">
-        <v>1027500</v>
+        <v>1048300</v>
       </c>
       <c r="I23" s="3">
-        <v>920500</v>
+        <v>939200</v>
       </c>
       <c r="J23" s="3">
-        <v>808700</v>
+        <v>825000</v>
       </c>
       <c r="K23" s="3">
         <v>879100</v>
@@ -1486,25 +1486,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>103300</v>
+        <v>105300</v>
       </c>
       <c r="E24" s="3">
-        <v>142800</v>
+        <v>145700</v>
       </c>
       <c r="F24" s="3">
-        <v>130700</v>
+        <v>133400</v>
       </c>
       <c r="G24" s="3">
-        <v>147900</v>
+        <v>150900</v>
       </c>
       <c r="H24" s="3">
-        <v>169200</v>
+        <v>172600</v>
       </c>
       <c r="I24" s="3">
-        <v>146500</v>
+        <v>149400</v>
       </c>
       <c r="J24" s="3">
-        <v>135700</v>
+        <v>138500</v>
       </c>
       <c r="K24" s="3">
         <v>145300</v>
@@ -1592,25 +1592,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>516300</v>
+        <v>526700</v>
       </c>
       <c r="E26" s="3">
-        <v>628300</v>
+        <v>641100</v>
       </c>
       <c r="F26" s="3">
-        <v>740900</v>
+        <v>755900</v>
       </c>
       <c r="G26" s="3">
-        <v>821700</v>
+        <v>838300</v>
       </c>
       <c r="H26" s="3">
-        <v>858300</v>
+        <v>875700</v>
       </c>
       <c r="I26" s="3">
-        <v>774100</v>
+        <v>789700</v>
       </c>
       <c r="J26" s="3">
-        <v>672900</v>
+        <v>686600</v>
       </c>
       <c r="K26" s="3">
         <v>733800</v>
@@ -1645,25 +1645,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>514800</v>
+        <v>525300</v>
       </c>
       <c r="E27" s="3">
-        <v>626900</v>
+        <v>639600</v>
       </c>
       <c r="F27" s="3">
-        <v>664900</v>
+        <v>678400</v>
       </c>
       <c r="G27" s="3">
-        <v>818700</v>
+        <v>835300</v>
       </c>
       <c r="H27" s="3">
-        <v>855400</v>
+        <v>872700</v>
       </c>
       <c r="I27" s="3">
-        <v>770400</v>
+        <v>786000</v>
       </c>
       <c r="J27" s="3">
-        <v>589500</v>
+        <v>601400</v>
       </c>
       <c r="K27" s="3">
         <v>731700</v>
@@ -1910,25 +1910,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>156700</v>
+        <v>159900</v>
       </c>
       <c r="E32" s="3">
-        <v>186700</v>
+        <v>190500</v>
       </c>
       <c r="F32" s="3">
-        <v>219200</v>
+        <v>223700</v>
       </c>
       <c r="G32" s="3">
-        <v>159600</v>
+        <v>162900</v>
       </c>
       <c r="H32" s="3">
-        <v>145700</v>
+        <v>148700</v>
       </c>
       <c r="I32" s="3">
-        <v>173600</v>
+        <v>177100</v>
       </c>
       <c r="J32" s="3">
-        <v>275400</v>
+        <v>281000</v>
       </c>
       <c r="K32" s="3">
         <v>182000</v>
@@ -1963,25 +1963,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>514800</v>
+        <v>525300</v>
       </c>
       <c r="E33" s="3">
-        <v>626900</v>
+        <v>639600</v>
       </c>
       <c r="F33" s="3">
-        <v>664900</v>
+        <v>678400</v>
       </c>
       <c r="G33" s="3">
-        <v>818700</v>
+        <v>835300</v>
       </c>
       <c r="H33" s="3">
-        <v>855400</v>
+        <v>872700</v>
       </c>
       <c r="I33" s="3">
-        <v>770400</v>
+        <v>786000</v>
       </c>
       <c r="J33" s="3">
-        <v>589500</v>
+        <v>601400</v>
       </c>
       <c r="K33" s="3">
         <v>731700</v>
@@ -2069,25 +2069,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>514800</v>
+        <v>525300</v>
       </c>
       <c r="E35" s="3">
-        <v>626900</v>
+        <v>639600</v>
       </c>
       <c r="F35" s="3">
-        <v>664900</v>
+        <v>678400</v>
       </c>
       <c r="G35" s="3">
-        <v>818700</v>
+        <v>835300</v>
       </c>
       <c r="H35" s="3">
-        <v>855400</v>
+        <v>872700</v>
       </c>
       <c r="I35" s="3">
-        <v>770400</v>
+        <v>786000</v>
       </c>
       <c r="J35" s="3">
-        <v>589500</v>
+        <v>601400</v>
       </c>
       <c r="K35" s="3">
         <v>731700</v>
@@ -2222,25 +2222,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55650500</v>
+        <v>56777400</v>
       </c>
       <c r="E41" s="3">
-        <v>61589700</v>
+        <v>62836900</v>
       </c>
       <c r="F41" s="3">
-        <v>57637600</v>
+        <v>58804700</v>
       </c>
       <c r="G41" s="3">
-        <v>54275200</v>
+        <v>55374300</v>
       </c>
       <c r="H41" s="3">
-        <v>58472900</v>
+        <v>59657000</v>
       </c>
       <c r="I41" s="3">
-        <v>57818200</v>
+        <v>58989000</v>
       </c>
       <c r="J41" s="3">
-        <v>55695200</v>
+        <v>56823000</v>
       </c>
       <c r="K41" s="3">
         <v>55972200</v>
@@ -2275,25 +2275,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17361300</v>
+        <v>17712900</v>
       </c>
       <c r="E42" s="3">
-        <v>14263600</v>
+        <v>14552400</v>
       </c>
       <c r="F42" s="3">
-        <v>13359700</v>
+        <v>13630200</v>
       </c>
       <c r="G42" s="3">
-        <v>13111600</v>
+        <v>13377200</v>
       </c>
       <c r="H42" s="3">
-        <v>12387400</v>
+        <v>12638200</v>
       </c>
       <c r="I42" s="3">
-        <v>12577800</v>
+        <v>12832500</v>
       </c>
       <c r="J42" s="3">
-        <v>11337700</v>
+        <v>11567200</v>
       </c>
       <c r="K42" s="3">
         <v>10260400</v>
@@ -2540,25 +2540,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>876600</v>
+        <v>894400</v>
       </c>
       <c r="E47" s="3">
-        <v>891200</v>
+        <v>909300</v>
       </c>
       <c r="F47" s="3">
-        <v>866000</v>
+        <v>883500</v>
       </c>
       <c r="G47" s="3">
-        <v>866300</v>
+        <v>883900</v>
       </c>
       <c r="H47" s="3">
-        <v>862700</v>
+        <v>880200</v>
       </c>
       <c r="I47" s="3">
-        <v>866300</v>
+        <v>883900</v>
       </c>
       <c r="J47" s="3">
-        <v>856500</v>
+        <v>873900</v>
       </c>
       <c r="K47" s="3">
         <v>891800</v>
@@ -2593,25 +2593,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2767500</v>
+        <v>2823500</v>
       </c>
       <c r="E48" s="3">
-        <v>2750600</v>
+        <v>2806300</v>
       </c>
       <c r="F48" s="3">
-        <v>2706300</v>
+        <v>2761100</v>
       </c>
       <c r="G48" s="3">
-        <v>2664900</v>
+        <v>2718900</v>
       </c>
       <c r="H48" s="3">
-        <v>2619500</v>
+        <v>2672600</v>
       </c>
       <c r="I48" s="3">
-        <v>2582200</v>
+        <v>2634500</v>
       </c>
       <c r="J48" s="3">
-        <v>2400500</v>
+        <v>2449200</v>
       </c>
       <c r="K48" s="3">
         <v>2257100</v>
@@ -2646,25 +2646,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3037000</v>
+        <v>3098500</v>
       </c>
       <c r="E49" s="3">
-        <v>3027500</v>
+        <v>3088800</v>
       </c>
       <c r="F49" s="3">
-        <v>3037600</v>
+        <v>3099100</v>
       </c>
       <c r="G49" s="3">
-        <v>3037700</v>
+        <v>3099200</v>
       </c>
       <c r="H49" s="3">
-        <v>3034000</v>
+        <v>3095500</v>
       </c>
       <c r="I49" s="3">
-        <v>3031800</v>
+        <v>3093200</v>
       </c>
       <c r="J49" s="3">
-        <v>3030700</v>
+        <v>3092000</v>
       </c>
       <c r="K49" s="3">
         <v>2918200</v>
@@ -2805,22 +2805,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>312000</v>
+        <v>318300</v>
       </c>
       <c r="E52" s="3">
-        <v>262900</v>
+        <v>268200</v>
       </c>
       <c r="F52" s="3">
-        <v>219400</v>
+        <v>223800</v>
       </c>
       <c r="G52" s="3">
-        <v>211600</v>
+        <v>215900</v>
       </c>
       <c r="H52" s="3">
-        <v>190400</v>
+        <v>194300</v>
       </c>
       <c r="I52" s="3">
-        <v>197700</v>
+        <v>201700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2911,25 +2911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>314619200</v>
+        <v>320990400</v>
       </c>
       <c r="E54" s="3">
-        <v>313900800</v>
+        <v>320257400</v>
       </c>
       <c r="F54" s="3">
-        <v>296160500</v>
+        <v>302157900</v>
       </c>
       <c r="G54" s="3">
-        <v>299071100</v>
+        <v>305127400</v>
       </c>
       <c r="H54" s="3">
-        <v>297605700</v>
+        <v>303632400</v>
       </c>
       <c r="I54" s="3">
-        <v>293274000</v>
+        <v>299212900</v>
       </c>
       <c r="J54" s="3">
-        <v>284211700</v>
+        <v>289967100</v>
       </c>
       <c r="K54" s="3">
         <v>269977900</v>
@@ -3112,22 +3112,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>476000</v>
+        <v>485700</v>
       </c>
       <c r="E59" s="3">
-        <v>418200</v>
+        <v>426600</v>
       </c>
       <c r="F59" s="3">
-        <v>358100</v>
+        <v>365300</v>
       </c>
       <c r="G59" s="3">
-        <v>341300</v>
+        <v>348200</v>
       </c>
       <c r="H59" s="3">
-        <v>396900</v>
+        <v>405000</v>
       </c>
       <c r="I59" s="3">
-        <v>466500</v>
+        <v>475900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3218,25 +3218,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17562000</v>
+        <v>17917600</v>
       </c>
       <c r="E61" s="3">
-        <v>14474500</v>
+        <v>14767600</v>
       </c>
       <c r="F61" s="3">
-        <v>18461600</v>
+        <v>18835400</v>
       </c>
       <c r="G61" s="3">
-        <v>20230600</v>
+        <v>20640300</v>
       </c>
       <c r="H61" s="3">
-        <v>22949800</v>
+        <v>23414500</v>
       </c>
       <c r="I61" s="3">
-        <v>16448900</v>
+        <v>16782000</v>
       </c>
       <c r="J61" s="3">
-        <v>22413400</v>
+        <v>22867300</v>
       </c>
       <c r="K61" s="3">
         <v>16867400</v>
@@ -3271,22 +3271,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>327400</v>
+        <v>334000</v>
       </c>
       <c r="E62" s="3">
-        <v>290000</v>
+        <v>295900</v>
       </c>
       <c r="F62" s="3">
-        <v>219100</v>
+        <v>223500</v>
       </c>
       <c r="G62" s="3">
-        <v>226300</v>
+        <v>230900</v>
       </c>
       <c r="H62" s="3">
-        <v>197700</v>
+        <v>201700</v>
       </c>
       <c r="I62" s="3">
-        <v>193300</v>
+        <v>197300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3483,25 +3483,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>285266700</v>
+        <v>291043500</v>
       </c>
       <c r="E66" s="3">
-        <v>284403300</v>
+        <v>290162600</v>
       </c>
       <c r="F66" s="3">
-        <v>267133500</v>
+        <v>272543100</v>
       </c>
       <c r="G66" s="3">
-        <v>270156500</v>
+        <v>275627300</v>
       </c>
       <c r="H66" s="3">
-        <v>269020700</v>
+        <v>274468500</v>
       </c>
       <c r="I66" s="3">
-        <v>264721200</v>
+        <v>270081900</v>
       </c>
       <c r="J66" s="3">
-        <v>256659200</v>
+        <v>261856600</v>
       </c>
       <c r="K66" s="3">
         <v>244034800</v>
@@ -3769,25 +3769,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23967700</v>
+        <v>24453100</v>
       </c>
       <c r="E72" s="3">
-        <v>24147100</v>
+        <v>24636100</v>
       </c>
       <c r="F72" s="3">
-        <v>23662500</v>
+        <v>24141700</v>
       </c>
       <c r="G72" s="3">
-        <v>23187000</v>
+        <v>23656600</v>
       </c>
       <c r="H72" s="3">
-        <v>23406000</v>
+        <v>23880000</v>
       </c>
       <c r="I72" s="3">
-        <v>23416300</v>
+        <v>23890400</v>
       </c>
       <c r="J72" s="3">
-        <v>22415900</v>
+        <v>22869800</v>
       </c>
       <c r="K72" s="3">
         <v>20963200</v>
@@ -3981,25 +3981,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29352500</v>
+        <v>29946900</v>
       </c>
       <c r="E76" s="3">
-        <v>29497500</v>
+        <v>30094900</v>
       </c>
       <c r="F76" s="3">
-        <v>29027000</v>
+        <v>29614800</v>
       </c>
       <c r="G76" s="3">
-        <v>28914600</v>
+        <v>29500100</v>
       </c>
       <c r="H76" s="3">
-        <v>28585000</v>
+        <v>29163900</v>
       </c>
       <c r="I76" s="3">
-        <v>28552800</v>
+        <v>29131000</v>
       </c>
       <c r="J76" s="3">
-        <v>27552500</v>
+        <v>28110500</v>
       </c>
       <c r="K76" s="3">
         <v>25943100</v>
@@ -4145,25 +4145,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>514800</v>
+        <v>525300</v>
       </c>
       <c r="E81" s="3">
-        <v>626900</v>
+        <v>639600</v>
       </c>
       <c r="F81" s="3">
-        <v>664900</v>
+        <v>678400</v>
       </c>
       <c r="G81" s="3">
-        <v>818700</v>
+        <v>835300</v>
       </c>
       <c r="H81" s="3">
-        <v>855400</v>
+        <v>872700</v>
       </c>
       <c r="I81" s="3">
-        <v>770400</v>
+        <v>786000</v>
       </c>
       <c r="J81" s="3">
-        <v>589500</v>
+        <v>601400</v>
       </c>
       <c r="K81" s="3">
         <v>731700</v>
@@ -4219,25 +4219,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>83500</v>
+        <v>85200</v>
       </c>
       <c r="E83" s="3">
-        <v>79800</v>
+        <v>81400</v>
       </c>
       <c r="F83" s="3">
-        <v>79600</v>
+        <v>81200</v>
       </c>
       <c r="G83" s="3">
-        <v>74700</v>
+        <v>76200</v>
       </c>
       <c r="H83" s="3">
-        <v>71000</v>
+        <v>72500</v>
       </c>
       <c r="I83" s="3">
-        <v>66600</v>
+        <v>68000</v>
       </c>
       <c r="J83" s="3">
-        <v>53400</v>
+        <v>54400</v>
       </c>
       <c r="K83" s="3">
         <v>48700</v>
@@ -4537,25 +4537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-979900</v>
+        <v>-999700</v>
       </c>
       <c r="E89" s="3">
-        <v>7080900</v>
+        <v>7224300</v>
       </c>
       <c r="F89" s="3">
-        <v>5092400</v>
+        <v>5195500</v>
       </c>
       <c r="G89" s="3">
-        <v>-484800</v>
+        <v>-494600</v>
       </c>
       <c r="H89" s="3">
-        <v>-7990500</v>
+        <v>-8152300</v>
       </c>
       <c r="I89" s="3">
-        <v>9485100</v>
+        <v>9677200</v>
       </c>
       <c r="J89" s="3">
-        <v>-4298900</v>
+        <v>-4385900</v>
       </c>
       <c r="K89" s="3">
         <v>466400</v>
@@ -4611,25 +4611,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-86400</v>
+        <v>-88200</v>
       </c>
       <c r="E91" s="3">
-        <v>-104700</v>
+        <v>-106800</v>
       </c>
       <c r="F91" s="3">
-        <v>-120800</v>
+        <v>-123300</v>
       </c>
       <c r="G91" s="3">
-        <v>-101100</v>
+        <v>-103100</v>
       </c>
       <c r="H91" s="3">
-        <v>-102500</v>
+        <v>-104600</v>
       </c>
       <c r="I91" s="3">
-        <v>-95200</v>
+        <v>-97100</v>
       </c>
       <c r="J91" s="3">
-        <v>-116000</v>
+        <v>-118400</v>
       </c>
       <c r="K91" s="3">
         <v>-87500</v>
@@ -4770,25 +4770,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62200</v>
+        <v>-63500</v>
       </c>
       <c r="E94" s="3">
-        <v>-98900</v>
+        <v>-100900</v>
       </c>
       <c r="F94" s="3">
-        <v>-103300</v>
+        <v>-105400</v>
       </c>
       <c r="G94" s="3">
-        <v>-87900</v>
+        <v>-89700</v>
       </c>
       <c r="H94" s="3">
-        <v>-87900</v>
+        <v>-89700</v>
       </c>
       <c r="I94" s="3">
-        <v>-87100</v>
+        <v>-88900</v>
       </c>
       <c r="J94" s="3">
-        <v>-32200</v>
+        <v>-32900</v>
       </c>
       <c r="K94" s="3">
         <v>-79700</v>
@@ -4844,7 +4844,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-916900</v>
+        <v>-935400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>200</v>
       </c>
       <c r="G96" s="3">
-        <v>-672300</v>
+        <v>-685900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5056,25 +5056,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2071800</v>
+        <v>2113700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4334700</v>
+        <v>-4422400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2048500</v>
+        <v>-2090000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2954200</v>
+        <v>-3014000</v>
       </c>
       <c r="H100" s="3">
-        <v>5510800</v>
+        <v>5622400</v>
       </c>
       <c r="I100" s="3">
-        <v>-6073200</v>
+        <v>-6196200</v>
       </c>
       <c r="J100" s="3">
-        <v>4852100</v>
+        <v>4950400</v>
       </c>
       <c r="K100" s="3">
         <v>-3951200</v>
@@ -5109,25 +5109,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51300</v>
+        <v>-52300</v>
       </c>
       <c r="E101" s="3">
-        <v>595400</v>
+        <v>607400</v>
       </c>
       <c r="F101" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="G101" s="3">
-        <v>206500</v>
+        <v>210700</v>
       </c>
       <c r="H101" s="3">
-        <v>130400</v>
+        <v>133000</v>
       </c>
       <c r="I101" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="J101" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K101" s="3">
         <v>33200</v>
@@ -5162,25 +5162,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>978400</v>
+        <v>998200</v>
       </c>
       <c r="E102" s="3">
-        <v>3242800</v>
+        <v>3308400</v>
       </c>
       <c r="F102" s="3">
-        <v>2836900</v>
+        <v>2894400</v>
       </c>
       <c r="G102" s="3">
-        <v>-3320400</v>
+        <v>-3387600</v>
       </c>
       <c r="H102" s="3">
-        <v>-2437200</v>
+        <v>-2486500</v>
       </c>
       <c r="I102" s="3">
-        <v>3338700</v>
+        <v>3406300</v>
       </c>
       <c r="J102" s="3">
-        <v>530100</v>
+        <v>540800</v>
       </c>
       <c r="K102" s="3">
         <v>-3531400</v>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>1851500</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>2157800</v>
+        <v>1837000</v>
       </c>
       <c r="F8" s="3">
-        <v>2270500</v>
+        <v>2141000</v>
       </c>
       <c r="G8" s="3">
-        <v>2408800</v>
+        <v>2252800</v>
       </c>
       <c r="H8" s="3">
-        <v>2386400</v>
+        <v>2390100</v>
       </c>
       <c r="I8" s="3">
-        <v>2316200</v>
+        <v>2367800</v>
       </c>
       <c r="J8" s="3">
+        <v>2298200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2269900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2060300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1924800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1771200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1759700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1710700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1641300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1581600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1543500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1089,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1059500</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1180500</v>
+        <v>1051200</v>
       </c>
       <c r="F17" s="3">
-        <v>1157500</v>
+        <v>1171300</v>
       </c>
       <c r="G17" s="3">
-        <v>1256700</v>
+        <v>1148500</v>
       </c>
       <c r="H17" s="3">
-        <v>1189500</v>
+        <v>1246900</v>
       </c>
       <c r="I17" s="3">
-        <v>1199900</v>
+        <v>1180200</v>
       </c>
       <c r="J17" s="3">
+        <v>1190600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1163800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>999100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>768000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>786000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>835400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>774200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>757300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>705000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>792000</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>977300</v>
+        <v>785800</v>
       </c>
       <c r="F18" s="3">
-        <v>1113000</v>
+        <v>969700</v>
       </c>
       <c r="G18" s="3">
-        <v>1152100</v>
+        <v>1104300</v>
       </c>
       <c r="H18" s="3">
-        <v>1197000</v>
+        <v>1143100</v>
       </c>
       <c r="I18" s="3">
-        <v>1116300</v>
+        <v>1187600</v>
       </c>
       <c r="J18" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1106000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1061200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1024500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1003200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>973700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>875200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>867100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>824400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>838500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-159900</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-190500</v>
+        <v>-158600</v>
       </c>
       <c r="F20" s="3">
-        <v>-223700</v>
+        <v>-189000</v>
       </c>
       <c r="G20" s="3">
-        <v>-162900</v>
+        <v>-221900</v>
       </c>
       <c r="H20" s="3">
-        <v>-148700</v>
+        <v>-161600</v>
       </c>
       <c r="I20" s="3">
-        <v>-177100</v>
+        <v>-147500</v>
       </c>
       <c r="J20" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-281000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-182000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-119900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-142200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-172400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-84100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-75900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-164800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>717300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>868200</v>
+        <v>711700</v>
       </c>
       <c r="F21" s="3">
-        <v>970500</v>
+        <v>861400</v>
       </c>
       <c r="G21" s="3">
-        <v>1065500</v>
+        <v>962900</v>
       </c>
       <c r="H21" s="3">
-        <v>1120700</v>
+        <v>1057200</v>
       </c>
       <c r="I21" s="3">
-        <v>1007200</v>
+        <v>1112000</v>
       </c>
       <c r="J21" s="3">
+        <v>999300</v>
+      </c>
+      <c r="K21" s="3">
         <v>879500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>927800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>951800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>907300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>853100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>837600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>805200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>797100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>716700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>632100</v>
+        <v>593100</v>
       </c>
       <c r="E23" s="3">
-        <v>786800</v>
+        <v>627200</v>
       </c>
       <c r="F23" s="3">
-        <v>889300</v>
+        <v>780600</v>
       </c>
       <c r="G23" s="3">
-        <v>989200</v>
+        <v>882400</v>
       </c>
       <c r="H23" s="3">
-        <v>1048300</v>
+        <v>981500</v>
       </c>
       <c r="I23" s="3">
-        <v>939200</v>
+        <v>1040100</v>
       </c>
       <c r="J23" s="3">
+        <v>931900</v>
+      </c>
+      <c r="K23" s="3">
         <v>825000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>879100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>904500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>861100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>801300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>791200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>761700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>748400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>673700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105300</v>
+        <v>97900</v>
       </c>
       <c r="E24" s="3">
-        <v>145700</v>
+        <v>104500</v>
       </c>
       <c r="F24" s="3">
-        <v>133400</v>
+        <v>144600</v>
       </c>
       <c r="G24" s="3">
-        <v>150900</v>
+        <v>132400</v>
       </c>
       <c r="H24" s="3">
-        <v>172600</v>
+        <v>149800</v>
       </c>
       <c r="I24" s="3">
-        <v>149400</v>
+        <v>171200</v>
       </c>
       <c r="J24" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K24" s="3">
         <v>138500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>145300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>153000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>166700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>137900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>135700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>149700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>129600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>526700</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>641100</v>
+        <v>522600</v>
       </c>
       <c r="F26" s="3">
-        <v>755900</v>
+        <v>636100</v>
       </c>
       <c r="G26" s="3">
-        <v>838300</v>
+        <v>750000</v>
       </c>
       <c r="H26" s="3">
-        <v>875700</v>
+        <v>831800</v>
       </c>
       <c r="I26" s="3">
-        <v>789700</v>
+        <v>868900</v>
       </c>
       <c r="J26" s="3">
+        <v>783600</v>
+      </c>
+      <c r="K26" s="3">
         <v>686600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>733800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>762000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>708000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>634600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>653300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>626000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>598700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>544100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>525300</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>639600</v>
+        <v>521200</v>
       </c>
       <c r="F27" s="3">
-        <v>678400</v>
+        <v>634600</v>
       </c>
       <c r="G27" s="3">
-        <v>835300</v>
+        <v>673100</v>
       </c>
       <c r="H27" s="3">
-        <v>872700</v>
+        <v>828800</v>
       </c>
       <c r="I27" s="3">
-        <v>786000</v>
+        <v>865900</v>
       </c>
       <c r="J27" s="3">
+        <v>779900</v>
+      </c>
+      <c r="K27" s="3">
         <v>601400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>731700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>759900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>705900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>555200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>651100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>623100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>595800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>473700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>159900</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>190500</v>
+        <v>158600</v>
       </c>
       <c r="F32" s="3">
-        <v>223700</v>
+        <v>189000</v>
       </c>
       <c r="G32" s="3">
-        <v>162900</v>
+        <v>221900</v>
       </c>
       <c r="H32" s="3">
-        <v>148700</v>
+        <v>161600</v>
       </c>
       <c r="I32" s="3">
-        <v>177100</v>
+        <v>147500</v>
       </c>
       <c r="J32" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K32" s="3">
         <v>281000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>182000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>119900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>142200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>172400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>84100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>105400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>75900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>164800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>525300</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>639600</v>
+        <v>521200</v>
       </c>
       <c r="F33" s="3">
-        <v>678400</v>
+        <v>634600</v>
       </c>
       <c r="G33" s="3">
-        <v>835300</v>
+        <v>673100</v>
       </c>
       <c r="H33" s="3">
-        <v>872700</v>
+        <v>828800</v>
       </c>
       <c r="I33" s="3">
-        <v>786000</v>
+        <v>865900</v>
       </c>
       <c r="J33" s="3">
+        <v>779900</v>
+      </c>
+      <c r="K33" s="3">
         <v>601400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>731700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>759900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>705900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>555200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>651100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>623100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>595800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>473700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>525300</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>639600</v>
+        <v>521200</v>
       </c>
       <c r="F35" s="3">
-        <v>678400</v>
+        <v>634600</v>
       </c>
       <c r="G35" s="3">
-        <v>835300</v>
+        <v>673100</v>
       </c>
       <c r="H35" s="3">
-        <v>872700</v>
+        <v>828800</v>
       </c>
       <c r="I35" s="3">
-        <v>786000</v>
+        <v>865900</v>
       </c>
       <c r="J35" s="3">
+        <v>779900</v>
+      </c>
+      <c r="K35" s="3">
         <v>601400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>731700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>759900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>705900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>555200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>651100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>623100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>595800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>473700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2301,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>56777400</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>62836900</v>
+        <v>56335200</v>
       </c>
       <c r="F41" s="3">
-        <v>58804700</v>
+        <v>62347400</v>
       </c>
       <c r="G41" s="3">
-        <v>55374300</v>
+        <v>58346700</v>
       </c>
       <c r="H41" s="3">
-        <v>59657000</v>
+        <v>54942900</v>
       </c>
       <c r="I41" s="3">
-        <v>58989000</v>
+        <v>59192300</v>
       </c>
       <c r="J41" s="3">
+        <v>58529500</v>
+      </c>
+      <c r="K41" s="3">
         <v>56823000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55972200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61652000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55633300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58107600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57352600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55610200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>50503300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47133000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>17712900</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>14552400</v>
+        <v>17574900</v>
       </c>
       <c r="F42" s="3">
-        <v>13630200</v>
+        <v>14439100</v>
       </c>
       <c r="G42" s="3">
-        <v>13377200</v>
+        <v>13524000</v>
       </c>
       <c r="H42" s="3">
-        <v>12638200</v>
+        <v>13273000</v>
       </c>
       <c r="I42" s="3">
-        <v>12832500</v>
+        <v>12539800</v>
       </c>
       <c r="J42" s="3">
+        <v>12732500</v>
+      </c>
+      <c r="K42" s="3">
         <v>11567200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10260400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9848300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9675900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9614300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10128200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9724900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10082500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10815200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>894400</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>909300</v>
+        <v>887400</v>
       </c>
       <c r="F47" s="3">
-        <v>883500</v>
+        <v>902200</v>
       </c>
       <c r="G47" s="3">
-        <v>883900</v>
+        <v>876600</v>
       </c>
       <c r="H47" s="3">
-        <v>880200</v>
+        <v>877000</v>
       </c>
       <c r="I47" s="3">
-        <v>883900</v>
+        <v>873300</v>
       </c>
       <c r="J47" s="3">
+        <v>877000</v>
+      </c>
+      <c r="K47" s="3">
         <v>873900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>891800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>883400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>874800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>880400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>867900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>850900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>844300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>812200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>2823500</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>2806300</v>
+        <v>2801500</v>
       </c>
       <c r="F48" s="3">
-        <v>2761100</v>
+        <v>2784500</v>
       </c>
       <c r="G48" s="3">
-        <v>2718900</v>
+        <v>2739600</v>
       </c>
       <c r="H48" s="3">
-        <v>2672600</v>
+        <v>2697700</v>
       </c>
       <c r="I48" s="3">
-        <v>2634500</v>
+        <v>2651800</v>
       </c>
       <c r="J48" s="3">
+        <v>2614000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2449200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2257100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2229600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2231000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2255600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2236400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2221600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2201000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2189700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3098500</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>3088800</v>
+        <v>3074300</v>
       </c>
       <c r="F49" s="3">
-        <v>3099100</v>
+        <v>3064700</v>
       </c>
       <c r="G49" s="3">
-        <v>3099200</v>
+        <v>3074900</v>
       </c>
       <c r="H49" s="3">
-        <v>3095500</v>
+        <v>3075100</v>
       </c>
       <c r="I49" s="3">
-        <v>3093200</v>
+        <v>3071400</v>
       </c>
       <c r="J49" s="3">
+        <v>3069100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3092000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2918200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2919600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2988100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3054100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3055600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3057800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3058500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3040200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,31 +2915,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>318300</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>268200</v>
+        <v>315800</v>
       </c>
       <c r="F52" s="3">
-        <v>223800</v>
+        <v>266100</v>
       </c>
       <c r="G52" s="3">
-        <v>215900</v>
+        <v>222100</v>
       </c>
       <c r="H52" s="3">
-        <v>194300</v>
+        <v>214200</v>
       </c>
       <c r="I52" s="3">
-        <v>201700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>192700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>200200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2834,26 +2953,29 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>142500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>183900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>320990400</v>
+        <v>312904000</v>
       </c>
       <c r="E54" s="3">
-        <v>320257400</v>
+        <v>318490000</v>
       </c>
       <c r="F54" s="3">
-        <v>302157900</v>
+        <v>317762800</v>
       </c>
       <c r="G54" s="3">
-        <v>305127400</v>
+        <v>299804300</v>
       </c>
       <c r="H54" s="3">
-        <v>303632400</v>
+        <v>302750700</v>
       </c>
       <c r="I54" s="3">
-        <v>299212900</v>
+        <v>301267200</v>
       </c>
       <c r="J54" s="3">
+        <v>296882200</v>
+      </c>
+      <c r="K54" s="3">
         <v>289967100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>269977900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271124400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>263049000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>264407800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>261127300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>253953700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>252596900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>249032800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3183,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,31 +3239,34 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>485700</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>426600</v>
+        <v>481900</v>
       </c>
       <c r="F59" s="3">
-        <v>365300</v>
+        <v>423300</v>
       </c>
       <c r="G59" s="3">
-        <v>348200</v>
+        <v>362500</v>
       </c>
       <c r="H59" s="3">
-        <v>405000</v>
+        <v>345500</v>
       </c>
       <c r="I59" s="3">
-        <v>475900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+        <v>401800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>472200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -3141,26 +3277,29 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>405900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>305700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,84 +3351,90 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17917600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>14767600</v>
+        <v>17778100</v>
       </c>
       <c r="F61" s="3">
-        <v>18835400</v>
+        <v>14652600</v>
       </c>
       <c r="G61" s="3">
-        <v>20640300</v>
+        <v>18688700</v>
       </c>
       <c r="H61" s="3">
-        <v>23414500</v>
+        <v>20479500</v>
       </c>
       <c r="I61" s="3">
-        <v>16782000</v>
+        <v>23232100</v>
       </c>
       <c r="J61" s="3">
+        <v>16651200</v>
+      </c>
+      <c r="K61" s="3">
         <v>22867300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16867400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19583800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17617400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18565000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18916700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19631900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19255900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19146800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>334000</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>295900</v>
+        <v>331400</v>
       </c>
       <c r="F62" s="3">
-        <v>223500</v>
+        <v>293600</v>
       </c>
       <c r="G62" s="3">
-        <v>230900</v>
+        <v>221800</v>
       </c>
       <c r="H62" s="3">
-        <v>201700</v>
+        <v>229100</v>
       </c>
       <c r="I62" s="3">
-        <v>197300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+        <v>200200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>195700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -3300,26 +3445,29 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>131200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>169800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>291043500</v>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>290162600</v>
+        <v>288776400</v>
       </c>
       <c r="F66" s="3">
-        <v>272543100</v>
+        <v>287902400</v>
       </c>
       <c r="G66" s="3">
-        <v>275627300</v>
+        <v>270420100</v>
       </c>
       <c r="H66" s="3">
-        <v>274468500</v>
+        <v>273480300</v>
       </c>
       <c r="I66" s="3">
-        <v>270081900</v>
+        <v>272330500</v>
       </c>
       <c r="J66" s="3">
+        <v>267978100</v>
+      </c>
+      <c r="K66" s="3">
         <v>261856600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>244034800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>244552700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>235710900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>237236500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>235211700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>228403000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>227719500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>224956800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>24453100</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>24636100</v>
+        <v>24262600</v>
       </c>
       <c r="F72" s="3">
-        <v>24141700</v>
+        <v>24444200</v>
       </c>
       <c r="G72" s="3">
-        <v>23656600</v>
+        <v>23953600</v>
       </c>
       <c r="H72" s="3">
-        <v>23880000</v>
+        <v>23472300</v>
       </c>
       <c r="I72" s="3">
-        <v>23890400</v>
+        <v>23694000</v>
       </c>
       <c r="J72" s="3">
+        <v>23704300</v>
+      </c>
+      <c r="K72" s="3">
         <v>22869800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20963200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20949800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21760300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21445100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20844100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20533000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20193100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19424600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29946900</v>
+        <v>29643200</v>
       </c>
       <c r="E76" s="3">
-        <v>30094900</v>
+        <v>29713600</v>
       </c>
       <c r="F76" s="3">
-        <v>29614800</v>
+        <v>29860400</v>
       </c>
       <c r="G76" s="3">
-        <v>29500100</v>
+        <v>29384100</v>
       </c>
       <c r="H76" s="3">
-        <v>29163900</v>
+        <v>29270300</v>
       </c>
       <c r="I76" s="3">
-        <v>29131000</v>
+        <v>28936700</v>
       </c>
       <c r="J76" s="3">
+        <v>28904100</v>
+      </c>
+      <c r="K76" s="3">
         <v>28110500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25943100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26571800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27338100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27171300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25915600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25550700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24877500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24076000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>525300</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>639600</v>
+        <v>521200</v>
       </c>
       <c r="F81" s="3">
-        <v>678400</v>
+        <v>634600</v>
       </c>
       <c r="G81" s="3">
-        <v>835300</v>
+        <v>673100</v>
       </c>
       <c r="H81" s="3">
-        <v>872700</v>
+        <v>828800</v>
       </c>
       <c r="I81" s="3">
-        <v>786000</v>
+        <v>865900</v>
       </c>
       <c r="J81" s="3">
+        <v>779900</v>
+      </c>
+      <c r="K81" s="3">
         <v>601400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>731700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>759900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>705900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>555200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>651100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>623100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>595800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>473700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>85200</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>81400</v>
+        <v>84500</v>
       </c>
       <c r="F83" s="3">
-        <v>81200</v>
+        <v>80800</v>
       </c>
       <c r="G83" s="3">
-        <v>76200</v>
+        <v>80600</v>
       </c>
       <c r="H83" s="3">
-        <v>72500</v>
+        <v>75600</v>
       </c>
       <c r="I83" s="3">
-        <v>68000</v>
+        <v>71900</v>
       </c>
       <c r="J83" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K83" s="3">
         <v>54400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-999700</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>7224300</v>
+        <v>-991900</v>
       </c>
       <c r="F89" s="3">
-        <v>5195500</v>
+        <v>7168000</v>
       </c>
       <c r="G89" s="3">
-        <v>-494600</v>
+        <v>5155000</v>
       </c>
       <c r="H89" s="3">
-        <v>-8152300</v>
+        <v>-490800</v>
       </c>
       <c r="I89" s="3">
-        <v>9677200</v>
+        <v>-8088800</v>
       </c>
       <c r="J89" s="3">
+        <v>9601800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>466400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-137600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1240700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3652800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>889200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1353000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-88200</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-106800</v>
+        <v>-87500</v>
       </c>
       <c r="F91" s="3">
-        <v>-123300</v>
+        <v>-106000</v>
       </c>
       <c r="G91" s="3">
-        <v>-103100</v>
+        <v>-122300</v>
       </c>
       <c r="H91" s="3">
-        <v>-104600</v>
+        <v>-102300</v>
       </c>
       <c r="I91" s="3">
-        <v>-97100</v>
+        <v>-103800</v>
       </c>
       <c r="J91" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-118400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-63400</v>
       </c>
       <c r="P91" s="3">
         <v>-63400</v>
       </c>
       <c r="Q91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="R91" s="3">
         <v>-59700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-92900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-63500</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-100900</v>
+        <v>-63000</v>
       </c>
       <c r="F94" s="3">
-        <v>-105400</v>
+        <v>-100100</v>
       </c>
       <c r="G94" s="3">
-        <v>-89700</v>
+        <v>-104600</v>
       </c>
       <c r="H94" s="3">
-        <v>-89700</v>
+        <v>-89000</v>
       </c>
       <c r="I94" s="3">
-        <v>-88900</v>
+        <v>-89000</v>
       </c>
       <c r="J94" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-32900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-86100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,38 +5070,39 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-935400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-928200</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-685900</v>
-      </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-680600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-589200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4877,22 +5110,25 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-390800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-99500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>2113700</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>-4422400</v>
+        <v>2097300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2090000</v>
+        <v>-4388000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3014000</v>
+        <v>-2073700</v>
       </c>
       <c r="H100" s="3">
-        <v>5622400</v>
+        <v>-2990600</v>
       </c>
       <c r="I100" s="3">
-        <v>-6196200</v>
+        <v>5578600</v>
       </c>
       <c r="J100" s="3">
+        <v>-6147900</v>
+      </c>
+      <c r="K100" s="3">
         <v>4950400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1536000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-393400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>410600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>243300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>148900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4704400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-52300</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>607400</v>
+        <v>-51900</v>
       </c>
       <c r="F101" s="3">
-        <v>-105800</v>
+        <v>602700</v>
       </c>
       <c r="G101" s="3">
-        <v>210700</v>
+        <v>-104900</v>
       </c>
       <c r="H101" s="3">
-        <v>133000</v>
+        <v>209100</v>
       </c>
       <c r="I101" s="3">
-        <v>14200</v>
+        <v>132000</v>
       </c>
       <c r="J101" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K101" s="3">
         <v>9200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>33200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>255400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-281500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-160300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-65600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-264000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>266600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>998200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>3308400</v>
+        <v>990400</v>
       </c>
       <c r="F102" s="3">
-        <v>2894400</v>
+        <v>3282700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3387600</v>
+        <v>2871800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2486500</v>
+        <v>-3361200</v>
       </c>
       <c r="I102" s="3">
-        <v>3406300</v>
+        <v>-2467200</v>
       </c>
       <c r="J102" s="3">
+        <v>3379800</v>
+      </c>
+      <c r="K102" s="3">
         <v>540800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1567800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>506000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2459800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1095000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1179800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>1837000</v>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>2141000</v>
+        <v>1869200</v>
       </c>
       <c r="G8" s="3">
-        <v>2252800</v>
+        <v>2178500</v>
       </c>
       <c r="H8" s="3">
-        <v>2390100</v>
+        <v>2292200</v>
       </c>
       <c r="I8" s="3">
-        <v>2367800</v>
+        <v>2431900</v>
       </c>
       <c r="J8" s="3">
+        <v>2409300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2298200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2269900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2060300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1924800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1771200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1759700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1710700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1641300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1581600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1543500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,8 +1111,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>1051200</v>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>1171300</v>
+        <v>1069600</v>
       </c>
       <c r="G17" s="3">
-        <v>1148500</v>
+        <v>1191800</v>
       </c>
       <c r="H17" s="3">
-        <v>1246900</v>
+        <v>1168600</v>
       </c>
       <c r="I17" s="3">
-        <v>1180200</v>
+        <v>1268800</v>
       </c>
       <c r="J17" s="3">
+        <v>1200900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1190600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1163800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>999100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>768000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>786000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>835400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>774200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>757300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>705000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
-        <v>785800</v>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>969700</v>
+        <v>799600</v>
       </c>
       <c r="G18" s="3">
-        <v>1104300</v>
+        <v>986700</v>
       </c>
       <c r="H18" s="3">
-        <v>1143100</v>
+        <v>1123600</v>
       </c>
       <c r="I18" s="3">
-        <v>1187600</v>
+        <v>1163200</v>
       </c>
       <c r="J18" s="3">
+        <v>1208400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1107600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1106000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1061200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1024500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1003200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>973700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>875200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>867100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>824400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>838500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>-158600</v>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-189000</v>
+        <v>-161400</v>
       </c>
       <c r="G20" s="3">
-        <v>-221900</v>
+        <v>-192400</v>
       </c>
       <c r="H20" s="3">
-        <v>-161600</v>
+        <v>-225800</v>
       </c>
       <c r="I20" s="3">
-        <v>-147500</v>
+        <v>-164400</v>
       </c>
       <c r="J20" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-175700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-281000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-182000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-119900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-142200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-172400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-84100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-105400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-75900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-164800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>711700</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>861400</v>
+        <v>724100</v>
       </c>
       <c r="G21" s="3">
-        <v>962900</v>
+        <v>876500</v>
       </c>
       <c r="H21" s="3">
-        <v>1057200</v>
+        <v>979800</v>
       </c>
       <c r="I21" s="3">
-        <v>1112000</v>
+        <v>1075700</v>
       </c>
       <c r="J21" s="3">
+        <v>1131500</v>
+      </c>
+      <c r="K21" s="3">
         <v>999300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>879500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>927800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>951800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>907300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>853100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>837600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>805200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>797100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>716700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>593100</v>
+        <v>632100</v>
       </c>
       <c r="E23" s="3">
-        <v>627200</v>
+        <v>603500</v>
       </c>
       <c r="F23" s="3">
-        <v>780600</v>
+        <v>638200</v>
       </c>
       <c r="G23" s="3">
-        <v>882400</v>
+        <v>794300</v>
       </c>
       <c r="H23" s="3">
-        <v>981500</v>
+        <v>897800</v>
       </c>
       <c r="I23" s="3">
-        <v>1040100</v>
+        <v>998700</v>
       </c>
       <c r="J23" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="K23" s="3">
         <v>931900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>825000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>879100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>904500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>861100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>801300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>791200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>761700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>748400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>673700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97900</v>
+        <v>112400</v>
       </c>
       <c r="E24" s="3">
-        <v>104500</v>
+        <v>99600</v>
       </c>
       <c r="F24" s="3">
-        <v>144600</v>
+        <v>106400</v>
       </c>
       <c r="G24" s="3">
-        <v>132400</v>
+        <v>147100</v>
       </c>
       <c r="H24" s="3">
-        <v>149800</v>
+        <v>134700</v>
       </c>
       <c r="I24" s="3">
-        <v>171200</v>
+        <v>152400</v>
       </c>
       <c r="J24" s="3">
+        <v>174200</v>
+      </c>
+      <c r="K24" s="3">
         <v>148300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>138500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>145300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>166700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>137900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>135700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>149700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>129600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
-        <v>522600</v>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>636100</v>
+        <v>531800</v>
       </c>
       <c r="G26" s="3">
-        <v>750000</v>
+        <v>647200</v>
       </c>
       <c r="H26" s="3">
-        <v>831800</v>
+        <v>763100</v>
       </c>
       <c r="I26" s="3">
-        <v>868900</v>
+        <v>846300</v>
       </c>
       <c r="J26" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K26" s="3">
         <v>783600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>686600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>733800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>762000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>708000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>634600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>653300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>626000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>598700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>544100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
-        <v>521200</v>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>634600</v>
+        <v>530300</v>
       </c>
       <c r="G27" s="3">
-        <v>673100</v>
+        <v>645700</v>
       </c>
       <c r="H27" s="3">
-        <v>828800</v>
+        <v>684900</v>
       </c>
       <c r="I27" s="3">
-        <v>865900</v>
+        <v>843300</v>
       </c>
       <c r="J27" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K27" s="3">
         <v>779900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>601400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>731700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>759900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>705900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>555200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>651100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>623100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>595800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>473700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
-        <v>158600</v>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>189000</v>
+        <v>161400</v>
       </c>
       <c r="G32" s="3">
-        <v>221900</v>
+        <v>192400</v>
       </c>
       <c r="H32" s="3">
-        <v>161600</v>
+        <v>225800</v>
       </c>
       <c r="I32" s="3">
-        <v>147500</v>
+        <v>164400</v>
       </c>
       <c r="J32" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K32" s="3">
         <v>175700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>281000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>182000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>119900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>142200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>172400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>84100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>105400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>75900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>164800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="3">
-        <v>521200</v>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>634600</v>
+        <v>530300</v>
       </c>
       <c r="G33" s="3">
-        <v>673100</v>
+        <v>645700</v>
       </c>
       <c r="H33" s="3">
-        <v>828800</v>
+        <v>684900</v>
       </c>
       <c r="I33" s="3">
-        <v>865900</v>
+        <v>843300</v>
       </c>
       <c r="J33" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K33" s="3">
         <v>779900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>601400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>731700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>759900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>705900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>555200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>651100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>623100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>595800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>473700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="3">
-        <v>521200</v>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>634600</v>
+        <v>530300</v>
       </c>
       <c r="G35" s="3">
-        <v>673100</v>
+        <v>645700</v>
       </c>
       <c r="H35" s="3">
-        <v>828800</v>
+        <v>684900</v>
       </c>
       <c r="I35" s="3">
-        <v>865900</v>
+        <v>843300</v>
       </c>
       <c r="J35" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K35" s="3">
         <v>779900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>601400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>731700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>759900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>705900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>555200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>651100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>623100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>595800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>473700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,120 +2387,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3">
-        <v>56335200</v>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>62347400</v>
+        <v>57321500</v>
       </c>
       <c r="G41" s="3">
-        <v>58346700</v>
+        <v>63439100</v>
       </c>
       <c r="H41" s="3">
-        <v>54942900</v>
+        <v>59368300</v>
       </c>
       <c r="I41" s="3">
-        <v>59192300</v>
+        <v>55904900</v>
       </c>
       <c r="J41" s="3">
+        <v>60228700</v>
+      </c>
+      <c r="K41" s="3">
         <v>58529500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56823000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55972200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61652000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55633300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58107600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57352600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55610200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>50503300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47133000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>17574900</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>14439100</v>
+        <v>17882700</v>
       </c>
       <c r="G42" s="3">
-        <v>13524000</v>
+        <v>14691900</v>
       </c>
       <c r="H42" s="3">
-        <v>13273000</v>
+        <v>13760800</v>
       </c>
       <c r="I42" s="3">
-        <v>12539800</v>
+        <v>13505300</v>
       </c>
       <c r="J42" s="3">
+        <v>12759300</v>
+      </c>
+      <c r="K42" s="3">
         <v>12732500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11567200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10260400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9848300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9675900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9614300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10128200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9724900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10082500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10815200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
-        <v>887400</v>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>902200</v>
+        <v>902900</v>
       </c>
       <c r="G47" s="3">
-        <v>876600</v>
+        <v>918000</v>
       </c>
       <c r="H47" s="3">
+        <v>892000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>892400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>888600</v>
+      </c>
+      <c r="K47" s="3">
         <v>877000</v>
       </c>
-      <c r="I47" s="3">
-        <v>873300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>877000</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>873900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>891800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>883400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>874800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>880400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>867900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>850900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>844300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>812200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>2801500</v>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>2784500</v>
+        <v>2850600</v>
       </c>
       <c r="G48" s="3">
-        <v>2739600</v>
+        <v>2833200</v>
       </c>
       <c r="H48" s="3">
-        <v>2697700</v>
+        <v>2787500</v>
       </c>
       <c r="I48" s="3">
-        <v>2651800</v>
+        <v>2745000</v>
       </c>
       <c r="J48" s="3">
+        <v>2698200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2614000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2449200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2257100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2229600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2231000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2255600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2236400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2221600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2201000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2189700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
-        <v>3074300</v>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>3064700</v>
+        <v>3128200</v>
       </c>
       <c r="G49" s="3">
-        <v>3074900</v>
+        <v>3118400</v>
       </c>
       <c r="H49" s="3">
-        <v>3075100</v>
+        <v>3128800</v>
       </c>
       <c r="I49" s="3">
-        <v>3071400</v>
+        <v>3128900</v>
       </c>
       <c r="J49" s="3">
+        <v>3125100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3069100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3092000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2918200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2919600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2988100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3054100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3055600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3057800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3058500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3040200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,35 +3034,38 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>315800</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>266100</v>
+        <v>321300</v>
       </c>
       <c r="G52" s="3">
-        <v>222100</v>
+        <v>270800</v>
       </c>
       <c r="H52" s="3">
-        <v>214200</v>
+        <v>226000</v>
       </c>
       <c r="I52" s="3">
-        <v>192700</v>
+        <v>218000</v>
       </c>
       <c r="J52" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2956,26 +3075,29 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>142500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>183900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>312904000</v>
+        <v>325725900</v>
       </c>
       <c r="E54" s="3">
-        <v>318490000</v>
+        <v>318382600</v>
       </c>
       <c r="F54" s="3">
-        <v>317762800</v>
+        <v>324066400</v>
       </c>
       <c r="G54" s="3">
-        <v>299804300</v>
+        <v>323326400</v>
       </c>
       <c r="H54" s="3">
-        <v>302750700</v>
+        <v>305053500</v>
       </c>
       <c r="I54" s="3">
-        <v>301267200</v>
+        <v>308051500</v>
       </c>
       <c r="J54" s="3">
+        <v>306542100</v>
+      </c>
+      <c r="K54" s="3">
         <v>296882200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>289967100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>269977900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>271124400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>263049000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>264407800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>261127300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>253953700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>252596900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>249032800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +3316,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,35 +3375,38 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
-        <v>481900</v>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>423300</v>
+        <v>490300</v>
       </c>
       <c r="G59" s="3">
-        <v>362500</v>
+        <v>430700</v>
       </c>
       <c r="H59" s="3">
-        <v>345500</v>
+        <v>368800</v>
       </c>
       <c r="I59" s="3">
-        <v>401800</v>
+        <v>351500</v>
       </c>
       <c r="J59" s="3">
+        <v>408800</v>
+      </c>
+      <c r="K59" s="3">
         <v>472200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3280,26 +3416,29 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>405900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>305700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,8 +3493,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3363,82 +3505,85 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>17778100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>14652600</v>
+        <v>18089300</v>
       </c>
       <c r="G61" s="3">
-        <v>18688700</v>
+        <v>14909100</v>
       </c>
       <c r="H61" s="3">
-        <v>20479500</v>
+        <v>19015900</v>
       </c>
       <c r="I61" s="3">
-        <v>23232100</v>
+        <v>20838100</v>
       </c>
       <c r="J61" s="3">
+        <v>23638900</v>
+      </c>
+      <c r="K61" s="3">
         <v>16651200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22867300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16867400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19583800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17617400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18565000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18916700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19631900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19255900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19146800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
-        <v>331400</v>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>293600</v>
+        <v>337200</v>
       </c>
       <c r="G62" s="3">
-        <v>221800</v>
+        <v>298700</v>
       </c>
       <c r="H62" s="3">
-        <v>229100</v>
+        <v>225700</v>
       </c>
       <c r="I62" s="3">
-        <v>200200</v>
+        <v>233100</v>
       </c>
       <c r="J62" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K62" s="3">
         <v>195700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3448,26 +3593,29 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>131200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>169800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3">
-        <v>288776400</v>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>287902400</v>
+        <v>293832500</v>
       </c>
       <c r="G66" s="3">
-        <v>270420100</v>
+        <v>292943200</v>
       </c>
       <c r="H66" s="3">
-        <v>273480300</v>
+        <v>275154900</v>
       </c>
       <c r="I66" s="3">
-        <v>272330500</v>
+        <v>278268600</v>
       </c>
       <c r="J66" s="3">
+        <v>277098700</v>
+      </c>
+      <c r="K66" s="3">
         <v>267978100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>261856600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>244034800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>244552700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>235710900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>237236500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>235211700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>228403000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>227719500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>224956800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
-        <v>24262600</v>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>24444200</v>
+        <v>24687400</v>
       </c>
       <c r="G72" s="3">
-        <v>23953600</v>
+        <v>24872200</v>
       </c>
       <c r="H72" s="3">
-        <v>23472300</v>
+        <v>24373000</v>
       </c>
       <c r="I72" s="3">
-        <v>23694000</v>
+        <v>23883300</v>
       </c>
       <c r="J72" s="3">
+        <v>24108800</v>
+      </c>
+      <c r="K72" s="3">
         <v>23704300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22869800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20963200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20949800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21760300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21445100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20844100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20533000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20193100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19424600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29643200</v>
+        <v>30852400</v>
       </c>
       <c r="E76" s="3">
-        <v>29713600</v>
+        <v>30162200</v>
       </c>
       <c r="F76" s="3">
-        <v>29860400</v>
+        <v>30233900</v>
       </c>
       <c r="G76" s="3">
-        <v>29384100</v>
+        <v>30383300</v>
       </c>
       <c r="H76" s="3">
-        <v>29270300</v>
+        <v>29898600</v>
       </c>
       <c r="I76" s="3">
-        <v>28936700</v>
+        <v>29782800</v>
       </c>
       <c r="J76" s="3">
+        <v>29443400</v>
+      </c>
+      <c r="K76" s="3">
         <v>28904100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28110500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25943100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26571800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27338100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27171300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25915600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25550700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24877500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24076000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="3">
-        <v>521200</v>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>634600</v>
+        <v>530300</v>
       </c>
       <c r="G81" s="3">
-        <v>673100</v>
+        <v>645700</v>
       </c>
       <c r="H81" s="3">
-        <v>828800</v>
+        <v>684900</v>
       </c>
       <c r="I81" s="3">
-        <v>865900</v>
+        <v>843300</v>
       </c>
       <c r="J81" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K81" s="3">
         <v>779900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>601400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>731700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>759900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>705900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>555200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>651100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>623100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>595800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>473700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
-        <v>84500</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>80800</v>
+        <v>86000</v>
       </c>
       <c r="G83" s="3">
-        <v>80600</v>
+        <v>82200</v>
       </c>
       <c r="H83" s="3">
-        <v>75600</v>
+        <v>82000</v>
       </c>
       <c r="I83" s="3">
-        <v>71900</v>
+        <v>76900</v>
       </c>
       <c r="J83" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K83" s="3">
         <v>67500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3">
-        <v>-991900</v>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>7168000</v>
+        <v>-1009300</v>
       </c>
       <c r="G89" s="3">
-        <v>5155000</v>
+        <v>7293500</v>
       </c>
       <c r="H89" s="3">
-        <v>-490800</v>
+        <v>5245300</v>
       </c>
       <c r="I89" s="3">
-        <v>-8088800</v>
+        <v>-499400</v>
       </c>
       <c r="J89" s="3">
+        <v>-8230400</v>
+      </c>
+      <c r="K89" s="3">
         <v>9601800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>466400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-137600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1240700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3652800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>889200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1353000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-87500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-106000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-122300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-102300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-103800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-96400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-118400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-87500</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-63400</v>
       </c>
       <c r="Q91" s="3">
         <v>-63400</v>
       </c>
       <c r="R91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="S91" s="3">
         <v>-59700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-92900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>-63000</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-100100</v>
+        <v>-64100</v>
       </c>
       <c r="G94" s="3">
-        <v>-104600</v>
+        <v>-101800</v>
       </c>
       <c r="H94" s="3">
-        <v>-89000</v>
+        <v>-106400</v>
       </c>
       <c r="I94" s="3">
-        <v>-89000</v>
+        <v>-90500</v>
       </c>
       <c r="J94" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-88200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-86100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5080,32 +5313,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-928200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-944400</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-680600</v>
-      </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-692500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-589200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5113,22 +5346,25 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-390800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-99500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
-        <v>2097300</v>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>-4388000</v>
+        <v>2134000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2073700</v>
+        <v>-4464800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2990600</v>
+        <v>-2110000</v>
       </c>
       <c r="I100" s="3">
-        <v>5578600</v>
+        <v>-3042900</v>
       </c>
       <c r="J100" s="3">
+        <v>5676300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6147900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4950400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1536000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-393400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>410600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>243300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>148900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4704400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3">
-        <v>-51900</v>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>602700</v>
+        <v>-52800</v>
       </c>
       <c r="G101" s="3">
-        <v>-104900</v>
+        <v>613300</v>
       </c>
       <c r="H101" s="3">
-        <v>209100</v>
+        <v>-106800</v>
       </c>
       <c r="I101" s="3">
-        <v>132000</v>
+        <v>212700</v>
       </c>
       <c r="J101" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K101" s="3">
         <v>14100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>33200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>255400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-281500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-160300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-65600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-264000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>266600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
-        <v>990400</v>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>3282700</v>
+        <v>1007800</v>
       </c>
       <c r="G102" s="3">
-        <v>2871800</v>
+        <v>3340100</v>
       </c>
       <c r="H102" s="3">
-        <v>-3361200</v>
+        <v>2922100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2467200</v>
+        <v>-3420100</v>
       </c>
       <c r="J102" s="3">
+        <v>-2510400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3379800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>540800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1567800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>506000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2459800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1095000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1179800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>2970800</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
-        <v>1869200</v>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>2178500</v>
+        <v>1816300</v>
       </c>
       <c r="H8" s="3">
-        <v>2292200</v>
+        <v>2116800</v>
       </c>
       <c r="I8" s="3">
-        <v>2431900</v>
+        <v>2227400</v>
       </c>
       <c r="J8" s="3">
+        <v>2363100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2409300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2298200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2269900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2060300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1924800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1771200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1759700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1710700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1641300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1581600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1543500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>974100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
-        <v>1069600</v>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1191800</v>
+        <v>1039400</v>
       </c>
       <c r="H17" s="3">
-        <v>1168600</v>
+        <v>1158100</v>
       </c>
       <c r="I17" s="3">
-        <v>1268800</v>
+        <v>1135500</v>
       </c>
       <c r="J17" s="3">
+        <v>1232900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1190600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1163800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>999100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>768000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>786000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>835400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>774200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>757300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>705000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>1996600</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
-        <v>799600</v>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>986700</v>
+        <v>777000</v>
       </c>
       <c r="H18" s="3">
-        <v>1123600</v>
+        <v>958700</v>
       </c>
       <c r="I18" s="3">
-        <v>1163200</v>
+        <v>1091800</v>
       </c>
       <c r="J18" s="3">
+        <v>1130300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1208400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1107600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1106000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1061200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1024500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1003200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>973700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>875200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>867100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>824400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>838500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-205200</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3">
-        <v>-161400</v>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-192400</v>
+        <v>-156900</v>
       </c>
       <c r="H20" s="3">
-        <v>-225800</v>
+        <v>-186900</v>
       </c>
       <c r="I20" s="3">
-        <v>-164400</v>
+        <v>-219400</v>
       </c>
       <c r="J20" s="3">
+        <v>-159800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-150100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-175700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-281000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-182000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-119900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-142200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-172400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-84100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-105400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-75900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-164800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>1964400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>724100</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>876500</v>
+        <v>703700</v>
       </c>
       <c r="H21" s="3">
-        <v>979800</v>
+        <v>851700</v>
       </c>
       <c r="I21" s="3">
-        <v>1075700</v>
+        <v>952100</v>
       </c>
       <c r="J21" s="3">
+        <v>1045200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1131500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>999300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>879500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>927800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>951800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>907300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>853100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>837600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>805200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>797100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>716700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>632100</v>
+        <v>1791400</v>
       </c>
       <c r="E23" s="3">
-        <v>603500</v>
+        <v>614200</v>
       </c>
       <c r="F23" s="3">
-        <v>638200</v>
+        <v>586400</v>
       </c>
       <c r="G23" s="3">
-        <v>794300</v>
+        <v>620100</v>
       </c>
       <c r="H23" s="3">
-        <v>897800</v>
+        <v>771800</v>
       </c>
       <c r="I23" s="3">
-        <v>998700</v>
+        <v>872400</v>
       </c>
       <c r="J23" s="3">
+        <v>970500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1058300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>931900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>825000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>879100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>904500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>861100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>801300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>791200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>761700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>748400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>673700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>112400</v>
+        <v>313000</v>
       </c>
       <c r="E24" s="3">
-        <v>99600</v>
+        <v>98200</v>
       </c>
       <c r="F24" s="3">
-        <v>106400</v>
+        <v>96800</v>
       </c>
       <c r="G24" s="3">
-        <v>147100</v>
+        <v>103400</v>
       </c>
       <c r="H24" s="3">
-        <v>134700</v>
+        <v>142900</v>
       </c>
       <c r="I24" s="3">
-        <v>152400</v>
+        <v>130900</v>
       </c>
       <c r="J24" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K24" s="3">
         <v>174200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>148300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>138500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>145300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>153000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>166700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>137900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>135700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>149700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>129600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>1478400</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="3">
-        <v>531800</v>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>647200</v>
+        <v>516800</v>
       </c>
       <c r="H26" s="3">
-        <v>763100</v>
+        <v>628900</v>
       </c>
       <c r="I26" s="3">
-        <v>846300</v>
+        <v>741500</v>
       </c>
       <c r="J26" s="3">
+        <v>822400</v>
+      </c>
+      <c r="K26" s="3">
         <v>884100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>783600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>686600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>733800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>762000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>708000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>634600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>653300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>626000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>598700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>544100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>1474000</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="3">
-        <v>530300</v>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>645700</v>
+        <v>515300</v>
       </c>
       <c r="H27" s="3">
-        <v>684900</v>
+        <v>627400</v>
       </c>
       <c r="I27" s="3">
-        <v>843300</v>
+        <v>665500</v>
       </c>
       <c r="J27" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K27" s="3">
         <v>881000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>779900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>601400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>731700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>759900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>705900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>555200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>651100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>623100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>595800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>473700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>205200</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="3">
-        <v>161400</v>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>192400</v>
+        <v>156900</v>
       </c>
       <c r="H32" s="3">
-        <v>225800</v>
+        <v>186900</v>
       </c>
       <c r="I32" s="3">
-        <v>164400</v>
+        <v>219400</v>
       </c>
       <c r="J32" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K32" s="3">
         <v>150100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>175700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>281000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>182000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>119900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>142200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>172400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>84100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>105400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>75900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>164800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>1474000</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="3">
-        <v>530300</v>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>645700</v>
+        <v>515300</v>
       </c>
       <c r="H33" s="3">
-        <v>684900</v>
+        <v>627400</v>
       </c>
       <c r="I33" s="3">
-        <v>843300</v>
+        <v>665500</v>
       </c>
       <c r="J33" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K33" s="3">
         <v>881000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>779900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>601400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>731700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>759900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>705900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>555200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>651100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>623100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>595800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>473700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>1474000</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="3">
-        <v>530300</v>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>645700</v>
+        <v>515300</v>
       </c>
       <c r="H35" s="3">
-        <v>684900</v>
+        <v>627400</v>
       </c>
       <c r="I35" s="3">
-        <v>843300</v>
+        <v>665500</v>
       </c>
       <c r="J35" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K35" s="3">
         <v>881000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>779900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>601400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>731700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>759900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>705900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>555200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>651100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>623100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>595800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>473700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>55309200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3">
-        <v>57321500</v>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>63439100</v>
+        <v>55699900</v>
       </c>
       <c r="H41" s="3">
-        <v>59368300</v>
+        <v>61644400</v>
       </c>
       <c r="I41" s="3">
-        <v>55904900</v>
+        <v>57688700</v>
       </c>
       <c r="J41" s="3">
+        <v>54323300</v>
+      </c>
+      <c r="K41" s="3">
         <v>60228700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58529500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56823000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55972200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>61652000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55633300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58107600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57352600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55610200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50503300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47133000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>23676700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>17882700</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>14691900</v>
+        <v>17376800</v>
       </c>
       <c r="H42" s="3">
-        <v>13760800</v>
+        <v>14276300</v>
       </c>
       <c r="I42" s="3">
-        <v>13505300</v>
+        <v>13371500</v>
       </c>
       <c r="J42" s="3">
+        <v>13123300</v>
+      </c>
+      <c r="K42" s="3">
         <v>12759300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12732500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11567200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10260400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9848300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9675900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9614300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10128200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9724900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10082500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10815200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>901600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
-        <v>902900</v>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>918000</v>
+        <v>877400</v>
       </c>
       <c r="H47" s="3">
         <v>892000</v>
       </c>
       <c r="I47" s="3">
-        <v>892400</v>
+        <v>866700</v>
       </c>
       <c r="J47" s="3">
+        <v>867100</v>
+      </c>
+      <c r="K47" s="3">
         <v>888600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>877000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>873900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>891800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>883400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>874800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>880400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>867900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>850900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>844300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>812200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>2896000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>2850600</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>2833200</v>
+        <v>2769900</v>
       </c>
       <c r="H48" s="3">
-        <v>2787500</v>
+        <v>2753100</v>
       </c>
       <c r="I48" s="3">
-        <v>2745000</v>
+        <v>2708700</v>
       </c>
       <c r="J48" s="3">
+        <v>2667300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2698200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2614000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2449200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2257100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2229600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2231000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2255600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2236400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2221600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2201000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2189700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>3037500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>3128200</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>3118400</v>
+        <v>3039700</v>
       </c>
       <c r="H49" s="3">
-        <v>3128800</v>
+        <v>3030100</v>
       </c>
       <c r="I49" s="3">
-        <v>3128900</v>
+        <v>3040300</v>
       </c>
       <c r="J49" s="3">
+        <v>3040400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3125100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3069100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3092000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2918200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2919600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2988100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3054100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3055600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3057800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3058500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3040200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,38 +3153,41 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>326900</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>321300</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>270800</v>
+        <v>312200</v>
       </c>
       <c r="H52" s="3">
-        <v>226000</v>
+        <v>263100</v>
       </c>
       <c r="I52" s="3">
-        <v>218000</v>
+        <v>219600</v>
       </c>
       <c r="J52" s="3">
+        <v>211800</v>
+      </c>
+      <c r="K52" s="3">
         <v>196100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3078,26 +3197,29 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>142500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>183900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>325725900</v>
+        <v>327280000</v>
       </c>
       <c r="E54" s="3">
-        <v>318382600</v>
+        <v>316511000</v>
       </c>
       <c r="F54" s="3">
-        <v>324066400</v>
+        <v>309375500</v>
       </c>
       <c r="G54" s="3">
-        <v>323326400</v>
+        <v>314898500</v>
       </c>
       <c r="H54" s="3">
-        <v>305053500</v>
+        <v>314179400</v>
       </c>
       <c r="I54" s="3">
-        <v>308051500</v>
+        <v>296423400</v>
       </c>
       <c r="J54" s="3">
+        <v>299336600</v>
+      </c>
+      <c r="K54" s="3">
         <v>306542100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>296882200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>289967100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>269977900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271124400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>263049000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>264407800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>261127300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>253953700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>252596900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>249032800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,8 +3449,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,38 +3511,41 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>335700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
-        <v>490300</v>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>430700</v>
+        <v>476400</v>
       </c>
       <c r="H59" s="3">
-        <v>368800</v>
+        <v>418500</v>
       </c>
       <c r="I59" s="3">
-        <v>351500</v>
+        <v>358400</v>
       </c>
       <c r="J59" s="3">
+        <v>341600</v>
+      </c>
+      <c r="K59" s="3">
         <v>408800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>472200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3419,26 +3555,29 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>405900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>305700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,97 +3635,103 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>22610200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>18089300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>14909100</v>
+        <v>17577600</v>
       </c>
       <c r="H61" s="3">
-        <v>19015900</v>
+        <v>14487300</v>
       </c>
       <c r="I61" s="3">
-        <v>20838100</v>
+        <v>18478000</v>
       </c>
       <c r="J61" s="3">
+        <v>20248600</v>
+      </c>
+      <c r="K61" s="3">
         <v>23638900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16651200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22867300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16867400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19583800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17617400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18565000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18916700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19631900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19255900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19146800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>310100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>337200</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>298700</v>
+        <v>327600</v>
       </c>
       <c r="H62" s="3">
-        <v>225700</v>
+        <v>290300</v>
       </c>
       <c r="I62" s="3">
-        <v>233100</v>
+        <v>219300</v>
       </c>
       <c r="J62" s="3">
+        <v>226500</v>
+      </c>
+      <c r="K62" s="3">
         <v>203700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>195700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3596,26 +3741,29 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>131200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>169800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>296472100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="3">
-        <v>293832500</v>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>292943200</v>
+        <v>285519900</v>
       </c>
       <c r="H66" s="3">
-        <v>275154900</v>
+        <v>284655700</v>
       </c>
       <c r="I66" s="3">
-        <v>278268600</v>
+        <v>267370600</v>
       </c>
       <c r="J66" s="3">
+        <v>270396300</v>
+      </c>
+      <c r="K66" s="3">
         <v>277098700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267978100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>261856600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>244034800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>244552700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>235710900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>237236500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>235211700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>228403000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>227719500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>224956800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>25295100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
-        <v>24687400</v>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>24872200</v>
+        <v>23989000</v>
       </c>
       <c r="H72" s="3">
-        <v>24373000</v>
+        <v>24168500</v>
       </c>
       <c r="I72" s="3">
-        <v>23883300</v>
+        <v>23683500</v>
       </c>
       <c r="J72" s="3">
+        <v>23207600</v>
+      </c>
+      <c r="K72" s="3">
         <v>24108800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23704300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22869800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20963200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20949800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21760300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21445100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20844100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20533000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20193100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19424600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30852400</v>
+        <v>30807900</v>
       </c>
       <c r="E76" s="3">
-        <v>30162200</v>
+        <v>29979600</v>
       </c>
       <c r="F76" s="3">
-        <v>30233900</v>
+        <v>29308900</v>
       </c>
       <c r="G76" s="3">
-        <v>30383300</v>
+        <v>29378600</v>
       </c>
       <c r="H76" s="3">
-        <v>29898600</v>
+        <v>29523700</v>
       </c>
       <c r="I76" s="3">
-        <v>29782800</v>
+        <v>29052800</v>
       </c>
       <c r="J76" s="3">
+        <v>28940200</v>
+      </c>
+      <c r="K76" s="3">
         <v>29443400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28904100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28110500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25943100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26571800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27338100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27171300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25915600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25550700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24877500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24076000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>1474000</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="3">
-        <v>530300</v>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>645700</v>
+        <v>515300</v>
       </c>
       <c r="H81" s="3">
-        <v>684900</v>
+        <v>627400</v>
       </c>
       <c r="I81" s="3">
-        <v>843300</v>
+        <v>665500</v>
       </c>
       <c r="J81" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K81" s="3">
         <v>881000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>779900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>601400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>731700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>759900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>705900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>555200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>651100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>623100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>595800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>473700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>173000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>86000</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>82200</v>
+        <v>83600</v>
       </c>
       <c r="H83" s="3">
-        <v>82000</v>
+        <v>79900</v>
       </c>
       <c r="I83" s="3">
-        <v>76900</v>
+        <v>79600</v>
       </c>
       <c r="J83" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K83" s="3">
         <v>73200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>63800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1009300</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>7293500</v>
+        <v>-980700</v>
       </c>
       <c r="H89" s="3">
-        <v>5245300</v>
+        <v>7087200</v>
       </c>
       <c r="I89" s="3">
-        <v>-499400</v>
+        <v>5096900</v>
       </c>
       <c r="J89" s="3">
+        <v>-485200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8230400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9601800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>466400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-137600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1240700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3652800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>889200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1353000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-188400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-89000</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-107900</v>
+        <v>-86500</v>
       </c>
       <c r="H91" s="3">
-        <v>-124400</v>
+        <v>-104800</v>
       </c>
       <c r="I91" s="3">
-        <v>-104100</v>
+        <v>-120900</v>
       </c>
       <c r="J91" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-105600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-96400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-118400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-106500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-63400</v>
       </c>
       <c r="R91" s="3">
         <v>-63400</v>
       </c>
       <c r="S91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-59700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-92900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-137100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-64100</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-101800</v>
+        <v>-62300</v>
       </c>
       <c r="H94" s="3">
-        <v>-106400</v>
+        <v>-99000</v>
       </c>
       <c r="I94" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-90500</v>
       </c>
-      <c r="J94" s="3">
-        <v>-90500</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-86100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-107600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,44 +5536,45 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-439800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-944400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-917700</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-692500</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-672900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-589200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5349,22 +5582,25 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-390800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-99500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>434700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>2134000</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-4464800</v>
+        <v>2073600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2110000</v>
+        <v>-4338500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3042900</v>
+        <v>-2050300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2956800</v>
+      </c>
+      <c r="K100" s="3">
         <v>5676300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6147900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4950400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1536000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-393400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>410600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>243300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>148900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4704400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>40300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>-52800</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>613300</v>
+        <v>-51300</v>
       </c>
       <c r="H101" s="3">
-        <v>-106800</v>
+        <v>595900</v>
       </c>
       <c r="I101" s="3">
-        <v>212700</v>
+        <v>-103800</v>
       </c>
       <c r="J101" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K101" s="3">
         <v>134300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>33200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>255400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-281500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-160300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-65600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-264000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>266600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>401700</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>1007800</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>3340100</v>
+        <v>979300</v>
       </c>
       <c r="H102" s="3">
-        <v>2922100</v>
+        <v>3245600</v>
       </c>
       <c r="I102" s="3">
-        <v>-3420100</v>
+        <v>2839400</v>
       </c>
       <c r="J102" s="3">
+        <v>-3323300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2510400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3379800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>540800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1567800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>506000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2459800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1095000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1179800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2970800</v>
+        <v>2961000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
@@ -755,16 +755,16 @@
         <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>1816300</v>
+        <v>1810400</v>
       </c>
       <c r="H8" s="3">
-        <v>2116800</v>
+        <v>2109900</v>
       </c>
       <c r="I8" s="3">
-        <v>2227400</v>
+        <v>2220100</v>
       </c>
       <c r="J8" s="3">
-        <v>2363100</v>
+        <v>2355400</v>
       </c>
       <c r="K8" s="3">
         <v>2409300</v>
@@ -1225,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>974100</v>
+        <v>970900</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
@@ -1234,16 +1234,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1039400</v>
+        <v>1035900</v>
       </c>
       <c r="H17" s="3">
-        <v>1158100</v>
+        <v>1154300</v>
       </c>
       <c r="I17" s="3">
-        <v>1135500</v>
+        <v>1131800</v>
       </c>
       <c r="J17" s="3">
-        <v>1232900</v>
+        <v>1228800</v>
       </c>
       <c r="K17" s="3">
         <v>1200900</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1996600</v>
+        <v>1990100</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
@@ -1296,16 +1296,16 @@
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>777000</v>
+        <v>774400</v>
       </c>
       <c r="H18" s="3">
-        <v>958700</v>
+        <v>955600</v>
       </c>
       <c r="I18" s="3">
-        <v>1091800</v>
+        <v>1088200</v>
       </c>
       <c r="J18" s="3">
-        <v>1130300</v>
+        <v>1126500</v>
       </c>
       <c r="K18" s="3">
         <v>1208400</v>
@@ -1373,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-205200</v>
+        <v>-204600</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
@@ -1382,16 +1382,16 @@
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-156900</v>
+        <v>-156300</v>
       </c>
       <c r="H20" s="3">
-        <v>-186900</v>
+        <v>-186300</v>
       </c>
       <c r="I20" s="3">
-        <v>-219400</v>
+        <v>-218700</v>
       </c>
       <c r="J20" s="3">
-        <v>-159800</v>
+        <v>-159300</v>
       </c>
       <c r="K20" s="3">
         <v>-150100</v>
@@ -1435,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1964400</v>
+        <v>1957900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1444,16 +1444,16 @@
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>703700</v>
+        <v>781000</v>
       </c>
       <c r="H21" s="3">
-        <v>851700</v>
+        <v>557700</v>
       </c>
       <c r="I21" s="3">
-        <v>952100</v>
+        <v>948900</v>
       </c>
       <c r="J21" s="3">
-        <v>1045200</v>
+        <v>1041800</v>
       </c>
       <c r="K21" s="3">
         <v>1131500</v>
@@ -1559,25 +1559,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1791400</v>
+        <v>1785500</v>
       </c>
       <c r="E23" s="3">
-        <v>614200</v>
+        <v>612200</v>
       </c>
       <c r="F23" s="3">
-        <v>586400</v>
+        <v>584500</v>
       </c>
       <c r="G23" s="3">
-        <v>620100</v>
+        <v>618100</v>
       </c>
       <c r="H23" s="3">
-        <v>771800</v>
+        <v>769300</v>
       </c>
       <c r="I23" s="3">
-        <v>872400</v>
+        <v>869500</v>
       </c>
       <c r="J23" s="3">
-        <v>970500</v>
+        <v>967300</v>
       </c>
       <c r="K23" s="3">
         <v>1058300</v>
@@ -1621,25 +1621,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>313000</v>
+        <v>312000</v>
       </c>
       <c r="E24" s="3">
-        <v>98200</v>
+        <v>97900</v>
       </c>
       <c r="F24" s="3">
-        <v>96800</v>
+        <v>96400</v>
       </c>
       <c r="G24" s="3">
-        <v>103400</v>
+        <v>103000</v>
       </c>
       <c r="H24" s="3">
-        <v>142900</v>
+        <v>142500</v>
       </c>
       <c r="I24" s="3">
-        <v>130900</v>
+        <v>130400</v>
       </c>
       <c r="J24" s="3">
-        <v>148100</v>
+        <v>147600</v>
       </c>
       <c r="K24" s="3">
         <v>174200</v>
@@ -1745,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1478400</v>
+        <v>1473600</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
@@ -1754,16 +1754,16 @@
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>516800</v>
+        <v>515100</v>
       </c>
       <c r="H26" s="3">
-        <v>628900</v>
+        <v>626800</v>
       </c>
       <c r="I26" s="3">
-        <v>741500</v>
+        <v>739100</v>
       </c>
       <c r="J26" s="3">
-        <v>822400</v>
+        <v>819700</v>
       </c>
       <c r="K26" s="3">
         <v>884100</v>
@@ -1807,7 +1807,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1474000</v>
+        <v>1469200</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
@@ -1816,16 +1816,16 @@
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>515300</v>
+        <v>513600</v>
       </c>
       <c r="H27" s="3">
-        <v>627400</v>
+        <v>625400</v>
       </c>
       <c r="I27" s="3">
-        <v>665500</v>
+        <v>663300</v>
       </c>
       <c r="J27" s="3">
-        <v>819500</v>
+        <v>816800</v>
       </c>
       <c r="K27" s="3">
         <v>881000</v>
@@ -2117,7 +2117,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>205200</v>
+        <v>204600</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
@@ -2126,16 +2126,16 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>156900</v>
+        <v>156300</v>
       </c>
       <c r="H32" s="3">
-        <v>186900</v>
+        <v>186300</v>
       </c>
       <c r="I32" s="3">
-        <v>219400</v>
+        <v>218700</v>
       </c>
       <c r="J32" s="3">
-        <v>159800</v>
+        <v>159300</v>
       </c>
       <c r="K32" s="3">
         <v>150100</v>
@@ -2179,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1474000</v>
+        <v>1469200</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
@@ -2188,16 +2188,16 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>515300</v>
+        <v>513600</v>
       </c>
       <c r="H33" s="3">
-        <v>627400</v>
+        <v>625400</v>
       </c>
       <c r="I33" s="3">
-        <v>665500</v>
+        <v>663300</v>
       </c>
       <c r="J33" s="3">
-        <v>819500</v>
+        <v>816800</v>
       </c>
       <c r="K33" s="3">
         <v>881000</v>
@@ -2303,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1474000</v>
+        <v>1469200</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
@@ -2312,16 +2312,16 @@
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>515300</v>
+        <v>513600</v>
       </c>
       <c r="H35" s="3">
-        <v>627400</v>
+        <v>625400</v>
       </c>
       <c r="I35" s="3">
-        <v>665500</v>
+        <v>663300</v>
       </c>
       <c r="J35" s="3">
-        <v>819500</v>
+        <v>816800</v>
       </c>
       <c r="K35" s="3">
         <v>881000</v>
@@ -2480,7 +2480,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55309200</v>
+        <v>55127400</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
@@ -2489,16 +2489,16 @@
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>55699900</v>
+        <v>55516700</v>
       </c>
       <c r="H41" s="3">
-        <v>61644400</v>
+        <v>61441700</v>
       </c>
       <c r="I41" s="3">
-        <v>57688700</v>
+        <v>57499000</v>
       </c>
       <c r="J41" s="3">
-        <v>54323300</v>
+        <v>54144700</v>
       </c>
       <c r="K41" s="3">
         <v>60228700</v>
@@ -2542,7 +2542,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23676700</v>
+        <v>23598900</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -2551,16 +2551,16 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>17376800</v>
+        <v>17319600</v>
       </c>
       <c r="H42" s="3">
-        <v>14276300</v>
+        <v>14229300</v>
       </c>
       <c r="I42" s="3">
-        <v>13371500</v>
+        <v>13327600</v>
       </c>
       <c r="J42" s="3">
-        <v>13123300</v>
+        <v>13080100</v>
       </c>
       <c r="K42" s="3">
         <v>12759300</v>
@@ -2852,7 +2852,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>901600</v>
+        <v>898600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
@@ -2861,16 +2861,16 @@
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>877400</v>
+        <v>874500</v>
       </c>
       <c r="H47" s="3">
-        <v>892000</v>
+        <v>889100</v>
       </c>
       <c r="I47" s="3">
-        <v>866700</v>
+        <v>863900</v>
       </c>
       <c r="J47" s="3">
-        <v>867100</v>
+        <v>864300</v>
       </c>
       <c r="K47" s="3">
         <v>888600</v>
@@ -2914,7 +2914,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2896000</v>
+        <v>2886500</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2923,16 +2923,16 @@
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>2769900</v>
+        <v>2760800</v>
       </c>
       <c r="H48" s="3">
-        <v>2753100</v>
+        <v>2744000</v>
       </c>
       <c r="I48" s="3">
-        <v>2708700</v>
+        <v>2699800</v>
       </c>
       <c r="J48" s="3">
-        <v>2667300</v>
+        <v>2658500</v>
       </c>
       <c r="K48" s="3">
         <v>2698200</v>
@@ -2976,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3037500</v>
+        <v>3027500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -2985,16 +2985,16 @@
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>3039700</v>
+        <v>3029700</v>
       </c>
       <c r="H49" s="3">
-        <v>3030100</v>
+        <v>3020200</v>
       </c>
       <c r="I49" s="3">
-        <v>3040300</v>
+        <v>3030300</v>
       </c>
       <c r="J49" s="3">
-        <v>3040400</v>
+        <v>3030400</v>
       </c>
       <c r="K49" s="3">
         <v>3125100</v>
@@ -3162,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>326900</v>
+        <v>325800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3171,16 +3171,16 @@
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>312200</v>
+        <v>311200</v>
       </c>
       <c r="H52" s="3">
-        <v>263100</v>
+        <v>262300</v>
       </c>
       <c r="I52" s="3">
-        <v>219600</v>
+        <v>218800</v>
       </c>
       <c r="J52" s="3">
-        <v>211800</v>
+        <v>211100</v>
       </c>
       <c r="K52" s="3">
         <v>196100</v>
@@ -3286,25 +3286,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>327280000</v>
+        <v>326203900</v>
       </c>
       <c r="E54" s="3">
-        <v>316511000</v>
+        <v>315470400</v>
       </c>
       <c r="F54" s="3">
-        <v>309375500</v>
+        <v>308358300</v>
       </c>
       <c r="G54" s="3">
-        <v>314898500</v>
+        <v>313863100</v>
       </c>
       <c r="H54" s="3">
-        <v>314179400</v>
+        <v>313146400</v>
       </c>
       <c r="I54" s="3">
-        <v>296423400</v>
+        <v>295448800</v>
       </c>
       <c r="J54" s="3">
-        <v>299336600</v>
+        <v>298352400</v>
       </c>
       <c r="K54" s="3">
         <v>306542100</v>
@@ -3520,7 +3520,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>335700</v>
+        <v>334600</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
@@ -3529,16 +3529,16 @@
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>476400</v>
+        <v>474900</v>
       </c>
       <c r="H59" s="3">
-        <v>418500</v>
+        <v>417200</v>
       </c>
       <c r="I59" s="3">
-        <v>358400</v>
+        <v>357200</v>
       </c>
       <c r="J59" s="3">
-        <v>341600</v>
+        <v>340400</v>
       </c>
       <c r="K59" s="3">
         <v>408800</v>
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22610200</v>
+        <v>22535900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3653,16 +3653,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>17577600</v>
+        <v>17519800</v>
       </c>
       <c r="H61" s="3">
-        <v>14487300</v>
+        <v>14439700</v>
       </c>
       <c r="I61" s="3">
-        <v>18478000</v>
+        <v>18417200</v>
       </c>
       <c r="J61" s="3">
-        <v>20248600</v>
+        <v>20182000</v>
       </c>
       <c r="K61" s="3">
         <v>23638900</v>
@@ -3706,7 +3706,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>310100</v>
+        <v>309000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -3715,16 +3715,16 @@
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>327600</v>
+        <v>326600</v>
       </c>
       <c r="H62" s="3">
-        <v>290300</v>
+        <v>289300</v>
       </c>
       <c r="I62" s="3">
-        <v>219300</v>
+        <v>218600</v>
       </c>
       <c r="J62" s="3">
-        <v>226500</v>
+        <v>225700</v>
       </c>
       <c r="K62" s="3">
         <v>203700</v>
@@ -3954,7 +3954,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>296472100</v>
+        <v>295497300</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
@@ -3963,16 +3963,16 @@
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>285519900</v>
+        <v>284581100</v>
       </c>
       <c r="H66" s="3">
-        <v>284655700</v>
+        <v>283719800</v>
       </c>
       <c r="I66" s="3">
-        <v>267370600</v>
+        <v>266491500</v>
       </c>
       <c r="J66" s="3">
-        <v>270396300</v>
+        <v>269507300</v>
       </c>
       <c r="K66" s="3">
         <v>277098700</v>
@@ -4288,7 +4288,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25295100</v>
+        <v>25212000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -4297,16 +4297,16 @@
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>23989000</v>
+        <v>23910100</v>
       </c>
       <c r="H72" s="3">
-        <v>24168500</v>
+        <v>24089100</v>
       </c>
       <c r="I72" s="3">
-        <v>23683500</v>
+        <v>23605600</v>
       </c>
       <c r="J72" s="3">
-        <v>23207600</v>
+        <v>23131300</v>
       </c>
       <c r="K72" s="3">
         <v>24108800</v>
@@ -4536,25 +4536,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30807900</v>
+        <v>30706600</v>
       </c>
       <c r="E76" s="3">
-        <v>29979600</v>
+        <v>29881000</v>
       </c>
       <c r="F76" s="3">
-        <v>29308900</v>
+        <v>29212600</v>
       </c>
       <c r="G76" s="3">
-        <v>29378600</v>
+        <v>29282000</v>
       </c>
       <c r="H76" s="3">
-        <v>29523700</v>
+        <v>29426600</v>
       </c>
       <c r="I76" s="3">
-        <v>29052800</v>
+        <v>28957200</v>
       </c>
       <c r="J76" s="3">
-        <v>28940200</v>
+        <v>28845100</v>
       </c>
       <c r="K76" s="3">
         <v>29443400</v>
@@ -4727,7 +4727,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1474000</v>
+        <v>1469200</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
@@ -4736,16 +4736,16 @@
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>515300</v>
+        <v>513600</v>
       </c>
       <c r="H81" s="3">
-        <v>627400</v>
+        <v>625400</v>
       </c>
       <c r="I81" s="3">
-        <v>665500</v>
+        <v>663300</v>
       </c>
       <c r="J81" s="3">
-        <v>819500</v>
+        <v>816800</v>
       </c>
       <c r="K81" s="3">
         <v>881000</v>
@@ -4813,7 +4813,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>173000</v>
+        <v>172400</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -4822,16 +4822,16 @@
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>83600</v>
+        <v>162900</v>
       </c>
       <c r="H83" s="3">
-        <v>79900</v>
+        <v>-211600</v>
       </c>
       <c r="I83" s="3">
-        <v>79600</v>
+        <v>79400</v>
       </c>
       <c r="J83" s="3">
-        <v>74800</v>
+        <v>74500</v>
       </c>
       <c r="K83" s="3">
         <v>73200</v>
@@ -5185,7 +5185,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63800</v>
+        <v>63600</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -5194,16 +5194,16 @@
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>-980700</v>
+        <v>6086400</v>
       </c>
       <c r="H89" s="3">
-        <v>7087200</v>
+        <v>976300</v>
       </c>
       <c r="I89" s="3">
-        <v>5096900</v>
+        <v>5080100</v>
       </c>
       <c r="J89" s="3">
-        <v>-485200</v>
+        <v>-483600</v>
       </c>
       <c r="K89" s="3">
         <v>-8230400</v>
@@ -5271,7 +5271,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188400</v>
+        <v>-187800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -5280,16 +5280,16 @@
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-86500</v>
+        <v>-190700</v>
       </c>
       <c r="H91" s="3">
-        <v>-104800</v>
+        <v>314100</v>
       </c>
       <c r="I91" s="3">
-        <v>-120900</v>
+        <v>-120500</v>
       </c>
       <c r="J91" s="3">
-        <v>-101200</v>
+        <v>-100800</v>
       </c>
       <c r="K91" s="3">
         <v>-105600</v>
@@ -5457,7 +5457,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-137100</v>
+        <v>-136600</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -5466,16 +5466,16 @@
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-62300</v>
+        <v>-160700</v>
       </c>
       <c r="H94" s="3">
-        <v>-99000</v>
+        <v>266700</v>
       </c>
       <c r="I94" s="3">
-        <v>-103400</v>
+        <v>-103100</v>
       </c>
       <c r="J94" s="3">
-        <v>-88000</v>
+        <v>-87700</v>
       </c>
       <c r="K94" s="3">
         <v>-90500</v>
@@ -5543,7 +5543,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-439800</v>
+        <v>-438300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5552,16 +5552,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-917700</v>
+        <v>-914700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>1523100</v>
       </c>
       <c r="I96" s="3">
         <v>200</v>
       </c>
       <c r="J96" s="3">
-        <v>-672900</v>
+        <v>-670700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>434700</v>
+        <v>433200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -5800,16 +5800,16 @@
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>2073600</v>
+        <v>-2257500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4338500</v>
+        <v>1227500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2050300</v>
+        <v>-2043600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2956800</v>
+        <v>-2947100</v>
       </c>
       <c r="K100" s="3">
         <v>5676300</v>
@@ -5853,7 +5853,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40300</v>
+        <v>40200</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
@@ -5862,16 +5862,16 @@
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>-51300</v>
+        <v>542800</v>
       </c>
       <c r="H101" s="3">
-        <v>595900</v>
+        <v>347400</v>
       </c>
       <c r="I101" s="3">
-        <v>-103800</v>
+        <v>-103400</v>
       </c>
       <c r="J101" s="3">
-        <v>206700</v>
+        <v>206000</v>
       </c>
       <c r="K101" s="3">
         <v>134300</v>
@@ -5915,7 +5915,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>401700</v>
+        <v>400400</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -5924,16 +5924,16 @@
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>979300</v>
+        <v>4211000</v>
       </c>
       <c r="H102" s="3">
-        <v>3245600</v>
+        <v>2817900</v>
       </c>
       <c r="I102" s="3">
-        <v>2839400</v>
+        <v>2830100</v>
       </c>
       <c r="J102" s="3">
-        <v>-3323300</v>
+        <v>-3312400</v>
       </c>
       <c r="K102" s="3">
         <v>-2510400</v>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2961000</v>
+        <v>2971900</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
@@ -755,16 +755,16 @@
         <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>1810400</v>
+        <v>1817000</v>
       </c>
       <c r="H8" s="3">
-        <v>2109900</v>
+        <v>2117600</v>
       </c>
       <c r="I8" s="3">
-        <v>2220100</v>
+        <v>2228200</v>
       </c>
       <c r="J8" s="3">
-        <v>2355400</v>
+        <v>2364000</v>
       </c>
       <c r="K8" s="3">
         <v>2409300</v>
@@ -1225,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>970900</v>
+        <v>974500</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
@@ -1234,16 +1234,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1035900</v>
+        <v>1039700</v>
       </c>
       <c r="H17" s="3">
-        <v>1154300</v>
+        <v>1158500</v>
       </c>
       <c r="I17" s="3">
-        <v>1131800</v>
+        <v>1136000</v>
       </c>
       <c r="J17" s="3">
-        <v>1228800</v>
+        <v>1233300</v>
       </c>
       <c r="K17" s="3">
         <v>1200900</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1990100</v>
+        <v>1997400</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
@@ -1296,16 +1296,16 @@
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>774400</v>
+        <v>777200</v>
       </c>
       <c r="H18" s="3">
-        <v>955600</v>
+        <v>959100</v>
       </c>
       <c r="I18" s="3">
-        <v>1088200</v>
+        <v>1092200</v>
       </c>
       <c r="J18" s="3">
-        <v>1126500</v>
+        <v>1130700</v>
       </c>
       <c r="K18" s="3">
         <v>1208400</v>
@@ -1373,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-204600</v>
+        <v>-205300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
@@ -1382,16 +1382,16 @@
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-156300</v>
+        <v>-156900</v>
       </c>
       <c r="H20" s="3">
-        <v>-186300</v>
+        <v>-187000</v>
       </c>
       <c r="I20" s="3">
-        <v>-218700</v>
+        <v>-219500</v>
       </c>
       <c r="J20" s="3">
-        <v>-159300</v>
+        <v>-159800</v>
       </c>
       <c r="K20" s="3">
         <v>-150100</v>
@@ -1435,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1957900</v>
+        <v>1965100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1444,16 +1444,16 @@
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>781000</v>
+        <v>783800</v>
       </c>
       <c r="H21" s="3">
-        <v>557700</v>
+        <v>559700</v>
       </c>
       <c r="I21" s="3">
-        <v>948900</v>
+        <v>952400</v>
       </c>
       <c r="J21" s="3">
-        <v>1041800</v>
+        <v>1045600</v>
       </c>
       <c r="K21" s="3">
         <v>1131500</v>
@@ -1559,25 +1559,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1785500</v>
+        <v>1792100</v>
       </c>
       <c r="E23" s="3">
-        <v>612200</v>
+        <v>614500</v>
       </c>
       <c r="F23" s="3">
-        <v>584500</v>
+        <v>586600</v>
       </c>
       <c r="G23" s="3">
-        <v>618100</v>
+        <v>620300</v>
       </c>
       <c r="H23" s="3">
-        <v>769300</v>
+        <v>772100</v>
       </c>
       <c r="I23" s="3">
-        <v>869500</v>
+        <v>872700</v>
       </c>
       <c r="J23" s="3">
-        <v>967300</v>
+        <v>970800</v>
       </c>
       <c r="K23" s="3">
         <v>1058300</v>
@@ -1621,25 +1621,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>312000</v>
+        <v>313100</v>
       </c>
       <c r="E24" s="3">
-        <v>97900</v>
+        <v>98300</v>
       </c>
       <c r="F24" s="3">
-        <v>96400</v>
+        <v>96800</v>
       </c>
       <c r="G24" s="3">
-        <v>103000</v>
+        <v>103400</v>
       </c>
       <c r="H24" s="3">
-        <v>142500</v>
+        <v>143000</v>
       </c>
       <c r="I24" s="3">
-        <v>130400</v>
+        <v>130900</v>
       </c>
       <c r="J24" s="3">
-        <v>147600</v>
+        <v>148100</v>
       </c>
       <c r="K24" s="3">
         <v>174200</v>
@@ -1745,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1473600</v>
+        <v>1479000</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
@@ -1754,16 +1754,16 @@
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>515100</v>
+        <v>516900</v>
       </c>
       <c r="H26" s="3">
-        <v>626800</v>
+        <v>629100</v>
       </c>
       <c r="I26" s="3">
-        <v>739100</v>
+        <v>741800</v>
       </c>
       <c r="J26" s="3">
-        <v>819700</v>
+        <v>822700</v>
       </c>
       <c r="K26" s="3">
         <v>884100</v>
@@ -1807,7 +1807,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1469200</v>
+        <v>1474600</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
@@ -1816,16 +1816,16 @@
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>513600</v>
+        <v>515500</v>
       </c>
       <c r="H27" s="3">
-        <v>625400</v>
+        <v>627700</v>
       </c>
       <c r="I27" s="3">
-        <v>663300</v>
+        <v>665800</v>
       </c>
       <c r="J27" s="3">
-        <v>816800</v>
+        <v>819800</v>
       </c>
       <c r="K27" s="3">
         <v>881000</v>
@@ -2117,7 +2117,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>204600</v>
+        <v>205300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
@@ -2126,16 +2126,16 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>156300</v>
+        <v>156900</v>
       </c>
       <c r="H32" s="3">
-        <v>186300</v>
+        <v>187000</v>
       </c>
       <c r="I32" s="3">
-        <v>218700</v>
+        <v>219500</v>
       </c>
       <c r="J32" s="3">
-        <v>159300</v>
+        <v>159800</v>
       </c>
       <c r="K32" s="3">
         <v>150100</v>
@@ -2179,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1469200</v>
+        <v>1474600</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
@@ -2188,16 +2188,16 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>513600</v>
+        <v>515500</v>
       </c>
       <c r="H33" s="3">
-        <v>625400</v>
+        <v>627700</v>
       </c>
       <c r="I33" s="3">
-        <v>663300</v>
+        <v>665800</v>
       </c>
       <c r="J33" s="3">
-        <v>816800</v>
+        <v>819800</v>
       </c>
       <c r="K33" s="3">
         <v>881000</v>
@@ -2303,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1469200</v>
+        <v>1474600</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
@@ -2312,16 +2312,16 @@
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>513600</v>
+        <v>515500</v>
       </c>
       <c r="H35" s="3">
-        <v>625400</v>
+        <v>627700</v>
       </c>
       <c r="I35" s="3">
-        <v>663300</v>
+        <v>665800</v>
       </c>
       <c r="J35" s="3">
-        <v>816800</v>
+        <v>819800</v>
       </c>
       <c r="K35" s="3">
         <v>881000</v>
@@ -2480,7 +2480,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55127400</v>
+        <v>55329600</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
@@ -2489,16 +2489,16 @@
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>55516700</v>
+        <v>55720400</v>
       </c>
       <c r="H41" s="3">
-        <v>61441700</v>
+        <v>61667100</v>
       </c>
       <c r="I41" s="3">
-        <v>57499000</v>
+        <v>57710000</v>
       </c>
       <c r="J41" s="3">
-        <v>54144700</v>
+        <v>54343400</v>
       </c>
       <c r="K41" s="3">
         <v>60228700</v>
@@ -2542,7 +2542,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23598900</v>
+        <v>23685400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -2551,16 +2551,16 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>17319600</v>
+        <v>17383200</v>
       </c>
       <c r="H42" s="3">
-        <v>14229300</v>
+        <v>14281500</v>
       </c>
       <c r="I42" s="3">
-        <v>13327600</v>
+        <v>13376500</v>
       </c>
       <c r="J42" s="3">
-        <v>13080100</v>
+        <v>13128100</v>
       </c>
       <c r="K42" s="3">
         <v>12759300</v>
@@ -2852,7 +2852,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>898600</v>
+        <v>901900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
@@ -2861,16 +2861,16 @@
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>874500</v>
+        <v>877700</v>
       </c>
       <c r="H47" s="3">
-        <v>889100</v>
+        <v>892400</v>
       </c>
       <c r="I47" s="3">
-        <v>863900</v>
+        <v>867100</v>
       </c>
       <c r="J47" s="3">
-        <v>864300</v>
+        <v>867400</v>
       </c>
       <c r="K47" s="3">
         <v>888600</v>
@@ -2914,7 +2914,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2886500</v>
+        <v>2897100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2923,16 +2923,16 @@
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>2760800</v>
+        <v>2771000</v>
       </c>
       <c r="H48" s="3">
-        <v>2744000</v>
+        <v>2754100</v>
       </c>
       <c r="I48" s="3">
-        <v>2699800</v>
+        <v>2709700</v>
       </c>
       <c r="J48" s="3">
-        <v>2658500</v>
+        <v>2668300</v>
       </c>
       <c r="K48" s="3">
         <v>2698200</v>
@@ -2976,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3027500</v>
+        <v>3038600</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -2985,16 +2985,16 @@
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>3029700</v>
+        <v>3040800</v>
       </c>
       <c r="H49" s="3">
-        <v>3020200</v>
+        <v>3031300</v>
       </c>
       <c r="I49" s="3">
-        <v>3030300</v>
+        <v>3041400</v>
       </c>
       <c r="J49" s="3">
-        <v>3030400</v>
+        <v>3041500</v>
       </c>
       <c r="K49" s="3">
         <v>3125100</v>
@@ -3162,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325800</v>
+        <v>327000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3171,16 +3171,16 @@
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>311200</v>
+        <v>312400</v>
       </c>
       <c r="H52" s="3">
-        <v>262300</v>
+        <v>263200</v>
       </c>
       <c r="I52" s="3">
-        <v>218800</v>
+        <v>219600</v>
       </c>
       <c r="J52" s="3">
-        <v>211100</v>
+        <v>211900</v>
       </c>
       <c r="K52" s="3">
         <v>196100</v>
@@ -3286,25 +3286,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>326203900</v>
+        <v>327400500</v>
       </c>
       <c r="E54" s="3">
-        <v>315470400</v>
+        <v>316627600</v>
       </c>
       <c r="F54" s="3">
-        <v>308358300</v>
+        <v>309489400</v>
       </c>
       <c r="G54" s="3">
-        <v>313863100</v>
+        <v>315014500</v>
       </c>
       <c r="H54" s="3">
-        <v>313146400</v>
+        <v>314295100</v>
       </c>
       <c r="I54" s="3">
-        <v>295448800</v>
+        <v>296532600</v>
       </c>
       <c r="J54" s="3">
-        <v>298352400</v>
+        <v>299446800</v>
       </c>
       <c r="K54" s="3">
         <v>306542100</v>
@@ -3520,7 +3520,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>334600</v>
+        <v>335800</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
@@ -3529,16 +3529,16 @@
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>474900</v>
+        <v>476600</v>
       </c>
       <c r="H59" s="3">
-        <v>417200</v>
+        <v>418700</v>
       </c>
       <c r="I59" s="3">
-        <v>357200</v>
+        <v>358500</v>
       </c>
       <c r="J59" s="3">
-        <v>340400</v>
+        <v>341700</v>
       </c>
       <c r="K59" s="3">
         <v>408800</v>
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22535900</v>
+        <v>22618600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3653,16 +3653,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>17519800</v>
+        <v>17584100</v>
       </c>
       <c r="H61" s="3">
-        <v>14439700</v>
+        <v>14492700</v>
       </c>
       <c r="I61" s="3">
-        <v>18417200</v>
+        <v>18484800</v>
       </c>
       <c r="J61" s="3">
-        <v>20182000</v>
+        <v>20256000</v>
       </c>
       <c r="K61" s="3">
         <v>23638900</v>
@@ -3706,7 +3706,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>309000</v>
+        <v>310200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -3715,16 +3715,16 @@
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>326600</v>
+        <v>327800</v>
       </c>
       <c r="H62" s="3">
-        <v>289300</v>
+        <v>290400</v>
       </c>
       <c r="I62" s="3">
-        <v>218600</v>
+        <v>219400</v>
       </c>
       <c r="J62" s="3">
-        <v>225700</v>
+        <v>226600</v>
       </c>
       <c r="K62" s="3">
         <v>203700</v>
@@ -3954,7 +3954,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>295497300</v>
+        <v>296581300</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
@@ -3963,16 +3963,16 @@
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>284581100</v>
+        <v>285625100</v>
       </c>
       <c r="H66" s="3">
-        <v>283719800</v>
+        <v>284760600</v>
       </c>
       <c r="I66" s="3">
-        <v>266491500</v>
+        <v>267469100</v>
       </c>
       <c r="J66" s="3">
-        <v>269507300</v>
+        <v>270495900</v>
       </c>
       <c r="K66" s="3">
         <v>277098700</v>
@@ -4288,7 +4288,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25212000</v>
+        <v>25304500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -4297,16 +4297,16 @@
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>23910100</v>
+        <v>23997800</v>
       </c>
       <c r="H72" s="3">
-        <v>24089100</v>
+        <v>24177500</v>
       </c>
       <c r="I72" s="3">
-        <v>23605600</v>
+        <v>23692200</v>
       </c>
       <c r="J72" s="3">
-        <v>23131300</v>
+        <v>23216200</v>
       </c>
       <c r="K72" s="3">
         <v>24108800</v>
@@ -4536,25 +4536,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30706600</v>
+        <v>30819200</v>
       </c>
       <c r="E76" s="3">
-        <v>29881000</v>
+        <v>29990700</v>
       </c>
       <c r="F76" s="3">
-        <v>29212600</v>
+        <v>29319700</v>
       </c>
       <c r="G76" s="3">
-        <v>29282000</v>
+        <v>29389400</v>
       </c>
       <c r="H76" s="3">
-        <v>29426600</v>
+        <v>29534600</v>
       </c>
       <c r="I76" s="3">
-        <v>28957200</v>
+        <v>29063500</v>
       </c>
       <c r="J76" s="3">
-        <v>28845100</v>
+        <v>28950900</v>
       </c>
       <c r="K76" s="3">
         <v>29443400</v>
@@ -4727,7 +4727,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1469200</v>
+        <v>1474600</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
@@ -4736,16 +4736,16 @@
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>513600</v>
+        <v>515500</v>
       </c>
       <c r="H81" s="3">
-        <v>625400</v>
+        <v>627700</v>
       </c>
       <c r="I81" s="3">
-        <v>663300</v>
+        <v>665800</v>
       </c>
       <c r="J81" s="3">
-        <v>816800</v>
+        <v>819800</v>
       </c>
       <c r="K81" s="3">
         <v>881000</v>
@@ -4813,7 +4813,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>172400</v>
+        <v>173000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -4822,16 +4822,16 @@
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>162900</v>
+        <v>163500</v>
       </c>
       <c r="H83" s="3">
-        <v>-211600</v>
+        <v>-212400</v>
       </c>
       <c r="I83" s="3">
-        <v>79400</v>
+        <v>79700</v>
       </c>
       <c r="J83" s="3">
-        <v>74500</v>
+        <v>74800</v>
       </c>
       <c r="K83" s="3">
         <v>73200</v>
@@ -5185,7 +5185,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63600</v>
+        <v>63800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -5194,16 +5194,16 @@
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>6086400</v>
+        <v>6108700</v>
       </c>
       <c r="H89" s="3">
-        <v>976300</v>
+        <v>979900</v>
       </c>
       <c r="I89" s="3">
-        <v>5080100</v>
+        <v>5098800</v>
       </c>
       <c r="J89" s="3">
-        <v>-483600</v>
+        <v>-485400</v>
       </c>
       <c r="K89" s="3">
         <v>-8230400</v>
@@ -5271,7 +5271,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187800</v>
+        <v>-188400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -5280,16 +5280,16 @@
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-190700</v>
+        <v>-191400</v>
       </c>
       <c r="H91" s="3">
-        <v>314100</v>
+        <v>315300</v>
       </c>
       <c r="I91" s="3">
-        <v>-120500</v>
+        <v>-121000</v>
       </c>
       <c r="J91" s="3">
-        <v>-100800</v>
+        <v>-101200</v>
       </c>
       <c r="K91" s="3">
         <v>-105600</v>
@@ -5457,7 +5457,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136600</v>
+        <v>-137100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -5466,16 +5466,16 @@
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-160700</v>
+        <v>-161300</v>
       </c>
       <c r="H94" s="3">
-        <v>266700</v>
+        <v>267700</v>
       </c>
       <c r="I94" s="3">
-        <v>-103100</v>
+        <v>-103500</v>
       </c>
       <c r="J94" s="3">
-        <v>-87700</v>
+        <v>-88000</v>
       </c>
       <c r="K94" s="3">
         <v>-90500</v>
@@ -5543,7 +5543,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-438300</v>
+        <v>-440000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5552,16 +5552,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-914700</v>
+        <v>-918000</v>
       </c>
       <c r="H96" s="3">
-        <v>1523100</v>
+        <v>1528700</v>
       </c>
       <c r="I96" s="3">
         <v>200</v>
       </c>
       <c r="J96" s="3">
-        <v>-670700</v>
+        <v>-673100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>433200</v>
+        <v>434800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -5800,16 +5800,16 @@
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-2257500</v>
+        <v>-2265700</v>
       </c>
       <c r="H100" s="3">
-        <v>1227500</v>
+        <v>1232000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2043600</v>
+        <v>-2051100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2947100</v>
+        <v>-2957900</v>
       </c>
       <c r="K100" s="3">
         <v>5676300</v>
@@ -5853,7 +5853,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
@@ -5862,16 +5862,16 @@
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>542800</v>
+        <v>544800</v>
       </c>
       <c r="H101" s="3">
-        <v>347400</v>
+        <v>348700</v>
       </c>
       <c r="I101" s="3">
-        <v>-103400</v>
+        <v>-103800</v>
       </c>
       <c r="J101" s="3">
-        <v>206000</v>
+        <v>206800</v>
       </c>
       <c r="K101" s="3">
         <v>134300</v>
@@ -5915,7 +5915,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400400</v>
+        <v>401800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -5924,16 +5924,16 @@
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>4211000</v>
+        <v>4226500</v>
       </c>
       <c r="H102" s="3">
-        <v>2817900</v>
+        <v>2828300</v>
       </c>
       <c r="I102" s="3">
-        <v>2830100</v>
+        <v>2840500</v>
       </c>
       <c r="J102" s="3">
-        <v>-3312400</v>
+        <v>-3324600</v>
       </c>
       <c r="K102" s="3">
         <v>-2510400</v>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2971900</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>2972000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2901800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>1817000</v>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H8" s="3">
-        <v>2117600</v>
+        <v>1774200</v>
       </c>
       <c r="I8" s="3">
-        <v>2228200</v>
+        <v>2067700</v>
       </c>
       <c r="J8" s="3">
+        <v>2175700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2364000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2409300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2298200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2269900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2060300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1924800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1771200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1759700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1710700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1641300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1581600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1543500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>974500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
+        <v>819100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>951500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="3">
-        <v>1039700</v>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>1158500</v>
+        <v>1015200</v>
       </c>
       <c r="I17" s="3">
-        <v>1136000</v>
+        <v>1131200</v>
       </c>
       <c r="J17" s="3">
+        <v>1109200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1233300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1190600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1163800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>999100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>768000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>786000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>835400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>774200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>757300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>705000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1997400</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
+        <v>2152900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1950300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>777200</v>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>959100</v>
+        <v>758900</v>
       </c>
       <c r="I18" s="3">
-        <v>1092200</v>
+        <v>936500</v>
       </c>
       <c r="J18" s="3">
+        <v>1066500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1130700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1208400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1107600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1106000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1061200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1024500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1003200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>973700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>875200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>867100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>824400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>838500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1399,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-205300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
+        <v>-368000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200500</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
-        <v>-156900</v>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>-187000</v>
+        <v>-153200</v>
       </c>
       <c r="I20" s="3">
-        <v>-219500</v>
+        <v>-182600</v>
       </c>
       <c r="J20" s="3">
+        <v>-214300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-159800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-150100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-175700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-281000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-182000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-119900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-142200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-172400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-84100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-105400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-75900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-164800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1965100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+        <v>1966100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1918800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>783800</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>559700</v>
+        <v>765400</v>
       </c>
       <c r="I21" s="3">
-        <v>952400</v>
+        <v>546500</v>
       </c>
       <c r="J21" s="3">
+        <v>930000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1045600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1131500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>999300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>879500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>927800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>951800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>907300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>853100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>837600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>805200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>797100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>716700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1792100</v>
+        <v>1784900</v>
       </c>
       <c r="E23" s="3">
-        <v>614500</v>
+        <v>1749800</v>
       </c>
       <c r="F23" s="3">
-        <v>586600</v>
+        <v>600000</v>
       </c>
       <c r="G23" s="3">
-        <v>620300</v>
+        <v>572800</v>
       </c>
       <c r="H23" s="3">
-        <v>772100</v>
+        <v>605700</v>
       </c>
       <c r="I23" s="3">
-        <v>872700</v>
+        <v>753900</v>
       </c>
       <c r="J23" s="3">
+        <v>852200</v>
+      </c>
+      <c r="K23" s="3">
         <v>970800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1058300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>931900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>825000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>879100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>904500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>861100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>801300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>791200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>761700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>748400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>673700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>313100</v>
+        <v>302900</v>
       </c>
       <c r="E24" s="3">
-        <v>98300</v>
+        <v>305700</v>
       </c>
       <c r="F24" s="3">
-        <v>96800</v>
+        <v>95900</v>
       </c>
       <c r="G24" s="3">
-        <v>103400</v>
+        <v>94500</v>
       </c>
       <c r="H24" s="3">
-        <v>143000</v>
+        <v>101000</v>
       </c>
       <c r="I24" s="3">
-        <v>130900</v>
+        <v>139600</v>
       </c>
       <c r="J24" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K24" s="3">
         <v>148100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>174200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>138500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>145300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>153000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>166700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>137900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>135700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>149700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>129600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1479000</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
+        <v>1482100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1444100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="3">
-        <v>516900</v>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>629100</v>
+        <v>504800</v>
       </c>
       <c r="I26" s="3">
-        <v>741800</v>
+        <v>614300</v>
       </c>
       <c r="J26" s="3">
+        <v>724300</v>
+      </c>
+      <c r="K26" s="3">
         <v>822700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>884100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>783600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>686600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>733800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>762000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>708000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>634600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>653300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>626000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>598700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>544100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1474600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
+        <v>1426200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1439800</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="3">
-        <v>515500</v>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>627700</v>
+        <v>503300</v>
       </c>
       <c r="I27" s="3">
-        <v>665800</v>
+        <v>612900</v>
       </c>
       <c r="J27" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K27" s="3">
         <v>819800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>881000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>779900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>601400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>731700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>759900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>705900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>555200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>651100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>623100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>595800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>473700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>205300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
+        <v>368000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200500</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3">
-        <v>156900</v>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>187000</v>
+        <v>153200</v>
       </c>
       <c r="I32" s="3">
-        <v>219500</v>
+        <v>182600</v>
       </c>
       <c r="J32" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K32" s="3">
         <v>159800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>150100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>175700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>281000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>182000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>119900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>142200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>172400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>84100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>105400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>75900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>164800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1474600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
+        <v>1426200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1439800</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="3">
-        <v>515500</v>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>627700</v>
+        <v>503300</v>
       </c>
       <c r="I33" s="3">
-        <v>665800</v>
+        <v>612900</v>
       </c>
       <c r="J33" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K33" s="3">
         <v>819800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>881000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>779900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>601400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>731700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>759900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>705900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>555200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>651100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>623100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>595800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>473700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1474600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
+        <v>1426200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1439800</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="3">
-        <v>515500</v>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>627700</v>
+        <v>503300</v>
       </c>
       <c r="I35" s="3">
-        <v>665800</v>
+        <v>612900</v>
       </c>
       <c r="J35" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K35" s="3">
         <v>819800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>881000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>779900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>601400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>731700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>759900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>705900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>555200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>651100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>623100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>595800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>473700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2559,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55329600</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+        <v>54037100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>54025700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
-        <v>55720400</v>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>61667100</v>
+        <v>54407300</v>
       </c>
       <c r="I41" s="3">
-        <v>57710000</v>
+        <v>60213800</v>
       </c>
       <c r="J41" s="3">
+        <v>56350000</v>
+      </c>
+      <c r="K41" s="3">
         <v>54343400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60228700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58529500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56823000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55972200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61652000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55633300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58107600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57352600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>55610200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>50503300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47133000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23685400</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>24955900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>23127300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>17383200</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>14281500</v>
+        <v>16973500</v>
       </c>
       <c r="I42" s="3">
-        <v>13376500</v>
+        <v>13944900</v>
       </c>
       <c r="J42" s="3">
+        <v>13061200</v>
+      </c>
+      <c r="K42" s="3">
         <v>13128100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12759300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12732500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11567200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10260400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9848300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9675900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9614300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10128200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9724900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10082500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10815200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +2947,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>901900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+        <v>891400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>880600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
-        <v>877700</v>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>892400</v>
+        <v>857000</v>
       </c>
       <c r="I47" s="3">
-        <v>867100</v>
+        <v>871300</v>
       </c>
       <c r="J47" s="3">
+        <v>846600</v>
+      </c>
+      <c r="K47" s="3">
         <v>867400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>888600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>877000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>873900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>891800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>883400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>874800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>880400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>867900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>850900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>844300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>812200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2897100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+        <v>2871800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2828800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
-        <v>2771000</v>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>2754100</v>
+        <v>2705700</v>
       </c>
       <c r="I48" s="3">
-        <v>2709700</v>
+        <v>2689200</v>
       </c>
       <c r="J48" s="3">
+        <v>2645800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2668300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2698200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2614000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2449200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2257100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2229600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2231000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2255600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2236400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2221600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2201000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2189700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3038600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+        <v>2967700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2967000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
-        <v>3040800</v>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>3031300</v>
+        <v>2969100</v>
       </c>
       <c r="I49" s="3">
-        <v>3041400</v>
+        <v>2959800</v>
       </c>
       <c r="J49" s="3">
+        <v>2969700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3041500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3125100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3069100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3092000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2918200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2919600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2988100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3054100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3055600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3057800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3058500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3040200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,41 +3272,44 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>327000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>365100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>319300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>312400</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>263200</v>
+        <v>305000</v>
       </c>
       <c r="I52" s="3">
-        <v>219600</v>
+        <v>257000</v>
       </c>
       <c r="J52" s="3">
+        <v>214500</v>
+      </c>
+      <c r="K52" s="3">
         <v>211900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>196100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3200,26 +3319,29 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>142500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>183900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>327400500</v>
+        <v>328861500</v>
       </c>
       <c r="E54" s="3">
-        <v>316627600</v>
+        <v>319684900</v>
       </c>
       <c r="F54" s="3">
-        <v>309489400</v>
+        <v>309165900</v>
       </c>
       <c r="G54" s="3">
-        <v>315014500</v>
+        <v>302195900</v>
       </c>
       <c r="H54" s="3">
-        <v>314295100</v>
+        <v>307590700</v>
       </c>
       <c r="I54" s="3">
-        <v>296532600</v>
+        <v>306888400</v>
       </c>
       <c r="J54" s="3">
+        <v>289544400</v>
+      </c>
+      <c r="K54" s="3">
         <v>299446800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>306542100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>296882200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>289967100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>269977900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271124400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263049000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>264407800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>261127300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>253953700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252596900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>249032800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3582,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,41 +3647,44 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>335800</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+        <v>403100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>327900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
-        <v>476600</v>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>418700</v>
+        <v>465400</v>
       </c>
       <c r="I59" s="3">
-        <v>358500</v>
+        <v>408800</v>
       </c>
       <c r="J59" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K59" s="3">
         <v>341700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>408800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>472200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3558,26 +3694,29 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>405900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>305700</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,103 +3777,109 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22618600</v>
+        <v>24383100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>22085500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>17584100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>14492700</v>
+        <v>17169700</v>
       </c>
       <c r="I61" s="3">
-        <v>18484800</v>
+        <v>14151100</v>
       </c>
       <c r="J61" s="3">
+        <v>18049200</v>
+      </c>
+      <c r="K61" s="3">
         <v>20256000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23638900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16651200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22867300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16867400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19583800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17617400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18565000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18916700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19631900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19255900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19146800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>310200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+        <v>308600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>302900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>327800</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>290400</v>
+        <v>320000</v>
       </c>
       <c r="I62" s="3">
-        <v>219400</v>
+        <v>283500</v>
       </c>
       <c r="J62" s="3">
+        <v>214200</v>
+      </c>
+      <c r="K62" s="3">
         <v>226600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>203700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>195700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3744,26 +3889,29 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>131200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>169800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>296581300</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
+        <v>298337500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>289592000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="3">
-        <v>285625100</v>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>284760600</v>
+        <v>278893900</v>
       </c>
       <c r="I66" s="3">
-        <v>267469100</v>
+        <v>278049800</v>
       </c>
       <c r="J66" s="3">
+        <v>261165900</v>
+      </c>
+      <c r="K66" s="3">
         <v>270495900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>277098700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>267978100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>261856600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>244034800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>244552700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>235710900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>237236500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>235211700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>228403000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>227719500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>224956800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25304500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+        <v>25232200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>24708100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
-        <v>23997800</v>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>24177500</v>
+        <v>23432300</v>
       </c>
       <c r="I72" s="3">
-        <v>23692200</v>
+        <v>23607700</v>
       </c>
       <c r="J72" s="3">
+        <v>23133900</v>
+      </c>
+      <c r="K72" s="3">
         <v>23216200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24108800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23704300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22869800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20963200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20949800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21760300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21445100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20844100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20533000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20193100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19424600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30819200</v>
+        <v>30523900</v>
       </c>
       <c r="E76" s="3">
-        <v>29990700</v>
+        <v>30092900</v>
       </c>
       <c r="F76" s="3">
-        <v>29319700</v>
+        <v>29283900</v>
       </c>
       <c r="G76" s="3">
-        <v>29389400</v>
+        <v>28628800</v>
       </c>
       <c r="H76" s="3">
-        <v>29534600</v>
+        <v>28696800</v>
       </c>
       <c r="I76" s="3">
-        <v>29063500</v>
+        <v>28838600</v>
       </c>
       <c r="J76" s="3">
+        <v>28378600</v>
+      </c>
+      <c r="K76" s="3">
         <v>28950900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29443400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28904100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28110500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25943100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26571800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27338100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27171300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25915600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25550700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24877500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24076000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1474600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
+        <v>1426200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1439800</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="3">
-        <v>515500</v>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>627700</v>
+        <v>503300</v>
       </c>
       <c r="I81" s="3">
-        <v>665800</v>
+        <v>612900</v>
       </c>
       <c r="J81" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K81" s="3">
         <v>819800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>881000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>779900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>601400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>731700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>759900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>705900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>555200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>651100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>623100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>595800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>473700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>173000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+        <v>181100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>169000</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
-        <v>163500</v>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>-212400</v>
+        <v>159700</v>
       </c>
       <c r="I83" s="3">
-        <v>79700</v>
+        <v>-207400</v>
       </c>
       <c r="J83" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K83" s="3">
         <v>74800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63800</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+        <v>-2073400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>62300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
-        <v>6108700</v>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>979900</v>
+        <v>5964700</v>
       </c>
       <c r="I89" s="3">
-        <v>5098800</v>
+        <v>956800</v>
       </c>
       <c r="J89" s="3">
+        <v>4978600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-485400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8230400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9601800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>466400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-137600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1240700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3652800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>889200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1353000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188400</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+        <v>-209800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-184000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>-191400</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>315300</v>
+        <v>-186900</v>
       </c>
       <c r="I91" s="3">
-        <v>-121000</v>
+        <v>307800</v>
       </c>
       <c r="J91" s="3">
+        <v>-118100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-101200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-105600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-96400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-118400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-106500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-63400</v>
       </c>
       <c r="S91" s="3">
         <v>-63400</v>
       </c>
       <c r="T91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="U91" s="3">
         <v>-59700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-92900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-137100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+        <v>-181100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-133900</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
-        <v>-161300</v>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>267700</v>
+        <v>-157500</v>
       </c>
       <c r="I94" s="3">
-        <v>-103500</v>
+        <v>261400</v>
       </c>
       <c r="J94" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-88000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-90500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-88200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-86100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-73700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-107600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,47 +5769,48 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-440000</v>
+        <v>-721000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-429600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-918000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>1528700</v>
+        <v>-896400</v>
       </c>
       <c r="I96" s="3">
-        <v>200</v>
+        <v>1492600</v>
       </c>
       <c r="J96" s="3">
+        <v>100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-673100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-589200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5585,22 +5818,25 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-390800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-99500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>434800</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+        <v>1739100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>424600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
-        <v>-2265700</v>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>1232000</v>
+        <v>-2212300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2051100</v>
+        <v>1203000</v>
       </c>
       <c r="J100" s="3">
+        <v>-2002700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2957900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5676300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6147900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4950400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1536000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-393400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>410600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>243300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>148900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4704400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+        <v>-157500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>39400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3">
-        <v>544800</v>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>348700</v>
+        <v>532000</v>
       </c>
       <c r="I101" s="3">
-        <v>-103800</v>
+        <v>340500</v>
       </c>
       <c r="J101" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="K101" s="3">
         <v>206800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>134300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>33200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>255400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-160300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-65600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-264000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>266600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>401800</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+        <v>-673000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>392400</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
-        <v>4226500</v>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>2828300</v>
+        <v>4126900</v>
       </c>
       <c r="I102" s="3">
-        <v>2840500</v>
+        <v>2761600</v>
       </c>
       <c r="J102" s="3">
+        <v>2773500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3324600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2510400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3379800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>540800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1567800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>506000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2459800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1095000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1179800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2972000</v>
+        <v>3368600</v>
       </c>
       <c r="E8" s="3">
-        <v>2901800</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
+        <v>2989100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2918600</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
-        <v>1774200</v>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I8" s="3">
-        <v>2067700</v>
+        <v>1784400</v>
       </c>
       <c r="J8" s="3">
+        <v>2079600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2175700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2364000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2409300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2298200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2269900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2060300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1924800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1771200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1759700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1710700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1641300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1581600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1543500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>819100</v>
+        <v>1039800</v>
       </c>
       <c r="E17" s="3">
-        <v>951500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
+        <v>823800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>957000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
-        <v>1015200</v>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1131200</v>
+        <v>1021100</v>
       </c>
       <c r="J17" s="3">
+        <v>1137800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1109200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1233300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1190600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1163800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>999100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>768000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>786000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>835400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>774200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>757300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>705000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2152900</v>
+        <v>2328800</v>
       </c>
       <c r="E18" s="3">
-        <v>1950300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
+        <v>2165300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1961600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>758900</v>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>936500</v>
+        <v>763300</v>
       </c>
       <c r="J18" s="3">
+        <v>941900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1066500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1130700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1208400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1107600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1106000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1061200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1024500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1003200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>973700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>875200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>867100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>824400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>838500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1432,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-368000</v>
+        <v>-487500</v>
       </c>
       <c r="E20" s="3">
-        <v>-200500</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
+        <v>-370100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-201600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3">
-        <v>-153200</v>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-182600</v>
+        <v>-154100</v>
       </c>
       <c r="J20" s="3">
+        <v>-183600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-214300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-159800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-150100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-175700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-281000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-182000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-119900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-142200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-172400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-84100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-105400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-75900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-164800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1966100</v>
+        <v>2020600</v>
       </c>
       <c r="E21" s="3">
-        <v>1918800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+        <v>1977400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1929900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>765400</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>546500</v>
+        <v>769800</v>
       </c>
       <c r="J21" s="3">
+        <v>549700</v>
+      </c>
+      <c r="K21" s="3">
         <v>930000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1045600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1131500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>999300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>879500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>927800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>951800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>907300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>853100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>837600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>805200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>797100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>716700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1784900</v>
+        <v>1841300</v>
       </c>
       <c r="E23" s="3">
-        <v>1749800</v>
+        <v>1795200</v>
       </c>
       <c r="F23" s="3">
-        <v>600000</v>
+        <v>1759900</v>
       </c>
       <c r="G23" s="3">
-        <v>572800</v>
+        <v>603400</v>
       </c>
       <c r="H23" s="3">
-        <v>605700</v>
+        <v>576100</v>
       </c>
       <c r="I23" s="3">
-        <v>753900</v>
+        <v>609200</v>
       </c>
       <c r="J23" s="3">
+        <v>758300</v>
+      </c>
+      <c r="K23" s="3">
         <v>852200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>970800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1058300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>931900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>825000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>879100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>904500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>861100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>801300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>791200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>761700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>748400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>673700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>302900</v>
+        <v>386700</v>
       </c>
       <c r="E24" s="3">
-        <v>305700</v>
+        <v>304600</v>
       </c>
       <c r="F24" s="3">
-        <v>95900</v>
+        <v>307500</v>
       </c>
       <c r="G24" s="3">
-        <v>94500</v>
+        <v>96500</v>
       </c>
       <c r="H24" s="3">
-        <v>101000</v>
+        <v>95100</v>
       </c>
       <c r="I24" s="3">
-        <v>139600</v>
+        <v>101500</v>
       </c>
       <c r="J24" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K24" s="3">
         <v>127800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>148100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>174200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>148300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>138500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>145300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>142500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>166700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>137900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>135700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>149700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>129600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1482100</v>
+        <v>1454600</v>
       </c>
       <c r="E26" s="3">
-        <v>1444100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
+        <v>1490600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1452400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="3">
-        <v>504800</v>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>614300</v>
+        <v>507700</v>
       </c>
       <c r="J26" s="3">
+        <v>617800</v>
+      </c>
+      <c r="K26" s="3">
         <v>724300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>822700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>884100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>783600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>686600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>733800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>762000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>708000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>634600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>653300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>626000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>598700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>544100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1426200</v>
+        <v>1453200</v>
       </c>
       <c r="E27" s="3">
-        <v>1439800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
+        <v>1434400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1448100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="3">
-        <v>503300</v>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>612900</v>
+        <v>506200</v>
       </c>
       <c r="J27" s="3">
+        <v>616400</v>
+      </c>
+      <c r="K27" s="3">
         <v>650100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>819800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>881000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>779900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>601400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>731700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>759900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>705900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>555200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>651100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>623100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>595800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>473700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>368000</v>
+        <v>487500</v>
       </c>
       <c r="E32" s="3">
-        <v>200500</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
+        <v>370100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>201600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3">
-        <v>153200</v>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>182600</v>
+        <v>154100</v>
       </c>
       <c r="J32" s="3">
+        <v>183600</v>
+      </c>
+      <c r="K32" s="3">
         <v>214300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>159800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>150100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>175700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>281000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>182000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>119900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>142200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>172400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>84100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>105400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>75900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>164800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1426200</v>
+        <v>1453200</v>
       </c>
       <c r="E33" s="3">
-        <v>1439800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
+        <v>1434400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1448100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="3">
-        <v>503300</v>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>612900</v>
+        <v>506200</v>
       </c>
       <c r="J33" s="3">
+        <v>616400</v>
+      </c>
+      <c r="K33" s="3">
         <v>650100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>819800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>881000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>779900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>601400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>731700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>759900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>705900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>555200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>651100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>623100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>595800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>473700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1426200</v>
+        <v>1453200</v>
       </c>
       <c r="E35" s="3">
-        <v>1439800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
+        <v>1434400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1448100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="3">
-        <v>503300</v>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>612900</v>
+        <v>506200</v>
       </c>
       <c r="J35" s="3">
+        <v>616400</v>
+      </c>
+      <c r="K35" s="3">
         <v>650100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>819800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>881000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>779900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>601400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>731700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>759900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>705900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>555200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>651100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>623100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>595800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>473700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,138 +2645,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54037100</v>
+        <v>58105600</v>
       </c>
       <c r="E41" s="3">
-        <v>54025700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
+        <v>54348800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>54337300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
-        <v>54407300</v>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>60213800</v>
+        <v>54721100</v>
       </c>
       <c r="J41" s="3">
+        <v>60561100</v>
+      </c>
+      <c r="K41" s="3">
         <v>56350000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54343400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60228700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58529500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56823000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55972200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61652000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55633300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58107600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>57352600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>55610200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>50503300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47133000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24955900</v>
+        <v>27181600</v>
       </c>
       <c r="E42" s="3">
-        <v>23127300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+        <v>25099800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>23260700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
-        <v>16973500</v>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I42" s="3">
-        <v>13944900</v>
+        <v>17071400</v>
       </c>
       <c r="J42" s="3">
+        <v>14025400</v>
+      </c>
+      <c r="K42" s="3">
         <v>13061200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13128100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12759300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12732500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11567200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10260400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9848300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9675900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9614300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10128200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9724900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10082500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10815200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,203 +3051,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>891400</v>
+        <v>918800</v>
       </c>
       <c r="E47" s="3">
-        <v>880600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>896500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>885700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
-        <v>857000</v>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>871300</v>
+        <v>862000</v>
       </c>
       <c r="J47" s="3">
+        <v>876400</v>
+      </c>
+      <c r="K47" s="3">
         <v>846600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>867400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>888600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>877000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>873900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>891800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>883400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>874800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>880400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>867900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>850900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>844300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>812200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2871800</v>
+        <v>2891200</v>
       </c>
       <c r="E48" s="3">
-        <v>2828800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+        <v>2888300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2845100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
-        <v>2705700</v>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>2689200</v>
+        <v>2721300</v>
       </c>
       <c r="J48" s="3">
+        <v>2704700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2645800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2668300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2698200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2614000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2449200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2257100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2229600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2231000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2255600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2236400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2221600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2201000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2189700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2967700</v>
+        <v>2982700</v>
       </c>
       <c r="E49" s="3">
-        <v>2967000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+        <v>2984800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2984100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
-        <v>2969100</v>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>2959800</v>
+        <v>2986300</v>
       </c>
       <c r="J49" s="3">
+        <v>2976900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2969700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3041500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3125100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3069100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3092000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2918200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2919600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2988100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3054100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3055600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3057800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3058500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3040200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,44 +3391,47 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>365100</v>
+        <v>429200</v>
       </c>
       <c r="E52" s="3">
-        <v>319300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>367300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>321200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>305000</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>257000</v>
+        <v>306800</v>
       </c>
       <c r="J52" s="3">
+        <v>258500</v>
+      </c>
+      <c r="K52" s="3">
         <v>214500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>211900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>196100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3322,26 +3441,29 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>142500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>183900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>328861500</v>
+        <v>355216700</v>
       </c>
       <c r="E54" s="3">
-        <v>319684900</v>
+        <v>330758500</v>
       </c>
       <c r="F54" s="3">
-        <v>309165900</v>
+        <v>321529000</v>
       </c>
       <c r="G54" s="3">
-        <v>302195900</v>
+        <v>310949300</v>
       </c>
       <c r="H54" s="3">
-        <v>307590700</v>
+        <v>303939100</v>
       </c>
       <c r="I54" s="3">
-        <v>306888400</v>
+        <v>309365000</v>
       </c>
       <c r="J54" s="3">
+        <v>308658600</v>
+      </c>
+      <c r="K54" s="3">
         <v>289544400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>299446800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>306542100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>296882200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289967100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>269977900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271124400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263049000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>264407800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>261127300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>253953700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252596900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>249032800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,8 +3715,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,44 +3783,47 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>403100</v>
+        <v>506200</v>
       </c>
       <c r="E59" s="3">
-        <v>327900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>405400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>329800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
-        <v>465400</v>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>468100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>411200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>350100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>341700</v>
+      </c>
+      <c r="M59" s="3">
         <v>408800</v>
       </c>
-      <c r="J59" s="3">
-        <v>350100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>341700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>408800</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>472200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3697,26 +3833,29 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>405900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>305700</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,109 +3919,115 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24383100</v>
+        <v>28631200</v>
       </c>
       <c r="E61" s="3">
-        <v>22085500</v>
+        <v>24523700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>22212900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>17169700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>14151100</v>
+        <v>17268700</v>
       </c>
       <c r="J61" s="3">
+        <v>14232800</v>
+      </c>
+      <c r="K61" s="3">
         <v>18049200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20256000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23638900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16651200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22867300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16867400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19583800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17617400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18565000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18916700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19631900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19255900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19146800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>308600</v>
+        <v>288000</v>
       </c>
       <c r="E62" s="3">
-        <v>302900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+        <v>310400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>304600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
-        <v>320000</v>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>283500</v>
+        <v>321900</v>
       </c>
       <c r="J62" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K62" s="3">
         <v>214200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>226600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>203700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>195700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3892,26 +4037,29 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>131200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>169800</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>298337500</v>
+        <v>324787400</v>
       </c>
       <c r="E66" s="3">
-        <v>289592000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+        <v>300058500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>291262400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="3">
-        <v>278893900</v>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>278049800</v>
+        <v>280502700</v>
       </c>
       <c r="J66" s="3">
+        <v>279653700</v>
+      </c>
+      <c r="K66" s="3">
         <v>261165900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>270495900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>277098700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>267978100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>261856600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>244034800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>244552700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>235710900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>237236500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>235211700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>228403000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>227719500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>224956800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25232200</v>
+        <v>25060900</v>
       </c>
       <c r="E72" s="3">
-        <v>24708100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+        <v>25377800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>24850700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
-        <v>23432300</v>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>23607700</v>
+        <v>23567400</v>
       </c>
       <c r="J72" s="3">
+        <v>23743900</v>
+      </c>
+      <c r="K72" s="3">
         <v>23133900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23216200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24108800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23704300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22869800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20963200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20949800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21760300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21445100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20844100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20533000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20193100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19424600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30523900</v>
+        <v>30429300</v>
       </c>
       <c r="E76" s="3">
-        <v>30092900</v>
+        <v>30700000</v>
       </c>
       <c r="F76" s="3">
-        <v>29283900</v>
+        <v>30266500</v>
       </c>
       <c r="G76" s="3">
-        <v>28628800</v>
+        <v>29452800</v>
       </c>
       <c r="H76" s="3">
-        <v>28696800</v>
+        <v>28793900</v>
       </c>
       <c r="I76" s="3">
-        <v>28838600</v>
+        <v>28862300</v>
       </c>
       <c r="J76" s="3">
+        <v>29004900</v>
+      </c>
+      <c r="K76" s="3">
         <v>28378600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28950900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29443400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28904100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28110500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25943100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26571800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27338100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27171300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25915600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25550700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24877500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24076000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1426200</v>
+        <v>1453200</v>
       </c>
       <c r="E81" s="3">
-        <v>1439800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
+        <v>1434400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1448100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="3">
-        <v>503300</v>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>612900</v>
+        <v>506200</v>
       </c>
       <c r="J81" s="3">
+        <v>616400</v>
+      </c>
+      <c r="K81" s="3">
         <v>650100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>819800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>881000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>779900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>601400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>731700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>759900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>705900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>555200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>651100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>623100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>595800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>473700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>181100</v>
+        <v>179300</v>
       </c>
       <c r="E83" s="3">
-        <v>169000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+        <v>182200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>169900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>159700</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>-207400</v>
+        <v>160600</v>
       </c>
       <c r="J83" s="3">
+        <v>-208600</v>
+      </c>
+      <c r="K83" s="3">
         <v>77800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>46500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2073400</v>
+        <v>4531600</v>
       </c>
       <c r="E89" s="3">
-        <v>62300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
+        <v>-2085400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>62600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>5964700</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>956800</v>
+        <v>5999200</v>
       </c>
       <c r="J89" s="3">
+        <v>962300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4978600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-485400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8230400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9601800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>466400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-137600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1240700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3652800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>889200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1353000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-209800</v>
+        <v>-193000</v>
       </c>
       <c r="E91" s="3">
-        <v>-184000</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>-211000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-185100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-186900</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>307800</v>
+        <v>-187900</v>
       </c>
       <c r="J91" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-118100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-105600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-96400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-63400</v>
       </c>
       <c r="T91" s="3">
         <v>-63400</v>
       </c>
       <c r="U91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="V91" s="3">
         <v>-59700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-92900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-181100</v>
+        <v>-167800</v>
       </c>
       <c r="E94" s="3">
-        <v>-133900</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+        <v>-182200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-134700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-157500</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>261400</v>
+        <v>-158400</v>
       </c>
       <c r="J94" s="3">
+        <v>262900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-101000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-90500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-88200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-86100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-73700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-107600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,50 +6002,51 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-721000</v>
+        <v>-723700</v>
       </c>
       <c r="E96" s="3">
-        <v>-429600</v>
+        <v>-725100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-432100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-896400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>1492600</v>
+        <v>-901600</v>
       </c>
       <c r="J96" s="3">
+        <v>1501300</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-673100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-589200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5821,22 +6054,25 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-390800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-99500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1739100</v>
+        <v>4218300</v>
       </c>
       <c r="E100" s="3">
-        <v>424600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>1749100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>427000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-2212300</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>1203000</v>
+        <v>-2225100</v>
       </c>
       <c r="J100" s="3">
+        <v>1209900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2002700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2957900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5676300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6147900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4950400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1536000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-393400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>410600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>243300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>148900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4704400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-157500</v>
+        <v>-290900</v>
       </c>
       <c r="E101" s="3">
-        <v>39400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
+        <v>-158400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>39600</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>532000</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>340500</v>
+        <v>535000</v>
       </c>
       <c r="J101" s="3">
+        <v>342400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-101300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>206800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>134300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>33200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>255400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-281500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-160300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-65600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-264000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>266600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-673000</v>
+        <v>8291200</v>
       </c>
       <c r="E102" s="3">
-        <v>392400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
+        <v>-676900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>394600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>4126900</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>2761600</v>
+        <v>4150700</v>
       </c>
       <c r="J102" s="3">
+        <v>2777600</v>
+      </c>
+      <c r="K102" s="3">
         <v>2773500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3324600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2510400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3379800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>540800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1567800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>506000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2459800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1095000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1179800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -752,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3368600</v>
+        <v>3385200</v>
       </c>
       <c r="E8" s="3">
-        <v>2989100</v>
+        <v>3003800</v>
       </c>
       <c r="F8" s="3">
-        <v>2918600</v>
+        <v>2932900</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
@@ -767,10 +767,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="3">
-        <v>1784400</v>
+        <v>1793200</v>
       </c>
       <c r="J8" s="3">
-        <v>2079600</v>
+        <v>2089900</v>
       </c>
       <c r="K8" s="3">
         <v>2175700</v>
@@ -1277,13 +1277,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1039800</v>
+        <v>1044900</v>
       </c>
       <c r="E17" s="3">
-        <v>823800</v>
+        <v>827800</v>
       </c>
       <c r="F17" s="3">
-        <v>957000</v>
+        <v>961700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
@@ -1292,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1021100</v>
+        <v>1026100</v>
       </c>
       <c r="J17" s="3">
-        <v>1137800</v>
+        <v>1143400</v>
       </c>
       <c r="K17" s="3">
         <v>1109200</v>
@@ -1345,13 +1345,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2328800</v>
+        <v>2340300</v>
       </c>
       <c r="E18" s="3">
-        <v>2165300</v>
+        <v>2176000</v>
       </c>
       <c r="F18" s="3">
-        <v>1961600</v>
+        <v>1971200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
@@ -1360,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>763300</v>
+        <v>767100</v>
       </c>
       <c r="J18" s="3">
-        <v>941900</v>
+        <v>946500</v>
       </c>
       <c r="K18" s="3">
         <v>1066500</v>
@@ -1439,13 +1439,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-487500</v>
+        <v>-489900</v>
       </c>
       <c r="E20" s="3">
-        <v>-370100</v>
+        <v>-372000</v>
       </c>
       <c r="F20" s="3">
-        <v>-201600</v>
+        <v>-202600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
@@ -1454,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-154100</v>
+        <v>-154900</v>
       </c>
       <c r="J20" s="3">
-        <v>-183600</v>
+        <v>-184500</v>
       </c>
       <c r="K20" s="3">
         <v>-214300</v>
@@ -1507,13 +1507,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2020600</v>
+        <v>2030500</v>
       </c>
       <c r="E21" s="3">
-        <v>1977400</v>
+        <v>1987100</v>
       </c>
       <c r="F21" s="3">
-        <v>1929900</v>
+        <v>1939400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>769800</v>
+        <v>773600</v>
       </c>
       <c r="J21" s="3">
-        <v>549700</v>
+        <v>552400</v>
       </c>
       <c r="K21" s="3">
         <v>930000</v>
@@ -1643,25 +1643,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1841300</v>
+        <v>1850300</v>
       </c>
       <c r="E23" s="3">
-        <v>1795200</v>
+        <v>1804000</v>
       </c>
       <c r="F23" s="3">
-        <v>1759900</v>
+        <v>1768600</v>
       </c>
       <c r="G23" s="3">
-        <v>603400</v>
+        <v>606400</v>
       </c>
       <c r="H23" s="3">
-        <v>576100</v>
+        <v>578900</v>
       </c>
       <c r="I23" s="3">
-        <v>609200</v>
+        <v>612200</v>
       </c>
       <c r="J23" s="3">
-        <v>758300</v>
+        <v>762000</v>
       </c>
       <c r="K23" s="3">
         <v>852200</v>
@@ -1711,25 +1711,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>386700</v>
+        <v>388600</v>
       </c>
       <c r="E24" s="3">
-        <v>304600</v>
+        <v>306100</v>
       </c>
       <c r="F24" s="3">
-        <v>307500</v>
+        <v>309000</v>
       </c>
       <c r="G24" s="3">
-        <v>96500</v>
+        <v>97000</v>
       </c>
       <c r="H24" s="3">
-        <v>95100</v>
+        <v>95500</v>
       </c>
       <c r="I24" s="3">
-        <v>101500</v>
+        <v>102000</v>
       </c>
       <c r="J24" s="3">
-        <v>140400</v>
+        <v>141100</v>
       </c>
       <c r="K24" s="3">
         <v>127800</v>
@@ -1847,13 +1847,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1454600</v>
+        <v>1461800</v>
       </c>
       <c r="E26" s="3">
-        <v>1490600</v>
+        <v>1497900</v>
       </c>
       <c r="F26" s="3">
-        <v>1452400</v>
+        <v>1459600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
@@ -1862,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>507700</v>
+        <v>510200</v>
       </c>
       <c r="J26" s="3">
-        <v>617800</v>
+        <v>620900</v>
       </c>
       <c r="K26" s="3">
         <v>724300</v>
@@ -1915,13 +1915,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1453200</v>
+        <v>1460300</v>
       </c>
       <c r="E27" s="3">
-        <v>1434400</v>
+        <v>1441500</v>
       </c>
       <c r="F27" s="3">
-        <v>1448100</v>
+        <v>1455200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
@@ -1930,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>506200</v>
+        <v>508700</v>
       </c>
       <c r="J27" s="3">
-        <v>616400</v>
+        <v>619400</v>
       </c>
       <c r="K27" s="3">
         <v>650100</v>
@@ -2255,13 +2255,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>487500</v>
+        <v>489900</v>
       </c>
       <c r="E32" s="3">
-        <v>370100</v>
+        <v>372000</v>
       </c>
       <c r="F32" s="3">
-        <v>201600</v>
+        <v>202600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>154100</v>
+        <v>154900</v>
       </c>
       <c r="J32" s="3">
-        <v>183600</v>
+        <v>184500</v>
       </c>
       <c r="K32" s="3">
         <v>214300</v>
@@ -2323,13 +2323,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1453200</v>
+        <v>1460300</v>
       </c>
       <c r="E33" s="3">
-        <v>1434400</v>
+        <v>1441500</v>
       </c>
       <c r="F33" s="3">
-        <v>1448100</v>
+        <v>1455200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
@@ -2338,10 +2338,10 @@
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>506200</v>
+        <v>508700</v>
       </c>
       <c r="J33" s="3">
-        <v>616400</v>
+        <v>619400</v>
       </c>
       <c r="K33" s="3">
         <v>650100</v>
@@ -2459,13 +2459,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1453200</v>
+        <v>1460300</v>
       </c>
       <c r="E35" s="3">
-        <v>1434400</v>
+        <v>1441500</v>
       </c>
       <c r="F35" s="3">
-        <v>1448100</v>
+        <v>1455200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>506200</v>
+        <v>508700</v>
       </c>
       <c r="J35" s="3">
-        <v>616400</v>
+        <v>619400</v>
       </c>
       <c r="K35" s="3">
         <v>650100</v>
@@ -2652,13 +2652,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58105600</v>
+        <v>58391200</v>
       </c>
       <c r="E41" s="3">
-        <v>54348800</v>
+        <v>54616000</v>
       </c>
       <c r="F41" s="3">
-        <v>54337300</v>
+        <v>54604400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
@@ -2667,10 +2667,10 @@
         <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>54721100</v>
+        <v>54990100</v>
       </c>
       <c r="J41" s="3">
-        <v>60561100</v>
+        <v>60858800</v>
       </c>
       <c r="K41" s="3">
         <v>56350000</v>
@@ -2720,13 +2720,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27181600</v>
+        <v>27315200</v>
       </c>
       <c r="E42" s="3">
-        <v>25099800</v>
+        <v>25223200</v>
       </c>
       <c r="F42" s="3">
-        <v>23260700</v>
+        <v>23375000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -2735,10 +2735,10 @@
         <v>5</v>
       </c>
       <c r="I42" s="3">
-        <v>17071400</v>
+        <v>17155300</v>
       </c>
       <c r="J42" s="3">
-        <v>14025400</v>
+        <v>14094300</v>
       </c>
       <c r="K42" s="3">
         <v>13061200</v>
@@ -3060,13 +3060,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>918800</v>
+        <v>923400</v>
       </c>
       <c r="E47" s="3">
-        <v>896500</v>
+        <v>900900</v>
       </c>
       <c r="F47" s="3">
-        <v>885700</v>
+        <v>890100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -3075,10 +3075,10 @@
         <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>862000</v>
+        <v>866200</v>
       </c>
       <c r="J47" s="3">
-        <v>876400</v>
+        <v>880700</v>
       </c>
       <c r="K47" s="3">
         <v>846600</v>
@@ -3128,13 +3128,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2891200</v>
+        <v>2905400</v>
       </c>
       <c r="E48" s="3">
-        <v>2888300</v>
+        <v>2902500</v>
       </c>
       <c r="F48" s="3">
-        <v>2845100</v>
+        <v>2859100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -3143,10 +3143,10 @@
         <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>2721300</v>
+        <v>2734600</v>
       </c>
       <c r="J48" s="3">
-        <v>2704700</v>
+        <v>2718000</v>
       </c>
       <c r="K48" s="3">
         <v>2645800</v>
@@ -3196,13 +3196,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2982700</v>
+        <v>2997300</v>
       </c>
       <c r="E49" s="3">
-        <v>2984800</v>
+        <v>2999500</v>
       </c>
       <c r="F49" s="3">
-        <v>2984100</v>
+        <v>2998800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
@@ -3211,10 +3211,10 @@
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>2986300</v>
+        <v>3000900</v>
       </c>
       <c r="J49" s="3">
-        <v>2976900</v>
+        <v>2991500</v>
       </c>
       <c r="K49" s="3">
         <v>2969700</v>
@@ -3400,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>429200</v>
+        <v>431300</v>
       </c>
       <c r="E52" s="3">
-        <v>367300</v>
+        <v>369100</v>
       </c>
       <c r="F52" s="3">
-        <v>321200</v>
+        <v>322700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3415,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>306800</v>
+        <v>308300</v>
       </c>
       <c r="J52" s="3">
-        <v>258500</v>
+        <v>259800</v>
       </c>
       <c r="K52" s="3">
         <v>214500</v>
@@ -3536,25 +3536,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>355216700</v>
+        <v>356962900</v>
       </c>
       <c r="E54" s="3">
-        <v>330758500</v>
+        <v>332384500</v>
       </c>
       <c r="F54" s="3">
-        <v>321529000</v>
+        <v>323109600</v>
       </c>
       <c r="G54" s="3">
-        <v>310949300</v>
+        <v>312477900</v>
       </c>
       <c r="H54" s="3">
-        <v>303939100</v>
+        <v>305433200</v>
       </c>
       <c r="I54" s="3">
-        <v>309365000</v>
+        <v>310885900</v>
       </c>
       <c r="J54" s="3">
-        <v>308658600</v>
+        <v>310176000</v>
       </c>
       <c r="K54" s="3">
         <v>289544400</v>
@@ -3792,13 +3792,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>506200</v>
+        <v>508700</v>
       </c>
       <c r="E59" s="3">
-        <v>405400</v>
+        <v>407400</v>
       </c>
       <c r="F59" s="3">
-        <v>329800</v>
+        <v>331400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
@@ -3807,10 +3807,10 @@
         <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>468100</v>
+        <v>470400</v>
       </c>
       <c r="J59" s="3">
-        <v>411200</v>
+        <v>413200</v>
       </c>
       <c r="K59" s="3">
         <v>350100</v>
@@ -3928,13 +3928,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28631200</v>
+        <v>28771900</v>
       </c>
       <c r="E61" s="3">
-        <v>24523700</v>
+        <v>24644300</v>
       </c>
       <c r="F61" s="3">
-        <v>22212900</v>
+        <v>22322100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>17268700</v>
+        <v>17353600</v>
       </c>
       <c r="J61" s="3">
-        <v>14232800</v>
+        <v>14302700</v>
       </c>
       <c r="K61" s="3">
         <v>18049200</v>
@@ -3996,13 +3996,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>288000</v>
+        <v>289500</v>
       </c>
       <c r="E62" s="3">
-        <v>310400</v>
+        <v>311900</v>
       </c>
       <c r="F62" s="3">
-        <v>304600</v>
+        <v>306100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -4011,10 +4011,10 @@
         <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>321900</v>
+        <v>323500</v>
       </c>
       <c r="J62" s="3">
-        <v>285200</v>
+        <v>286600</v>
       </c>
       <c r="K62" s="3">
         <v>214200</v>
@@ -4268,13 +4268,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>324787400</v>
+        <v>326384100</v>
       </c>
       <c r="E66" s="3">
-        <v>300058500</v>
+        <v>301533600</v>
       </c>
       <c r="F66" s="3">
-        <v>291262400</v>
+        <v>292694300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
@@ -4283,10 +4283,10 @@
         <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>280502700</v>
+        <v>281881700</v>
       </c>
       <c r="J66" s="3">
-        <v>279653700</v>
+        <v>281028500</v>
       </c>
       <c r="K66" s="3">
         <v>261165900</v>
@@ -4634,13 +4634,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25060900</v>
+        <v>25184100</v>
       </c>
       <c r="E72" s="3">
-        <v>25377800</v>
+        <v>25502500</v>
       </c>
       <c r="F72" s="3">
-        <v>24850700</v>
+        <v>24972800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -4649,10 +4649,10 @@
         <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>23567400</v>
+        <v>23683300</v>
       </c>
       <c r="J72" s="3">
-        <v>23743900</v>
+        <v>23860600</v>
       </c>
       <c r="K72" s="3">
         <v>23133900</v>
@@ -4906,25 +4906,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30429300</v>
+        <v>30578900</v>
       </c>
       <c r="E76" s="3">
-        <v>30700000</v>
+        <v>30850900</v>
       </c>
       <c r="F76" s="3">
-        <v>30266500</v>
+        <v>30415300</v>
       </c>
       <c r="G76" s="3">
-        <v>29452800</v>
+        <v>29597600</v>
       </c>
       <c r="H76" s="3">
-        <v>28793900</v>
+        <v>28935500</v>
       </c>
       <c r="I76" s="3">
-        <v>28862300</v>
+        <v>29004200</v>
       </c>
       <c r="J76" s="3">
-        <v>29004900</v>
+        <v>29147500</v>
       </c>
       <c r="K76" s="3">
         <v>28378600</v>
@@ -5115,13 +5115,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1453200</v>
+        <v>1460300</v>
       </c>
       <c r="E81" s="3">
-        <v>1434400</v>
+        <v>1441500</v>
       </c>
       <c r="F81" s="3">
-        <v>1448100</v>
+        <v>1455200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
@@ -5130,10 +5130,10 @@
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>506200</v>
+        <v>508700</v>
       </c>
       <c r="J81" s="3">
-        <v>616400</v>
+        <v>619400</v>
       </c>
       <c r="K81" s="3">
         <v>650100</v>
@@ -5209,13 +5209,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>179300</v>
+        <v>180200</v>
       </c>
       <c r="E83" s="3">
-        <v>182200</v>
+        <v>183100</v>
       </c>
       <c r="F83" s="3">
-        <v>169900</v>
+        <v>170800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -5224,10 +5224,10 @@
         <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>160600</v>
+        <v>161400</v>
       </c>
       <c r="J83" s="3">
-        <v>-208600</v>
+        <v>-209600</v>
       </c>
       <c r="K83" s="3">
         <v>77800</v>
@@ -5617,13 +5617,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4531600</v>
+        <v>4553900</v>
       </c>
       <c r="E89" s="3">
-        <v>-2085400</v>
+        <v>-2095700</v>
       </c>
       <c r="F89" s="3">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
@@ -5632,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>5999200</v>
+        <v>6028600</v>
       </c>
       <c r="J89" s="3">
-        <v>962300</v>
+        <v>967000</v>
       </c>
       <c r="K89" s="3">
         <v>4978600</v>
@@ -5711,13 +5711,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-193000</v>
+        <v>-193900</v>
       </c>
       <c r="E91" s="3">
-        <v>-211000</v>
+        <v>-212000</v>
       </c>
       <c r="F91" s="3">
-        <v>-185100</v>
+        <v>-186000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -5726,10 +5726,10 @@
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-187900</v>
+        <v>-188900</v>
       </c>
       <c r="J91" s="3">
-        <v>309600</v>
+        <v>311100</v>
       </c>
       <c r="K91" s="3">
         <v>-118100</v>
@@ -5915,13 +5915,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-167800</v>
+        <v>-168600</v>
       </c>
       <c r="E94" s="3">
-        <v>-182200</v>
+        <v>-183100</v>
       </c>
       <c r="F94" s="3">
-        <v>-134700</v>
+        <v>-135300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
@@ -5930,10 +5930,10 @@
         <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>-158400</v>
+        <v>-159200</v>
       </c>
       <c r="J94" s="3">
-        <v>262900</v>
+        <v>264200</v>
       </c>
       <c r="K94" s="3">
         <v>-101000</v>
@@ -6009,13 +6009,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-723700</v>
+        <v>-727300</v>
       </c>
       <c r="E96" s="3">
-        <v>-725100</v>
+        <v>-728700</v>
       </c>
       <c r="F96" s="3">
-        <v>-432100</v>
+        <v>-434200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-901600</v>
+        <v>-906000</v>
       </c>
       <c r="J96" s="3">
-        <v>1501300</v>
+        <v>1508600</v>
       </c>
       <c r="K96" s="3">
         <v>100</v>
@@ -6281,13 +6281,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4218300</v>
+        <v>4239100</v>
       </c>
       <c r="E100" s="3">
-        <v>1749100</v>
+        <v>1757700</v>
       </c>
       <c r="F100" s="3">
-        <v>427000</v>
+        <v>429100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
@@ -6296,10 +6296,10 @@
         <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>-2225100</v>
+        <v>-2236000</v>
       </c>
       <c r="J100" s="3">
-        <v>1209900</v>
+        <v>1215900</v>
       </c>
       <c r="K100" s="3">
         <v>-2002700</v>
@@ -6349,13 +6349,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-290900</v>
+        <v>-292400</v>
       </c>
       <c r="E101" s="3">
-        <v>-158400</v>
+        <v>-159200</v>
       </c>
       <c r="F101" s="3">
-        <v>39600</v>
+        <v>39800</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
@@ -6364,10 +6364,10 @@
         <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>535000</v>
+        <v>537700</v>
       </c>
       <c r="J101" s="3">
-        <v>342400</v>
+        <v>344100</v>
       </c>
       <c r="K101" s="3">
         <v>-101300</v>
@@ -6417,13 +6417,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8291200</v>
+        <v>8332000</v>
       </c>
       <c r="E102" s="3">
-        <v>-676900</v>
+        <v>-680200</v>
       </c>
       <c r="F102" s="3">
-        <v>394600</v>
+        <v>396600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
@@ -6432,10 +6432,10 @@
         <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>4150700</v>
+        <v>4171100</v>
       </c>
       <c r="J102" s="3">
-        <v>2777600</v>
+        <v>2791200</v>
       </c>
       <c r="K102" s="3">
         <v>2773500</v>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -752,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3385200</v>
+        <v>3457500</v>
       </c>
       <c r="E8" s="3">
-        <v>3003800</v>
+        <v>3068000</v>
       </c>
       <c r="F8" s="3">
-        <v>2932900</v>
+        <v>2995600</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
@@ -767,10 +767,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="3">
-        <v>1793200</v>
+        <v>1831500</v>
       </c>
       <c r="J8" s="3">
-        <v>2089900</v>
+        <v>2134500</v>
       </c>
       <c r="K8" s="3">
         <v>2175700</v>
@@ -1277,13 +1277,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1044900</v>
+        <v>1067300</v>
       </c>
       <c r="E17" s="3">
-        <v>827800</v>
+        <v>845500</v>
       </c>
       <c r="F17" s="3">
-        <v>961700</v>
+        <v>982300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
@@ -1292,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1026100</v>
+        <v>1048000</v>
       </c>
       <c r="J17" s="3">
-        <v>1143400</v>
+        <v>1167800</v>
       </c>
       <c r="K17" s="3">
         <v>1109200</v>
@@ -1345,13 +1345,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2340300</v>
+        <v>2390200</v>
       </c>
       <c r="E18" s="3">
-        <v>2176000</v>
+        <v>2222500</v>
       </c>
       <c r="F18" s="3">
-        <v>1971200</v>
+        <v>2013300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
@@ -1360,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>767100</v>
+        <v>783400</v>
       </c>
       <c r="J18" s="3">
-        <v>946500</v>
+        <v>966700</v>
       </c>
       <c r="K18" s="3">
         <v>1066500</v>
@@ -1439,13 +1439,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-489900</v>
+        <v>-500400</v>
       </c>
       <c r="E20" s="3">
-        <v>-372000</v>
+        <v>-379900</v>
       </c>
       <c r="F20" s="3">
-        <v>-202600</v>
+        <v>-206900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
@@ -1454,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-154900</v>
+        <v>-158200</v>
       </c>
       <c r="J20" s="3">
-        <v>-184500</v>
+        <v>-188500</v>
       </c>
       <c r="K20" s="3">
         <v>-214300</v>
@@ -1507,13 +1507,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2030500</v>
+        <v>2073900</v>
       </c>
       <c r="E21" s="3">
-        <v>1987100</v>
+        <v>2029600</v>
       </c>
       <c r="F21" s="3">
-        <v>1939400</v>
+        <v>1980800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>773600</v>
+        <v>790100</v>
       </c>
       <c r="J21" s="3">
-        <v>552400</v>
+        <v>564200</v>
       </c>
       <c r="K21" s="3">
         <v>930000</v>
@@ -1643,25 +1643,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1850300</v>
+        <v>1889900</v>
       </c>
       <c r="E23" s="3">
-        <v>1804000</v>
+        <v>1842600</v>
       </c>
       <c r="F23" s="3">
-        <v>1768600</v>
+        <v>1806400</v>
       </c>
       <c r="G23" s="3">
-        <v>606400</v>
+        <v>619400</v>
       </c>
       <c r="H23" s="3">
-        <v>578900</v>
+        <v>591300</v>
       </c>
       <c r="I23" s="3">
-        <v>612200</v>
+        <v>625300</v>
       </c>
       <c r="J23" s="3">
-        <v>762000</v>
+        <v>778300</v>
       </c>
       <c r="K23" s="3">
         <v>852200</v>
@@ -1711,25 +1711,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>388600</v>
+        <v>396900</v>
       </c>
       <c r="E24" s="3">
-        <v>306100</v>
+        <v>312600</v>
       </c>
       <c r="F24" s="3">
-        <v>309000</v>
+        <v>315600</v>
       </c>
       <c r="G24" s="3">
-        <v>97000</v>
+        <v>99000</v>
       </c>
       <c r="H24" s="3">
-        <v>95500</v>
+        <v>97600</v>
       </c>
       <c r="I24" s="3">
-        <v>102000</v>
+        <v>104200</v>
       </c>
       <c r="J24" s="3">
-        <v>141100</v>
+        <v>144100</v>
       </c>
       <c r="K24" s="3">
         <v>127800</v>
@@ -1847,13 +1847,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1461800</v>
+        <v>1493000</v>
       </c>
       <c r="E26" s="3">
-        <v>1497900</v>
+        <v>1529900</v>
       </c>
       <c r="F26" s="3">
-        <v>1459600</v>
+        <v>1490800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
@@ -1862,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>510200</v>
+        <v>521100</v>
       </c>
       <c r="J26" s="3">
-        <v>620900</v>
+        <v>634100</v>
       </c>
       <c r="K26" s="3">
         <v>724300</v>
@@ -1915,13 +1915,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1460300</v>
+        <v>1491500</v>
       </c>
       <c r="E27" s="3">
-        <v>1441500</v>
+        <v>1472300</v>
       </c>
       <c r="F27" s="3">
-        <v>1455200</v>
+        <v>1486300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
@@ -1930,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>508700</v>
+        <v>519600</v>
       </c>
       <c r="J27" s="3">
-        <v>619400</v>
+        <v>632700</v>
       </c>
       <c r="K27" s="3">
         <v>650100</v>
@@ -2255,13 +2255,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>489900</v>
+        <v>500400</v>
       </c>
       <c r="E32" s="3">
-        <v>372000</v>
+        <v>379900</v>
       </c>
       <c r="F32" s="3">
-        <v>202600</v>
+        <v>206900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>154900</v>
+        <v>158200</v>
       </c>
       <c r="J32" s="3">
-        <v>184500</v>
+        <v>188500</v>
       </c>
       <c r="K32" s="3">
         <v>214300</v>
@@ -2323,13 +2323,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1460300</v>
+        <v>1491500</v>
       </c>
       <c r="E33" s="3">
-        <v>1441500</v>
+        <v>1472300</v>
       </c>
       <c r="F33" s="3">
-        <v>1455200</v>
+        <v>1486300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
@@ -2338,10 +2338,10 @@
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>508700</v>
+        <v>519600</v>
       </c>
       <c r="J33" s="3">
-        <v>619400</v>
+        <v>632700</v>
       </c>
       <c r="K33" s="3">
         <v>650100</v>
@@ -2459,13 +2459,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1460300</v>
+        <v>1491500</v>
       </c>
       <c r="E35" s="3">
-        <v>1441500</v>
+        <v>1472300</v>
       </c>
       <c r="F35" s="3">
-        <v>1455200</v>
+        <v>1486300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>508700</v>
+        <v>519600</v>
       </c>
       <c r="J35" s="3">
-        <v>619400</v>
+        <v>632700</v>
       </c>
       <c r="K35" s="3">
         <v>650100</v>
@@ -2652,13 +2652,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58391200</v>
+        <v>59638700</v>
       </c>
       <c r="E41" s="3">
-        <v>54616000</v>
+        <v>55782800</v>
       </c>
       <c r="F41" s="3">
-        <v>54604400</v>
+        <v>55771000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
@@ -2667,10 +2667,10 @@
         <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>54990100</v>
+        <v>56164900</v>
       </c>
       <c r="J41" s="3">
-        <v>60858800</v>
+        <v>62159000</v>
       </c>
       <c r="K41" s="3">
         <v>56350000</v>
@@ -2720,13 +2720,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27315200</v>
+        <v>27898800</v>
       </c>
       <c r="E42" s="3">
-        <v>25223200</v>
+        <v>25762100</v>
       </c>
       <c r="F42" s="3">
-        <v>23375000</v>
+        <v>23874400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -2735,10 +2735,10 @@
         <v>5</v>
       </c>
       <c r="I42" s="3">
-        <v>17155300</v>
+        <v>17521800</v>
       </c>
       <c r="J42" s="3">
-        <v>14094300</v>
+        <v>14395500</v>
       </c>
       <c r="K42" s="3">
         <v>13061200</v>
@@ -3060,13 +3060,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>923400</v>
+        <v>943100</v>
       </c>
       <c r="E47" s="3">
-        <v>900900</v>
+        <v>920200</v>
       </c>
       <c r="F47" s="3">
-        <v>890100</v>
+        <v>909100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -3075,10 +3075,10 @@
         <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>866200</v>
+        <v>884700</v>
       </c>
       <c r="J47" s="3">
-        <v>880700</v>
+        <v>899500</v>
       </c>
       <c r="K47" s="3">
         <v>846600</v>
@@ -3128,13 +3128,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2905400</v>
+        <v>2967500</v>
       </c>
       <c r="E48" s="3">
-        <v>2902500</v>
+        <v>2964500</v>
       </c>
       <c r="F48" s="3">
-        <v>2859100</v>
+        <v>2920200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -3143,10 +3143,10 @@
         <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>2734600</v>
+        <v>2793100</v>
       </c>
       <c r="J48" s="3">
-        <v>2718000</v>
+        <v>2776100</v>
       </c>
       <c r="K48" s="3">
         <v>2645800</v>
@@ -3196,13 +3196,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2997300</v>
+        <v>3061400</v>
       </c>
       <c r="E49" s="3">
-        <v>2999500</v>
+        <v>3063600</v>
       </c>
       <c r="F49" s="3">
-        <v>2998800</v>
+        <v>3062800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
@@ -3211,10 +3211,10 @@
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>3000900</v>
+        <v>3065000</v>
       </c>
       <c r="J49" s="3">
-        <v>2991500</v>
+        <v>3055400</v>
       </c>
       <c r="K49" s="3">
         <v>2969700</v>
@@ -3400,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>431300</v>
+        <v>440500</v>
       </c>
       <c r="E52" s="3">
-        <v>369100</v>
+        <v>376900</v>
       </c>
       <c r="F52" s="3">
-        <v>322700</v>
+        <v>329600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3415,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>308300</v>
+        <v>314900</v>
       </c>
       <c r="J52" s="3">
-        <v>259800</v>
+        <v>265300</v>
       </c>
       <c r="K52" s="3">
         <v>214500</v>
@@ -3536,25 +3536,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>356962900</v>
+        <v>364589200</v>
       </c>
       <c r="E54" s="3">
-        <v>332384500</v>
+        <v>339485600</v>
       </c>
       <c r="F54" s="3">
-        <v>323109600</v>
+        <v>330012600</v>
       </c>
       <c r="G54" s="3">
-        <v>312477900</v>
+        <v>319153700</v>
       </c>
       <c r="H54" s="3">
-        <v>305433200</v>
+        <v>311958600</v>
       </c>
       <c r="I54" s="3">
-        <v>310885900</v>
+        <v>317527700</v>
       </c>
       <c r="J54" s="3">
-        <v>310176000</v>
+        <v>316802700</v>
       </c>
       <c r="K54" s="3">
         <v>289544400</v>
@@ -3792,13 +3792,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>508700</v>
+        <v>519600</v>
       </c>
       <c r="E59" s="3">
-        <v>407400</v>
+        <v>416100</v>
       </c>
       <c r="F59" s="3">
-        <v>331400</v>
+        <v>338500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
@@ -3807,10 +3807,10 @@
         <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>470400</v>
+        <v>480400</v>
       </c>
       <c r="J59" s="3">
-        <v>413200</v>
+        <v>422000</v>
       </c>
       <c r="K59" s="3">
         <v>350100</v>
@@ -3928,13 +3928,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28771900</v>
+        <v>29386600</v>
       </c>
       <c r="E61" s="3">
-        <v>24644300</v>
+        <v>25170800</v>
       </c>
       <c r="F61" s="3">
-        <v>22322100</v>
+        <v>22799000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>17353600</v>
+        <v>17724400</v>
       </c>
       <c r="J61" s="3">
-        <v>14302700</v>
+        <v>14608300</v>
       </c>
       <c r="K61" s="3">
         <v>18049200</v>
@@ -3996,13 +3996,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>289500</v>
+        <v>295600</v>
       </c>
       <c r="E62" s="3">
-        <v>311900</v>
+        <v>318600</v>
       </c>
       <c r="F62" s="3">
-        <v>306100</v>
+        <v>312600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -4011,10 +4011,10 @@
         <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>323500</v>
+        <v>330400</v>
       </c>
       <c r="J62" s="3">
-        <v>286600</v>
+        <v>292700</v>
       </c>
       <c r="K62" s="3">
         <v>214200</v>
@@ -4268,13 +4268,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>326384100</v>
+        <v>333357000</v>
       </c>
       <c r="E66" s="3">
-        <v>301533600</v>
+        <v>307975600</v>
       </c>
       <c r="F66" s="3">
-        <v>292694300</v>
+        <v>298947500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
@@ -4283,10 +4283,10 @@
         <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>281881700</v>
+        <v>287903800</v>
       </c>
       <c r="J66" s="3">
-        <v>281028500</v>
+        <v>287032400</v>
       </c>
       <c r="K66" s="3">
         <v>261165900</v>
@@ -4634,13 +4634,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25184100</v>
+        <v>25722200</v>
       </c>
       <c r="E72" s="3">
-        <v>25502500</v>
+        <v>26047400</v>
       </c>
       <c r="F72" s="3">
-        <v>24972800</v>
+        <v>25506300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -4649,10 +4649,10 @@
         <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>23683300</v>
+        <v>24189300</v>
       </c>
       <c r="J72" s="3">
-        <v>23860600</v>
+        <v>24370300</v>
       </c>
       <c r="K72" s="3">
         <v>23133900</v>
@@ -4906,25 +4906,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30578900</v>
+        <v>31232100</v>
       </c>
       <c r="E76" s="3">
-        <v>30850900</v>
+        <v>31510100</v>
       </c>
       <c r="F76" s="3">
-        <v>30415300</v>
+        <v>31065100</v>
       </c>
       <c r="G76" s="3">
-        <v>29597600</v>
+        <v>30229900</v>
       </c>
       <c r="H76" s="3">
-        <v>28935500</v>
+        <v>29553700</v>
       </c>
       <c r="I76" s="3">
-        <v>29004200</v>
+        <v>29623900</v>
       </c>
       <c r="J76" s="3">
-        <v>29147500</v>
+        <v>29770200</v>
       </c>
       <c r="K76" s="3">
         <v>28378600</v>
@@ -5115,13 +5115,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1460300</v>
+        <v>1491500</v>
       </c>
       <c r="E81" s="3">
-        <v>1441500</v>
+        <v>1472300</v>
       </c>
       <c r="F81" s="3">
-        <v>1455200</v>
+        <v>1486300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
@@ -5130,10 +5130,10 @@
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>508700</v>
+        <v>519600</v>
       </c>
       <c r="J81" s="3">
-        <v>619400</v>
+        <v>632700</v>
       </c>
       <c r="K81" s="3">
         <v>650100</v>
@@ -5209,13 +5209,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180200</v>
+        <v>184000</v>
       </c>
       <c r="E83" s="3">
-        <v>183100</v>
+        <v>187000</v>
       </c>
       <c r="F83" s="3">
-        <v>170800</v>
+        <v>174400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -5224,10 +5224,10 @@
         <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>161400</v>
+        <v>164800</v>
       </c>
       <c r="J83" s="3">
-        <v>-209600</v>
+        <v>-214100</v>
       </c>
       <c r="K83" s="3">
         <v>77800</v>
@@ -5617,13 +5617,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4553900</v>
+        <v>4651200</v>
       </c>
       <c r="E89" s="3">
-        <v>-2095700</v>
+        <v>-2140400</v>
       </c>
       <c r="F89" s="3">
-        <v>63000</v>
+        <v>64300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
@@ -5632,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>6028600</v>
+        <v>6157400</v>
       </c>
       <c r="J89" s="3">
-        <v>967000</v>
+        <v>987700</v>
       </c>
       <c r="K89" s="3">
         <v>4978600</v>
@@ -5711,13 +5711,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-193900</v>
+        <v>-198100</v>
       </c>
       <c r="E91" s="3">
-        <v>-212000</v>
+        <v>-216600</v>
       </c>
       <c r="F91" s="3">
-        <v>-186000</v>
+        <v>-189900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -5726,10 +5726,10 @@
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-188900</v>
+        <v>-192900</v>
       </c>
       <c r="J91" s="3">
-        <v>311100</v>
+        <v>317800</v>
       </c>
       <c r="K91" s="3">
         <v>-118100</v>
@@ -5915,13 +5915,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-168600</v>
+        <v>-172200</v>
       </c>
       <c r="E94" s="3">
-        <v>-183100</v>
+        <v>-187000</v>
       </c>
       <c r="F94" s="3">
-        <v>-135300</v>
+        <v>-138200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
@@ -5930,10 +5930,10 @@
         <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>-159200</v>
+        <v>-162600</v>
       </c>
       <c r="J94" s="3">
-        <v>264200</v>
+        <v>269900</v>
       </c>
       <c r="K94" s="3">
         <v>-101000</v>
@@ -6009,13 +6009,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-727300</v>
+        <v>-742800</v>
       </c>
       <c r="E96" s="3">
-        <v>-728700</v>
+        <v>-744300</v>
       </c>
       <c r="F96" s="3">
-        <v>-434200</v>
+        <v>-443500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-906000</v>
+        <v>-925400</v>
       </c>
       <c r="J96" s="3">
-        <v>1508600</v>
+        <v>1540900</v>
       </c>
       <c r="K96" s="3">
         <v>100</v>
@@ -6281,13 +6281,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4239100</v>
+        <v>4329600</v>
       </c>
       <c r="E100" s="3">
-        <v>1757700</v>
+        <v>1795300</v>
       </c>
       <c r="F100" s="3">
-        <v>429100</v>
+        <v>438300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
@@ -6296,10 +6296,10 @@
         <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>-2236000</v>
+        <v>-2283800</v>
       </c>
       <c r="J100" s="3">
-        <v>1215900</v>
+        <v>1241800</v>
       </c>
       <c r="K100" s="3">
         <v>-2002700</v>
@@ -6349,13 +6349,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-292400</v>
+        <v>-298600</v>
       </c>
       <c r="E101" s="3">
-        <v>-159200</v>
+        <v>-162600</v>
       </c>
       <c r="F101" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
@@ -6364,10 +6364,10 @@
         <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>537700</v>
+        <v>549200</v>
       </c>
       <c r="J101" s="3">
-        <v>344100</v>
+        <v>351500</v>
       </c>
       <c r="K101" s="3">
         <v>-101300</v>
@@ -6417,13 +6417,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8332000</v>
+        <v>8510000</v>
       </c>
       <c r="E102" s="3">
-        <v>-680200</v>
+        <v>-694800</v>
       </c>
       <c r="F102" s="3">
-        <v>396600</v>
+        <v>405000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
@@ -6432,10 +6432,10 @@
         <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>4171100</v>
+        <v>4260200</v>
       </c>
       <c r="J102" s="3">
-        <v>2791200</v>
+        <v>2850800</v>
       </c>
       <c r="K102" s="3">
         <v>2773500</v>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3457500</v>
+        <v>6073900</v>
       </c>
       <c r="E8" s="3">
-        <v>3068000</v>
+        <v>3471900</v>
       </c>
       <c r="F8" s="3">
-        <v>2995600</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>3080700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3008000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>1831500</v>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J8" s="3">
+        <v>1839100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2134500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2175700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2364000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2409300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2298200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2269900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2060300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1924800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1771200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1759700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1710700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1641300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1581600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1543500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,8 +1199,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1067300</v>
+        <v>2729700</v>
       </c>
       <c r="E17" s="3">
-        <v>845500</v>
+        <v>1071700</v>
       </c>
       <c r="F17" s="3">
-        <v>982300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
+        <v>849000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>986300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>1048000</v>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>1052400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1167800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1109200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1233300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1190600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1163800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>999100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>768000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>786000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>835400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>774200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>757300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>705000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2390200</v>
+        <v>3344200</v>
       </c>
       <c r="E18" s="3">
-        <v>2222500</v>
+        <v>2400200</v>
       </c>
       <c r="F18" s="3">
-        <v>2013300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
+        <v>2231700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2021700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3">
-        <v>783400</v>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>786700</v>
+      </c>
+      <c r="K18" s="3">
         <v>966700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1066500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1130700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1208400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1107600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1106000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1061200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1024500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1003200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>973700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>875200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>867100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>824400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>838500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1465,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500400</v>
+        <v>-948500</v>
       </c>
       <c r="E20" s="3">
-        <v>-379900</v>
+        <v>-502400</v>
       </c>
       <c r="F20" s="3">
-        <v>-206900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
+        <v>-381500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-207800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
-        <v>-158200</v>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J20" s="3">
+        <v>-158800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-188500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-214300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-159800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-150100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-175700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-281000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-182000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-119900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-142200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-172400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-84100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-105400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-75900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-164800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2073900</v>
+        <v>2609500</v>
       </c>
       <c r="E21" s="3">
-        <v>2029600</v>
+        <v>2082500</v>
       </c>
       <c r="F21" s="3">
-        <v>1980800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+        <v>2038000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1989000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>790100</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>793400</v>
+      </c>
+      <c r="K21" s="3">
         <v>564200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>930000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1045600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1131500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>999300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>879500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>927800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>951800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>907300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>853100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>837600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>805200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>797100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>716700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1889900</v>
+        <v>2395700</v>
       </c>
       <c r="E23" s="3">
-        <v>1842600</v>
+        <v>1897700</v>
       </c>
       <c r="F23" s="3">
-        <v>1806400</v>
+        <v>1850200</v>
       </c>
       <c r="G23" s="3">
-        <v>619400</v>
+        <v>1813900</v>
       </c>
       <c r="H23" s="3">
-        <v>591300</v>
+        <v>621900</v>
       </c>
       <c r="I23" s="3">
-        <v>625300</v>
+        <v>593700</v>
       </c>
       <c r="J23" s="3">
+        <v>627900</v>
+      </c>
+      <c r="K23" s="3">
         <v>778300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>852200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>970800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1058300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>931900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>825000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>879100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>904500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>861100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>801300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>791200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>761700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>748400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>673700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>396900</v>
+        <v>493500</v>
       </c>
       <c r="E24" s="3">
-        <v>312600</v>
+        <v>398500</v>
       </c>
       <c r="F24" s="3">
-        <v>315600</v>
+        <v>313900</v>
       </c>
       <c r="G24" s="3">
-        <v>99000</v>
+        <v>316900</v>
       </c>
       <c r="H24" s="3">
-        <v>97600</v>
+        <v>99500</v>
       </c>
       <c r="I24" s="3">
-        <v>104200</v>
+        <v>98000</v>
       </c>
       <c r="J24" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K24" s="3">
         <v>144100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>174200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>148300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>138500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>145300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>142500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>166700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>137900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>135700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>149700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>129600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1493000</v>
+        <v>1902200</v>
       </c>
       <c r="E26" s="3">
-        <v>1529900</v>
+        <v>1499200</v>
       </c>
       <c r="F26" s="3">
-        <v>1490800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
+        <v>1536300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1497000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="3">
-        <v>521100</v>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J26" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K26" s="3">
         <v>634100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>724300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>822700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>884100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>783600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>686600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>733800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>762000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>708000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>634600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>653300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>626000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>598700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>544100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1491500</v>
+        <v>1839800</v>
       </c>
       <c r="E27" s="3">
-        <v>1472300</v>
+        <v>1497700</v>
       </c>
       <c r="F27" s="3">
-        <v>1486300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
+        <v>1478400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1492500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="3">
-        <v>519600</v>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J27" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K27" s="3">
         <v>632700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>650100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>819800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>881000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>779900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>601400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>731700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>759900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>705900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>555200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>651100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>623100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>595800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>473700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500400</v>
+        <v>948500</v>
       </c>
       <c r="E32" s="3">
-        <v>379900</v>
+        <v>502400</v>
       </c>
       <c r="F32" s="3">
-        <v>206900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
+        <v>381500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>207800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="3">
-        <v>158200</v>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J32" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K32" s="3">
         <v>188500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>214300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>159800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>150100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>175700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>281000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>182000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>119900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>142200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>172400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>84100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>105400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>75900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>164800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1491500</v>
+        <v>1839800</v>
       </c>
       <c r="E33" s="3">
-        <v>1472300</v>
+        <v>1497700</v>
       </c>
       <c r="F33" s="3">
-        <v>1486300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
+        <v>1478400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1492500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="3">
-        <v>519600</v>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J33" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K33" s="3">
         <v>632700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>650100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>819800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>881000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>779900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>601400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>731700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>759900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>705900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>555200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>651100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>623100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>595800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>473700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1491500</v>
+        <v>1839800</v>
       </c>
       <c r="E35" s="3">
-        <v>1472300</v>
+        <v>1497700</v>
       </c>
       <c r="F35" s="3">
-        <v>1486300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
+        <v>1478400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1492500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="3">
-        <v>519600</v>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J35" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K35" s="3">
         <v>632700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>650100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>819800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>881000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>779900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>601400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>731700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>759900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>705900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>555200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>651100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>623100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>595800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>473700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2731,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59638700</v>
+        <v>62957500</v>
       </c>
       <c r="E41" s="3">
-        <v>55782800</v>
+        <v>59886400</v>
       </c>
       <c r="F41" s="3">
-        <v>55771000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
+        <v>56014500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>56002700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
-        <v>56164900</v>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3">
+        <v>56398200</v>
+      </c>
+      <c r="K41" s="3">
         <v>62159000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56350000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54343400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60228700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58529500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56823000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55972200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>61652000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55633300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58107600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57352600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>55610200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>50503300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>47133000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27898800</v>
+        <v>29530200</v>
       </c>
       <c r="E42" s="3">
-        <v>25762100</v>
+        <v>28014700</v>
       </c>
       <c r="F42" s="3">
-        <v>23874400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+        <v>25869100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>23973600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
-        <v>17521800</v>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3">
+        <v>17594600</v>
+      </c>
+      <c r="K42" s="3">
         <v>14395500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13061200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13128100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12759300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12732500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11567200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10260400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9848300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9675900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9614300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10128200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9724900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10082500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10815200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3155,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>943100</v>
+        <v>933600</v>
       </c>
       <c r="E47" s="3">
-        <v>920200</v>
+        <v>947000</v>
       </c>
       <c r="F47" s="3">
-        <v>909100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
+        <v>924000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>912900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="3">
-        <v>884700</v>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3">
+        <v>888400</v>
+      </c>
+      <c r="K47" s="3">
         <v>899500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>846600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>867400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>888600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>877000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>873900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>891800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>883400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>874800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>880400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>867900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>850900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>844300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>812200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2967500</v>
+        <v>3116400</v>
       </c>
       <c r="E48" s="3">
-        <v>2964500</v>
+        <v>2979800</v>
       </c>
       <c r="F48" s="3">
-        <v>2920200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+        <v>2976800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2932300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>2793100</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
+        <v>2804700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2776100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2645800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2668300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2698200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2614000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2449200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2257100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2229600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2231000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2255600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2236400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2221600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2201000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2189700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3061400</v>
+        <v>3636600</v>
       </c>
       <c r="E49" s="3">
-        <v>3063600</v>
+        <v>3074100</v>
       </c>
       <c r="F49" s="3">
-        <v>3062800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+        <v>3076300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3075600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
-        <v>3065000</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
+        <v>3077800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3055400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2969700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3041500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3125100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3069100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3092000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2918200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2919600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2988100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3054100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3055600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3057800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3058500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3040200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,47 +3510,50 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>440500</v>
+        <v>415600</v>
       </c>
       <c r="E52" s="3">
-        <v>376900</v>
+        <v>442300</v>
       </c>
       <c r="F52" s="3">
-        <v>329600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+        <v>378500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>331000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
-        <v>314900</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K52" s="3">
         <v>265300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>214500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>211900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>196100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3444,26 +3563,29 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>142500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>183900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>364589200</v>
+        <v>374246600</v>
       </c>
       <c r="E54" s="3">
-        <v>339485600</v>
+        <v>366103600</v>
       </c>
       <c r="F54" s="3">
-        <v>330012600</v>
+        <v>340895800</v>
       </c>
       <c r="G54" s="3">
-        <v>319153700</v>
+        <v>331383400</v>
       </c>
       <c r="H54" s="3">
-        <v>311958600</v>
+        <v>320479400</v>
       </c>
       <c r="I54" s="3">
-        <v>317527700</v>
+        <v>313254400</v>
       </c>
       <c r="J54" s="3">
+        <v>318846600</v>
+      </c>
+      <c r="K54" s="3">
         <v>316802700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>289544400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>299446800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>306542100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>296882200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>289967100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>269977900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>271124400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>263049000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>264407800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>261127300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>253953700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>252596900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>249032800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3779,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3848,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,47 +3919,50 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>519600</v>
+        <v>595200</v>
       </c>
       <c r="E59" s="3">
-        <v>416100</v>
+        <v>521700</v>
       </c>
       <c r="F59" s="3">
-        <v>338500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+        <v>417800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>339900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
-        <v>480400</v>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3">
+        <v>482400</v>
+      </c>
+      <c r="K59" s="3">
         <v>422000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>341700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>408800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>472200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3836,26 +3972,29 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>405900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>305700</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,115 +4061,121 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29386600</v>
+        <v>30126900</v>
       </c>
       <c r="E61" s="3">
-        <v>25170800</v>
+        <v>29508700</v>
       </c>
       <c r="F61" s="3">
-        <v>22799000</v>
+        <v>25275300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>22893700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>17724400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>17798000</v>
+      </c>
+      <c r="K61" s="3">
         <v>14608300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18049200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20256000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23638900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16651200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22867300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16867400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19583800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17617400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18565000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18916700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19631900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19255900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19146800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>295600</v>
+        <v>267200</v>
       </c>
       <c r="E62" s="3">
-        <v>318600</v>
+        <v>296900</v>
       </c>
       <c r="F62" s="3">
-        <v>312600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+        <v>319900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>313900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>330400</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>331700</v>
+      </c>
+      <c r="K62" s="3">
         <v>292700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>214200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>226600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>203700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>195700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4040,26 +4185,29 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>131200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>169800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>333357000</v>
+        <v>342061700</v>
       </c>
       <c r="E66" s="3">
-        <v>307975600</v>
+        <v>334741700</v>
       </c>
       <c r="F66" s="3">
-        <v>298947500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
+        <v>309254800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>300189200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
-        <v>287903800</v>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3">
+        <v>289099700</v>
+      </c>
+      <c r="K66" s="3">
         <v>287032400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>261165900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>270495900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>277098700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>267978100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>261856600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>244034800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>244552700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>235710900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>237236500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>235211700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>228403000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>227719500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>224956800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25722200</v>
+        <v>26355200</v>
       </c>
       <c r="E72" s="3">
-        <v>26047400</v>
+        <v>25829000</v>
       </c>
       <c r="F72" s="3">
-        <v>25506300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
+        <v>26155600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>25612300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
-        <v>24189300</v>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3">
+        <v>24289700</v>
+      </c>
+      <c r="K72" s="3">
         <v>24370300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23133900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23216200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24108800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23704300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22869800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20963200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20949800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21760300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21445100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20844100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20533000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20193100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19424600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31232100</v>
+        <v>32184900</v>
       </c>
       <c r="E76" s="3">
-        <v>31510100</v>
+        <v>31361900</v>
       </c>
       <c r="F76" s="3">
-        <v>31065100</v>
+        <v>31640900</v>
       </c>
       <c r="G76" s="3">
-        <v>30229900</v>
+        <v>31194100</v>
       </c>
       <c r="H76" s="3">
-        <v>29553700</v>
+        <v>30355500</v>
       </c>
       <c r="I76" s="3">
-        <v>29623900</v>
+        <v>29676400</v>
       </c>
       <c r="J76" s="3">
+        <v>29746900</v>
+      </c>
+      <c r="K76" s="3">
         <v>29770200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28378600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28950900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29443400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28904100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28110500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25943100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26571800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27338100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27171300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25915600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25550700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24877500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24076000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1491500</v>
+        <v>1839800</v>
       </c>
       <c r="E81" s="3">
-        <v>1472300</v>
+        <v>1497700</v>
       </c>
       <c r="F81" s="3">
-        <v>1486300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
+        <v>1478400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1492500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="3">
-        <v>519600</v>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J81" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K81" s="3">
         <v>632700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>650100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>819800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>881000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>779900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>601400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>731700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>759900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>705900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>555200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>651100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>623100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>595800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>473700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>184000</v>
+        <v>213700</v>
       </c>
       <c r="E83" s="3">
-        <v>187000</v>
+        <v>184800</v>
       </c>
       <c r="F83" s="3">
-        <v>174400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+        <v>187800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>175200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>164800</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K83" s="3">
         <v>-214100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>46500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4651200</v>
+        <v>2828400</v>
       </c>
       <c r="E89" s="3">
-        <v>-2140400</v>
+        <v>4670500</v>
       </c>
       <c r="F89" s="3">
-        <v>64300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
+        <v>-2149300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>64600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>6157400</v>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>6183000</v>
+      </c>
+      <c r="K89" s="3">
         <v>987700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4978600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-485400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8230400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9601800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>466400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-137600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1240700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3652800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>889200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1353000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-198100</v>
+        <v>-436000</v>
       </c>
       <c r="E91" s="3">
-        <v>-216600</v>
+        <v>-268000</v>
       </c>
       <c r="F91" s="3">
-        <v>-189900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+        <v>-293000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-302000</v>
       </c>
       <c r="I91" s="3">
-        <v>-192900</v>
+        <v>-118000</v>
       </c>
       <c r="J91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="K91" s="3">
         <v>317800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-118100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-105600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-96400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-71100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-63400</v>
       </c>
       <c r="U91" s="3">
         <v>-63400</v>
       </c>
       <c r="V91" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="W91" s="3">
         <v>-59700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-92900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172200</v>
+        <v>-2582000</v>
       </c>
       <c r="E94" s="3">
-        <v>-187000</v>
+        <v>-172900</v>
       </c>
       <c r="F94" s="3">
-        <v>-138200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+        <v>-187800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-138800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>-162600</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="K94" s="3">
         <v>269900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-88000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-88200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-86100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-73700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-107600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,53 +6235,54 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-742800</v>
+        <v>-745900</v>
       </c>
       <c r="E96" s="3">
-        <v>-744300</v>
+        <v>-745900</v>
       </c>
       <c r="F96" s="3">
-        <v>-443500</v>
+        <v>-747400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-445300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-925400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-929200</v>
+      </c>
+      <c r="K96" s="3">
         <v>1540900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-673100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-589200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6057,22 +6290,25 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-390800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-99500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4329600</v>
+        <v>-89800</v>
       </c>
       <c r="E100" s="3">
-        <v>1795300</v>
+        <v>4347600</v>
       </c>
       <c r="F100" s="3">
-        <v>438300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+        <v>1802700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>440100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
-        <v>-2283800</v>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>-2293300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1241800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2002700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2957900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5676300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6147900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4950400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1536000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-393400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>410600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>243300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>148900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4704400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-298600</v>
+        <v>421600</v>
       </c>
       <c r="E101" s="3">
-        <v>-162600</v>
+        <v>-299800</v>
       </c>
       <c r="F101" s="3">
-        <v>40700</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+        <v>80200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>40800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3">
-        <v>549200</v>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J101" s="3">
+        <v>551400</v>
+      </c>
+      <c r="K101" s="3">
         <v>351500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-101300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>206800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>134300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>33200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>255400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-281500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-160300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-65600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-264000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>266600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8510000</v>
+        <v>578200</v>
       </c>
       <c r="E102" s="3">
-        <v>-694800</v>
+        <v>8545300</v>
       </c>
       <c r="F102" s="3">
-        <v>405000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
+        <v>-697600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>406700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
-        <v>4260200</v>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>4277900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2850800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2773500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3324600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2510400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3379800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>540800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1567800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>506000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2459800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1095000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1179800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,175 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6073900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3471900</v>
+        <v>7847700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>3080700</v>
+        <v>6057300</v>
       </c>
       <c r="G8" s="3">
-        <v>3008000</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
+        <v>3462400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3072300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2999800</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
         <v>1839100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2134500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2175700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2364000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2409300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2298200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2269900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2060300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1924800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1771200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1759700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1710700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1641300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1581600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1543500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +903,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +980,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1163,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,31 +1240,37 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>-7400</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>-3700</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1273,8 +1317,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2729700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1071700</v>
+        <v>4656200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>849000</v>
+        <v>2722200</v>
       </c>
       <c r="G17" s="3">
-        <v>986300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+        <v>1068800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>846700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>983600</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1052400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1167800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1109200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1233300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1190600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1163800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>999100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>768000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>786000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>835400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>774200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>757300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>705000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3344200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2400200</v>
+        <v>3191500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>2231700</v>
+        <v>3335100</v>
       </c>
       <c r="G18" s="3">
-        <v>2021700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+        <v>2393600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2225600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2016100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>786700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>966700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1066500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1130700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1208400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1107600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1061200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1024500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1003200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>973700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>875200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>867100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>824400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>838500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>765300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1530,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-948500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-502400</v>
+        <v>-612100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-381500</v>
+        <v>-945900</v>
       </c>
       <c r="G20" s="3">
-        <v>-207800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+        <v>-501100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-380400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-207200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-158800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-188500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-214300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-159800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-150100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-175700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-281000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-182000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-119900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-142200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-172400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-84100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-105400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-75900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-164800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-60800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2609500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2082500</v>
+        <v>2800700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2038000</v>
+        <v>2786600</v>
       </c>
       <c r="G21" s="3">
-        <v>1989000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>1714900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2207100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1647600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>793400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>564200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>930000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1045600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1131500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>999300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>879500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>927800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>951800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>907300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>853100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>837600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>805200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>797100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>716700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>744800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1757,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2395700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1897700</v>
+        <v>2579400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>1850200</v>
+        <v>2389200</v>
       </c>
       <c r="G23" s="3">
-        <v>1813900</v>
+        <v>1892500</v>
       </c>
       <c r="H23" s="3">
-        <v>621900</v>
+        <v>1845200</v>
       </c>
       <c r="I23" s="3">
+        <v>1808900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>620200</v>
+      </c>
+      <c r="K23" s="3">
         <v>593700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>627900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>778300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>852200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>970800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1058300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>931900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>825000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>879100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>904500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>861100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>801300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>791200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>761700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>748400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>673700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>493500</v>
+        <v>409300</v>
       </c>
       <c r="E24" s="3">
-        <v>398500</v>
+        <v>265000</v>
       </c>
       <c r="F24" s="3">
-        <v>313900</v>
+        <v>492200</v>
       </c>
       <c r="G24" s="3">
-        <v>316900</v>
+        <v>397500</v>
       </c>
       <c r="H24" s="3">
-        <v>99500</v>
+        <v>313100</v>
       </c>
       <c r="I24" s="3">
+        <v>316000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K24" s="3">
         <v>98000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>104600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>144100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>127800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>148100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>174200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>148300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>138500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>145300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>142500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>153000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>166700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>137900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>135700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>149700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>129600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>123800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1902200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1499200</v>
+        <v>2170100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>1536300</v>
+        <v>1897000</v>
       </c>
       <c r="G26" s="3">
-        <v>1497000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+        <v>1495100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1532100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1492900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>523200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>634100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>724300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>822700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>884100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>783600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>686600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>733800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>762000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>708000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>634600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>653300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>626000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>598700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>544100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>580800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1839800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1497700</v>
+        <v>2164900</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>1478400</v>
+        <v>1834800</v>
       </c>
       <c r="G27" s="3">
-        <v>1492500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+        <v>1493600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1474400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1488400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>521700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>632700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>650100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>819800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>881000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>779900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>601400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>731700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>759900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>705900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>555200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>651100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>623100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>595800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>473700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2219,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2450,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>948500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>502400</v>
+        <v>612100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>381500</v>
+        <v>945900</v>
       </c>
       <c r="G32" s="3">
-        <v>207800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+        <v>501100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>380400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>207200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>158800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>188500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>214300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>159800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>150100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>175700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>281000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>182000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>119900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>142200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>172400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>84100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>105400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>75900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>164800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1839800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1497700</v>
+        <v>2164900</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>1478400</v>
+        <v>1834800</v>
       </c>
       <c r="G33" s="3">
-        <v>1492500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+        <v>1493600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1474400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1488400</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>521700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>632700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>650100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>819800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>881000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>779900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>601400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>731700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>759900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>705900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>555200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>651100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>623100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>595800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>473700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1839800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1497700</v>
+        <v>2164900</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>1478400</v>
+        <v>1834800</v>
       </c>
       <c r="G35" s="3">
-        <v>1492500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+        <v>1493600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1474400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1488400</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>521700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>632700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>650100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>819800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>881000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>779900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>601400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>731700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>759900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>705900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>555200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>651100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>623100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>595800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>473700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2902,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62957500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>59886400</v>
+        <v>60160100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>56014500</v>
+        <v>62785300</v>
       </c>
       <c r="G41" s="3">
-        <v>56002700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+        <v>59722600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>55861300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>55849500</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>56398200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>62159000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>56350000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>54343400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>60228700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>58529500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>56823000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>55972200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>61652000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>55633300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>58107600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>57352600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>55610200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>50503300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>47133000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>44354300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29530200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>28014700</v>
+        <v>30577400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>25869100</v>
+        <v>29449400</v>
       </c>
       <c r="G42" s="3">
-        <v>23973600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+        <v>27938100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>25798300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>23908000</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>17594600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14395500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13061200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13128100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12759300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>12732500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>11567200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>10260400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9848300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9675900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>9614300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>10128200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>9724900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>10082500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>10815200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>11601100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3129,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3206,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3283,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3360,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>933600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>947000</v>
+        <v>934100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>924000</v>
+        <v>931100</v>
       </c>
       <c r="G47" s="3">
-        <v>912900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+        <v>944400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>921500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>910400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>888400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>899500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>846600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>867400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>888600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>877000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>873900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>891800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>883400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>874800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>880400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>867900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>850900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>844300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>812200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>801200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3116400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2979800</v>
+        <v>3196700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>2976800</v>
+        <v>3107800</v>
       </c>
       <c r="G48" s="3">
-        <v>2932300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+        <v>2971700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2968700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2924300</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>2804700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2776100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2645800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2668300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2698200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2614000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2449200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2257100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2229600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2231000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2255600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2236400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2221600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2201000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2189700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2127600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3636600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3074100</v>
+        <v>3620000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>3076300</v>
+        <v>3626700</v>
       </c>
       <c r="G49" s="3">
-        <v>3075600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+        <v>3065700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3067900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3067100</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3077800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3055400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2969700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3041500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3125100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3069100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3092000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2918200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2919600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2988100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3054100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3055600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3057800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>3058500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>3040200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>3037200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>415600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>442300</v>
+        <v>508500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>378500</v>
+        <v>414500</v>
       </c>
       <c r="G52" s="3">
-        <v>331000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+        <v>441100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>377500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>330100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>316200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>265300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>214500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>211900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>196100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>200200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>142500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>183900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>374246600</v>
+        <v>374187400</v>
       </c>
       <c r="E54" s="3">
-        <v>366103600</v>
+        <v>371482900</v>
       </c>
       <c r="F54" s="3">
-        <v>340895800</v>
+        <v>373223000</v>
       </c>
       <c r="G54" s="3">
-        <v>331383400</v>
+        <v>365102200</v>
       </c>
       <c r="H54" s="3">
-        <v>320479400</v>
+        <v>339963300</v>
       </c>
       <c r="I54" s="3">
+        <v>330477000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>319602800</v>
+      </c>
+      <c r="K54" s="3">
         <v>313254400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>318846600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>316802700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>289544400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>299446800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>306542100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>296882200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>289967100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>269977900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>271124400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>263049000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>264407800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>261127300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>253953700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>252596900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>249032800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>240096500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +4038,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,8 +4111,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,79 +4188,91 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>595200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>521700</v>
+        <v>616500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>417800</v>
+        <v>593600</v>
       </c>
       <c r="G59" s="3">
-        <v>339900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+        <v>520300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>416700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>339000</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>482400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>422000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>350100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>341700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>408800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>472200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>405900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>305700</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4342,168 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30126900</v>
+        <v>24443900</v>
       </c>
       <c r="E61" s="3">
-        <v>29508700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>25275300</v>
+        <v>30044500</v>
       </c>
       <c r="G61" s="3">
-        <v>22893700</v>
+        <v>29428000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>25206200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>22831100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>17798000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14608300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18049200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>20256000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>23638900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16651200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>22867300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16867400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>19583800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>17617400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>18565000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>18916700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>19631900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>19255900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>19146800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>14199600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>267200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>296900</v>
+        <v>322700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>319900</v>
+        <v>266500</v>
       </c>
       <c r="G62" s="3">
-        <v>313900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+        <v>296100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>319000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>313100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>331700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>292700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>214200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>226600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>203700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>195700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>131200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>169800</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>342061700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>334741700</v>
+        <v>340371100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>309254800</v>
+        <v>341126100</v>
       </c>
       <c r="G66" s="3">
-        <v>300189200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+        <v>333826100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>308408900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>299368100</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>289099700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>287032400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>261165900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>270495900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>277098700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>267978100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>261856600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>244034800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>244552700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>235710900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>237236500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>235211700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>228403000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>227719500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>224956800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>216354600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4987,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +5064,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26355200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>25829000</v>
+        <v>27377800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>26155600</v>
+        <v>26283100</v>
       </c>
       <c r="G72" s="3">
-        <v>25612300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+        <v>25758400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>26084000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>25542200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>24289700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>24370300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>23133900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>23216200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>24108800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>23704300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>22869800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>20963200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>20949800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>21760300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>21445100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>20844100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>20533000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>20193100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>19424600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>19098500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32184900</v>
+        <v>33816300</v>
       </c>
       <c r="E76" s="3">
-        <v>31361900</v>
+        <v>34017600</v>
       </c>
       <c r="F76" s="3">
-        <v>31640900</v>
+        <v>32096900</v>
       </c>
       <c r="G76" s="3">
-        <v>31194100</v>
+        <v>31276100</v>
       </c>
       <c r="H76" s="3">
-        <v>30355500</v>
+        <v>31554400</v>
       </c>
       <c r="I76" s="3">
+        <v>31108800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>30272500</v>
+      </c>
+      <c r="K76" s="3">
         <v>29676400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>29746900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>29770200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28378600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>28950900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>29443400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28904100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>28110500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>25943100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>26571800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>27338100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>27171300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>25915600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>25550700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>24877500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>24076000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>23741900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1839800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1497700</v>
+        <v>2164900</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>1478400</v>
+        <v>1834800</v>
       </c>
       <c r="G81" s="3">
-        <v>1492500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+        <v>1493600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1474400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1488400</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>521700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>632700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>650100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>819800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>881000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>779900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>601400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>731700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>759900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>705900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>555200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>651100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>623100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>595800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>473700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>579300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>213700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>184800</v>
+        <v>221300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>187800</v>
+        <v>397500</v>
       </c>
       <c r="G83" s="3">
-        <v>175200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+        <v>-177600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>361900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>165500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>-214100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>77800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>74800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>73200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>67500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>54400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>48700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>47300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>46200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>51800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>46500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>43500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>48700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>43000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2828400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4670500</v>
+        <v>9979300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>-2149300</v>
+        <v>7478400</v>
       </c>
       <c r="G89" s="3">
-        <v>64600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+        <v>6736800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2079100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-7058000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>6183000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>987700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4978600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-485400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-8230400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>9601800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4385900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>466400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-137600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1240700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3012900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3652800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>889200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1353000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-6645300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-370600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-399000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-436000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-268000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-293000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-257000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-302000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-118000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-143000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>317800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-118100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-101200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-105600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-96400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-118400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-87500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-106500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-59900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-71100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-63400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-63400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-59700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-92900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-56400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2582000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-172900</v>
+        <v>-374500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-187800</v>
+        <v>-2747400</v>
       </c>
       <c r="G94" s="3">
-        <v>-138800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+        <v>153200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-325700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>239800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-163300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>269900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-101000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-88000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-90500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-88200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-79700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-86100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-59900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-73700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-64900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-54600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-58300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-107600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-35900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6700,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-745900</v>
+        <v>-931100</v>
       </c>
       <c r="E96" s="3">
-        <v>-745900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-747400</v>
+        <v>-1487700</v>
       </c>
       <c r="G96" s="3">
-        <v>-445300</v>
+        <v>445600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1189400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>915600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-929200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>1540900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-673100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-589200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-390800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-99500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-93700</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +7004,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>4347600</v>
+        <v>-6249000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>1802700</v>
+        <v>4246200</v>
       </c>
       <c r="G100" s="3">
-        <v>440100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+        <v>2099000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2236700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1086500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2293300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1241800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2002700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2957900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>5676300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6147900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4950400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-3951200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1536000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-393400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>410600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1062500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>243300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>148900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4704400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>686200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>421600</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-299800</v>
+        <v>459600</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>80200</v>
+        <v>121400</v>
       </c>
       <c r="G101" s="3">
-        <v>40800</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+        <v>-419700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>120600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>551400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>351500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-101300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>206800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>134300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>14100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>9200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>33200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>255400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-281500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-160300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-65600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>17000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-264000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>266600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-382300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>578200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>8545300</v>
+        <v>3815400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>-697600</v>
+        <v>9098500</v>
       </c>
       <c r="G102" s="3">
-        <v>406700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+        <v>8812100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-290100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-7866200</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>4277900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2850800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2773500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3324600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2510400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3379800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>540800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3531400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1567800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>506000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2836200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2459800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1095000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1179800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1781900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-102500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UOVEY_QTR_FIN.xlsx
@@ -761,22 +761,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7847700</v>
+        <v>7871000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>6057300</v>
+        <v>6075300</v>
       </c>
       <c r="G8" s="3">
-        <v>3462400</v>
+        <v>3472700</v>
       </c>
       <c r="H8" s="3">
-        <v>3072300</v>
+        <v>3081500</v>
       </c>
       <c r="I8" s="3">
-        <v>2999800</v>
+        <v>3008700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>5</v>
@@ -1355,22 +1355,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4656200</v>
+        <v>4670100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>2722200</v>
+        <v>2730300</v>
       </c>
       <c r="G17" s="3">
-        <v>1068800</v>
+        <v>1071900</v>
       </c>
       <c r="H17" s="3">
-        <v>846700</v>
+        <v>849200</v>
       </c>
       <c r="I17" s="3">
-        <v>983600</v>
+        <v>986600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1432,22 +1432,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3191500</v>
+        <v>3201000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>3335100</v>
+        <v>3345000</v>
       </c>
       <c r="G18" s="3">
-        <v>2393600</v>
+        <v>2400700</v>
       </c>
       <c r="H18" s="3">
-        <v>2225600</v>
+        <v>2232200</v>
       </c>
       <c r="I18" s="3">
-        <v>2016100</v>
+        <v>2022100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1538,22 +1538,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-612100</v>
+        <v>-613900</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-945900</v>
+        <v>-948700</v>
       </c>
       <c r="G20" s="3">
-        <v>-501100</v>
+        <v>-502600</v>
       </c>
       <c r="H20" s="3">
-        <v>-380400</v>
+        <v>-381600</v>
       </c>
       <c r="I20" s="3">
-        <v>-207200</v>
+        <v>-207900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1615,22 +1615,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2800700</v>
+        <v>2809000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2786600</v>
+        <v>2794900</v>
       </c>
       <c r="G21" s="3">
-        <v>1714900</v>
+        <v>1720000</v>
       </c>
       <c r="H21" s="3">
-        <v>2207100</v>
+        <v>2213700</v>
       </c>
       <c r="I21" s="3">
-        <v>1647600</v>
+        <v>1652400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1769,25 +1769,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2579400</v>
+        <v>2587100</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>2389200</v>
+        <v>2396300</v>
       </c>
       <c r="G23" s="3">
-        <v>1892500</v>
+        <v>1898200</v>
       </c>
       <c r="H23" s="3">
-        <v>1845200</v>
+        <v>1850700</v>
       </c>
       <c r="I23" s="3">
-        <v>1808900</v>
+        <v>1814300</v>
       </c>
       <c r="J23" s="3">
-        <v>620200</v>
+        <v>622100</v>
       </c>
       <c r="K23" s="3">
         <v>593700</v>
@@ -1846,25 +1846,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>409300</v>
+        <v>410500</v>
       </c>
       <c r="E24" s="3">
-        <v>265000</v>
+        <v>265800</v>
       </c>
       <c r="F24" s="3">
-        <v>492200</v>
+        <v>493700</v>
       </c>
       <c r="G24" s="3">
-        <v>397500</v>
+        <v>398600</v>
       </c>
       <c r="H24" s="3">
-        <v>313100</v>
+        <v>314000</v>
       </c>
       <c r="I24" s="3">
-        <v>316000</v>
+        <v>317000</v>
       </c>
       <c r="J24" s="3">
-        <v>99200</v>
+        <v>99500</v>
       </c>
       <c r="K24" s="3">
         <v>98000</v>
@@ -2000,22 +2000,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2170100</v>
+        <v>2176500</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>1897000</v>
+        <v>1902600</v>
       </c>
       <c r="G26" s="3">
-        <v>1495100</v>
+        <v>1499500</v>
       </c>
       <c r="H26" s="3">
-        <v>1532100</v>
+        <v>1536600</v>
       </c>
       <c r="I26" s="3">
-        <v>1492900</v>
+        <v>1497300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -2077,22 +2077,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2164900</v>
+        <v>2171300</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>1834800</v>
+        <v>1840300</v>
       </c>
       <c r="G27" s="3">
-        <v>1493600</v>
+        <v>1498000</v>
       </c>
       <c r="H27" s="3">
-        <v>1474400</v>
+        <v>1478700</v>
       </c>
       <c r="I27" s="3">
-        <v>1488400</v>
+        <v>1492800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -2462,22 +2462,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>612100</v>
+        <v>613900</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>945900</v>
+        <v>948700</v>
       </c>
       <c r="G32" s="3">
-        <v>501100</v>
+        <v>502600</v>
       </c>
       <c r="H32" s="3">
-        <v>380400</v>
+        <v>381600</v>
       </c>
       <c r="I32" s="3">
-        <v>207200</v>
+        <v>207900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2539,22 +2539,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2164900</v>
+        <v>2171300</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>1834800</v>
+        <v>1840300</v>
       </c>
       <c r="G33" s="3">
-        <v>1493600</v>
+        <v>1498000</v>
       </c>
       <c r="H33" s="3">
-        <v>1474400</v>
+        <v>1478700</v>
       </c>
       <c r="I33" s="3">
-        <v>1488400</v>
+        <v>1492800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2693,22 +2693,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2164900</v>
+        <v>2171300</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>1834800</v>
+        <v>1840300</v>
       </c>
       <c r="G35" s="3">
-        <v>1493600</v>
+        <v>1498000</v>
       </c>
       <c r="H35" s="3">
-        <v>1474400</v>
+        <v>1478700</v>
       </c>
       <c r="I35" s="3">
-        <v>1488400</v>
+        <v>1492800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2910,22 +2910,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>60160100</v>
+        <v>60338900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>62785300</v>
+        <v>62972000</v>
       </c>
       <c r="G41" s="3">
-        <v>59722600</v>
+        <v>59900200</v>
       </c>
       <c r="H41" s="3">
-        <v>55861300</v>
+        <v>56027400</v>
       </c>
       <c r="I41" s="3">
-        <v>55849500</v>
+        <v>56015500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2987,22 +2987,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30577400</v>
+        <v>30668300</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>29449400</v>
+        <v>29537000</v>
       </c>
       <c r="G42" s="3">
-        <v>27938100</v>
+        <v>28021100</v>
       </c>
       <c r="H42" s="3">
-        <v>25798300</v>
+        <v>25875000</v>
       </c>
       <c r="I42" s="3">
-        <v>23908000</v>
+        <v>23979100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3372,22 +3372,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>934100</v>
+        <v>936800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>931100</v>
+        <v>933900</v>
       </c>
       <c r="G47" s="3">
-        <v>944400</v>
+        <v>947200</v>
       </c>
       <c r="H47" s="3">
-        <v>921500</v>
+        <v>924200</v>
       </c>
       <c r="I47" s="3">
-        <v>910400</v>
+        <v>913100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3449,22 +3449,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3196700</v>
+        <v>3206200</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>3107800</v>
+        <v>3117100</v>
       </c>
       <c r="G48" s="3">
-        <v>2971700</v>
+        <v>2980500</v>
       </c>
       <c r="H48" s="3">
-        <v>2968700</v>
+        <v>2977500</v>
       </c>
       <c r="I48" s="3">
-        <v>2924300</v>
+        <v>2933000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3526,22 +3526,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3620000</v>
+        <v>3630800</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>3626700</v>
+        <v>3637500</v>
       </c>
       <c r="G49" s="3">
-        <v>3065700</v>
+        <v>3074800</v>
       </c>
       <c r="H49" s="3">
-        <v>3067900</v>
+        <v>3077000</v>
       </c>
       <c r="I49" s="3">
-        <v>3067100</v>
+        <v>3076300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3757,22 +3757,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>508500</v>
+        <v>510000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>414500</v>
+        <v>415700</v>
       </c>
       <c r="G52" s="3">
-        <v>441100</v>
+        <v>442400</v>
       </c>
       <c r="H52" s="3">
-        <v>377500</v>
+        <v>378600</v>
       </c>
       <c r="I52" s="3">
-        <v>330100</v>
+        <v>331100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3911,25 +3911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>374187400</v>
+        <v>375299600</v>
       </c>
       <c r="E54" s="3">
-        <v>371482900</v>
+        <v>372587100</v>
       </c>
       <c r="F54" s="3">
-        <v>373223000</v>
+        <v>374332400</v>
       </c>
       <c r="G54" s="3">
-        <v>365102200</v>
+        <v>366187400</v>
       </c>
       <c r="H54" s="3">
-        <v>339963300</v>
+        <v>340973800</v>
       </c>
       <c r="I54" s="3">
-        <v>330477000</v>
+        <v>331459300</v>
       </c>
       <c r="J54" s="3">
-        <v>319602800</v>
+        <v>320552800</v>
       </c>
       <c r="K54" s="3">
         <v>313254400</v>
@@ -4200,22 +4200,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>616500</v>
+        <v>618400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>593600</v>
+        <v>595400</v>
       </c>
       <c r="G59" s="3">
-        <v>520300</v>
+        <v>521900</v>
       </c>
       <c r="H59" s="3">
-        <v>416700</v>
+        <v>417900</v>
       </c>
       <c r="I59" s="3">
-        <v>339000</v>
+        <v>340000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4354,22 +4354,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24443900</v>
+        <v>24516500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>30044500</v>
+        <v>30133800</v>
       </c>
       <c r="G61" s="3">
-        <v>29428000</v>
+        <v>29515400</v>
       </c>
       <c r="H61" s="3">
-        <v>25206200</v>
+        <v>25281100</v>
       </c>
       <c r="I61" s="3">
-        <v>22831100</v>
+        <v>22899000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4431,22 +4431,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>322700</v>
+        <v>323700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>266500</v>
+        <v>267200</v>
       </c>
       <c r="G62" s="3">
-        <v>296100</v>
+        <v>296900</v>
       </c>
       <c r="H62" s="3">
-        <v>319000</v>
+        <v>319900</v>
       </c>
       <c r="I62" s="3">
-        <v>313100</v>
+        <v>314000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4739,22 +4739,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>340371100</v>
+        <v>341382900</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>341126100</v>
+        <v>342140100</v>
       </c>
       <c r="G66" s="3">
-        <v>333826100</v>
+        <v>334818400</v>
       </c>
       <c r="H66" s="3">
-        <v>308408900</v>
+        <v>309325700</v>
       </c>
       <c r="I66" s="3">
-        <v>299368100</v>
+        <v>300258000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5153,22 +5153,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27377800</v>
+        <v>27459200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>26283100</v>
+        <v>26361200</v>
       </c>
       <c r="G72" s="3">
-        <v>25758400</v>
+        <v>25834900</v>
       </c>
       <c r="H72" s="3">
-        <v>26084000</v>
+        <v>26161500</v>
       </c>
       <c r="I72" s="3">
-        <v>25542200</v>
+        <v>25618200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5461,25 +5461,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33816300</v>
+        <v>33916800</v>
       </c>
       <c r="E76" s="3">
-        <v>34017600</v>
+        <v>34118700</v>
       </c>
       <c r="F76" s="3">
-        <v>32096900</v>
+        <v>32192300</v>
       </c>
       <c r="G76" s="3">
-        <v>31276100</v>
+        <v>31369100</v>
       </c>
       <c r="H76" s="3">
-        <v>31554400</v>
+        <v>31648200</v>
       </c>
       <c r="I76" s="3">
-        <v>31108800</v>
+        <v>31201300</v>
       </c>
       <c r="J76" s="3">
-        <v>30272500</v>
+        <v>30362400</v>
       </c>
       <c r="K76" s="3">
         <v>29676400</v>
@@ -5697,22 +5697,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2164900</v>
+        <v>2171300</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>1834800</v>
+        <v>1840300</v>
       </c>
       <c r="G81" s="3">
-        <v>1493600</v>
+        <v>1498000</v>
       </c>
       <c r="H81" s="3">
-        <v>1474400</v>
+        <v>1478700</v>
       </c>
       <c r="I81" s="3">
-        <v>1488400</v>
+        <v>1492800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
@@ -5803,22 +5803,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>221300</v>
+        <v>222000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>397500</v>
+        <v>398600</v>
       </c>
       <c r="G83" s="3">
-        <v>-177600</v>
+        <v>-178200</v>
       </c>
       <c r="H83" s="3">
-        <v>361900</v>
+        <v>363000</v>
       </c>
       <c r="I83" s="3">
-        <v>-161400</v>
+        <v>-161800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -6265,22 +6265,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9979300</v>
+        <v>10009000</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>7478400</v>
+        <v>7500600</v>
       </c>
       <c r="G89" s="3">
-        <v>6736800</v>
+        <v>6756800</v>
       </c>
       <c r="H89" s="3">
-        <v>-2079100</v>
+        <v>-2085200</v>
       </c>
       <c r="I89" s="3">
-        <v>-7058000</v>
+        <v>-7079000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -6602,22 +6602,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374500</v>
+        <v>-375600</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-2747400</v>
+        <v>-2755600</v>
       </c>
       <c r="G94" s="3">
-        <v>153200</v>
+        <v>153700</v>
       </c>
       <c r="H94" s="3">
-        <v>-325700</v>
+        <v>-326600</v>
       </c>
       <c r="I94" s="3">
-        <v>239800</v>
+        <v>240500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -6708,22 +6708,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-931100</v>
+        <v>-933900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1487700</v>
+        <v>-1492100</v>
       </c>
       <c r="G96" s="3">
-        <v>445600</v>
+        <v>446900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1189400</v>
+        <v>-1192900</v>
       </c>
       <c r="I96" s="3">
-        <v>915600</v>
+        <v>918300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7016,22 +7016,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6249000</v>
+        <v>-6267600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>4246200</v>
+        <v>4258800</v>
       </c>
       <c r="G100" s="3">
-        <v>2099000</v>
+        <v>2105300</v>
       </c>
       <c r="H100" s="3">
-        <v>2236700</v>
+        <v>2243400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1086500</v>
+        <v>-1089800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -7093,22 +7093,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>459600</v>
+        <v>461000</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>121400</v>
+        <v>121700</v>
       </c>
       <c r="G101" s="3">
-        <v>-419700</v>
+        <v>-420900</v>
       </c>
       <c r="H101" s="3">
-        <v>120600</v>
+        <v>121000</v>
       </c>
       <c r="I101" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -7170,22 +7170,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3815400</v>
+        <v>3826800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>9098500</v>
+        <v>9125600</v>
       </c>
       <c r="G102" s="3">
-        <v>8812100</v>
+        <v>8838300</v>
       </c>
       <c r="H102" s="3">
-        <v>-290100</v>
+        <v>-291000</v>
       </c>
       <c r="I102" s="3">
-        <v>-7866200</v>
+        <v>-7889600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
